--- a/DSC640/Course Project/Dashboard/Data/Airline Accidents.xlsx
+++ b/DSC640/Course Project/Dashboard/Data/Airline Accidents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osgiliath\DataScience\DSC640\Course Project\Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF7FD39-8EB4-4AFC-8381-01E8E5B8C6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBDB27A-C7E1-413E-82FF-DA9B713215C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="825" windowWidth="22035" windowHeight="14295" activeTab="2" xr2:uid="{DEA44467-3AF0-42DF-B092-63ACF5391C8A}"/>
+    <workbookView xWindow="1305" yWindow="6870" windowWidth="22035" windowHeight="14295" xr2:uid="{DEA44467-3AF0-42DF-B092-63ACF5391C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Year</t>
   </si>
@@ -72,13 +72,7 @@
 per x flights</t>
   </si>
   <si>
-    <t xml:space="preserve">Passenger Accidents </t>
-  </si>
-  <si>
     <t xml:space="preserve">Passenger and Cargo Accidents </t>
-  </si>
-  <si>
-    <t>Passenger Fatalities</t>
   </si>
   <si>
     <t>En Route</t>
@@ -124,6 +118,15 @@
   </si>
   <si>
     <t>Phase</t>
+  </si>
+  <si>
+    <t>Passenger plane Fatalities including</t>
+  </si>
+  <si>
+    <t>Passenger Plane Accidents including</t>
+  </si>
+  <si>
+    <t>Passenger Plane accidents excluding</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -319,12 +322,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -662,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7009F31B-E544-4A25-BFE0-1BC9B5247A2F}">
   <dimension ref="A1:V947"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -673,7 +674,8 @@
     <col min="4" max="4" width="15.42578125" style="17" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="17" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="17"/>
+    <col min="7" max="7" width="18.5703125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="9" customFormat="1" ht="26.25">
@@ -681,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -695,7 +697,9 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -719,7 +723,7 @@
       <c r="B2" s="11">
         <v>27</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="33">
         <v>1116</v>
       </c>
       <c r="D2" s="11">
@@ -732,8 +736,10 @@
         <f t="shared" ref="F2:F22" si="0">E2/D2</f>
         <v>594828.59459459456</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="33">
+        <v>43</v>
+      </c>
+      <c r="H2" s="23"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="20"/>
@@ -756,7 +762,7 @@
       <c r="B3" s="11">
         <v>29</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>1104</v>
       </c>
       <c r="D3" s="11">
@@ -769,8 +775,10 @@
         <f t="shared" si="0"/>
         <v>618450.5555555555</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="33">
+        <v>40</v>
+      </c>
+      <c r="H3" s="23"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="20"/>
@@ -793,7 +801,7 @@
       <c r="B4" s="11">
         <v>21</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>1017</v>
       </c>
       <c r="D4" s="11">
@@ -806,8 +814,10 @@
         <f t="shared" si="0"/>
         <v>630829.96969696973</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="33">
+        <v>43</v>
+      </c>
+      <c r="H4" s="23"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="20"/>
@@ -830,7 +840,7 @@
       <c r="B5" s="11">
         <v>16</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>633</v>
       </c>
       <c r="D5" s="11">
@@ -843,8 +853,10 @@
         <f t="shared" si="0"/>
         <v>886775.70833333337</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="33">
+        <v>34</v>
+      </c>
+      <c r="H5" s="23"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="20"/>
@@ -867,7 +879,7 @@
       <c r="B6" s="11">
         <v>15</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>485</v>
       </c>
       <c r="D6" s="11">
@@ -880,8 +892,10 @@
         <f t="shared" si="0"/>
         <v>742269.25</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="33">
+        <v>37</v>
+      </c>
+      <c r="H6" s="23"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="20"/>
@@ -904,7 +918,7 @@
       <c r="B7" s="11">
         <v>24</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>1015</v>
       </c>
       <c r="D7" s="11">
@@ -917,8 +931,10 @@
         <f t="shared" si="0"/>
         <v>712616.6176470588</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="G7" s="33">
+        <v>40</v>
+      </c>
+      <c r="H7" s="23"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="20"/>
@@ -941,7 +957,7 @@
       <c r="B8" s="11">
         <v>17</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>852</v>
       </c>
       <c r="D8" s="11">
@@ -954,8 +970,10 @@
         <f t="shared" si="0"/>
         <v>1035131.9166666666</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="33">
+        <v>33</v>
+      </c>
+      <c r="H8" s="23"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="20"/>
@@ -978,7 +996,7 @@
       <c r="B9" s="11">
         <v>18</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
         <v>694</v>
       </c>
       <c r="D9" s="11">
@@ -991,8 +1009,10 @@
         <f t="shared" si="0"/>
         <v>867200.3666666667</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="33">
+        <v>35</v>
+      </c>
+      <c r="H9" s="23"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="20"/>
@@ -1015,7 +1035,7 @@
       <c r="B10" s="11">
         <v>16</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="33">
         <v>523</v>
       </c>
       <c r="D10" s="11">
@@ -1028,8 +1048,10 @@
         <f t="shared" si="0"/>
         <v>980695.88461538462</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="33">
+        <v>35</v>
+      </c>
+      <c r="H10" s="23"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="20"/>
@@ -1052,7 +1074,7 @@
       <c r="B11" s="11">
         <v>12</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="33">
         <v>677</v>
       </c>
       <c r="D11" s="11">
@@ -1065,8 +1087,10 @@
         <f t="shared" si="0"/>
         <v>1135675</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="33">
+        <v>32</v>
+      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="20"/>
@@ -1089,7 +1113,7 @@
       <c r="B12" s="11">
         <v>19</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="33">
         <v>795</v>
       </c>
       <c r="D12" s="11">
@@ -1102,8 +1126,10 @@
         <f t="shared" si="0"/>
         <v>1097688.4074074074</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="G12" s="33">
+        <v>32</v>
+      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="20"/>
@@ -1126,7 +1152,7 @@
       <c r="B13" s="11">
         <v>23</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>473</v>
       </c>
       <c r="D13" s="11">
@@ -1139,8 +1165,10 @@
         <f t="shared" si="0"/>
         <v>955143.09375</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="33">
+        <v>36</v>
+      </c>
+      <c r="H13" s="23"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="20"/>
@@ -1163,7 +1191,7 @@
       <c r="B14" s="11">
         <v>10</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>395</v>
       </c>
       <c r="D14" s="11">
@@ -1176,8 +1204,10 @@
         <f t="shared" si="0"/>
         <v>1810074.5882352942</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="33">
+        <v>25</v>
+      </c>
+      <c r="H14" s="23"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="20"/>
@@ -1200,7 +1230,7 @@
       <c r="B15" s="11">
         <v>15</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>224</v>
       </c>
       <c r="D15" s="11">
@@ -1213,8 +1243,10 @@
         <f t="shared" si="0"/>
         <v>1368017.3043478262</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="G15" s="33">
+        <v>29</v>
+      </c>
+      <c r="H15" s="23"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="20"/>
@@ -1237,7 +1269,7 @@
       <c r="B16" s="11">
         <v>8</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="33">
         <v>925</v>
       </c>
       <c r="D16" s="11">
@@ -1250,8 +1282,10 @@
         <f t="shared" si="0"/>
         <v>1796654.5</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="G16" s="33">
+        <v>21</v>
+      </c>
+      <c r="H16" s="23"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="20"/>
@@ -1268,13 +1302,13 @@
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>2015</v>
       </c>
       <c r="B17" s="11">
         <v>7</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="33">
         <v>493</v>
       </c>
       <c r="D17" s="11">
@@ -1287,8 +1321,10 @@
         <f t="shared" si="0"/>
         <v>3336283.9</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="33">
+        <v>16</v>
+      </c>
+      <c r="H17" s="23"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="20"/>
@@ -1305,13 +1341,13 @@
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>2016</v>
       </c>
       <c r="B18" s="11">
         <v>11</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="33">
         <v>288</v>
       </c>
       <c r="D18" s="11">
@@ -1324,8 +1360,10 @@
         <f t="shared" si="0"/>
         <v>2167997.8125</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="33">
+        <v>19</v>
+      </c>
+      <c r="H18" s="23"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="20"/>
@@ -1342,13 +1380,13 @@
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>2017</v>
       </c>
       <c r="B19" s="11">
         <v>5</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>31</v>
       </c>
       <c r="D19" s="11">
@@ -1361,8 +1399,10 @@
         <f t="shared" si="0"/>
         <v>3570383.6</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="33">
+        <v>14</v>
+      </c>
+      <c r="H19" s="23"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="20"/>
@@ -1379,13 +1419,13 @@
       <c r="V19" s="16"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>2018</v>
       </c>
       <c r="B20" s="11">
         <v>11</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>542</v>
       </c>
       <c r="D20" s="11">
@@ -1398,31 +1438,33 @@
         <f t="shared" si="0"/>
         <v>2630588</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="G20" s="33">
+        <v>19</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>2019</v>
       </c>
       <c r="B21" s="11">
         <v>14</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>269</v>
       </c>
       <c r="D21" s="11">
@@ -1435,13 +1477,15 @@
         <f t="shared" si="0"/>
         <v>1873095.65</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="33">
+        <v>23</v>
+      </c>
+      <c r="H21" s="23"/>
       <c r="I21" s="16"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -1453,13 +1497,13 @@
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>2020</v>
       </c>
       <c r="B22" s="12">
         <v>4</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="34">
         <v>297</v>
       </c>
       <c r="D22" s="12">
@@ -1472,25 +1516,27 @@
         <f t="shared" si="0"/>
         <v>2388750</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="34">
+        <v>10</v>
+      </c>
+      <c r="H22" s="29"/>
       <c r="I22" s="16"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="34"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1514,7 +1560,7 @@
       <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="34"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1538,7 +1584,7 @@
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="34"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -1562,7 +1608,7 @@
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="34"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -1586,7 +1632,7 @@
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="34"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1610,7 +1656,7 @@
       <c r="V27" s="16"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="34"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1634,7 +1680,7 @@
       <c r="V28" s="16"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="34"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1658,7 +1704,7 @@
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="34"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1682,7 +1728,7 @@
       <c r="V30" s="16"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="34"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -1706,7 +1752,7 @@
       <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="34"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1730,7 +1776,7 @@
       <c r="V32" s="16"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="34"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1754,7 +1800,7 @@
       <c r="V33" s="16"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="34"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1778,7 +1824,7 @@
       <c r="V34" s="16"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="34"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1802,7 +1848,7 @@
       <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="34"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -1826,7 +1872,7 @@
       <c r="V36" s="16"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="34"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -1850,7 +1896,7 @@
       <c r="V37" s="16"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="34"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -1874,7 +1920,7 @@
       <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="34"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -1898,7 +1944,7 @@
       <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="34"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -1922,7 +1968,7 @@
       <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="34"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -1946,7 +1992,7 @@
       <c r="V41" s="16"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="34"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -1970,7 +2016,7 @@
       <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="34"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -1994,7 +2040,7 @@
       <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="34"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2018,7 +2064,7 @@
       <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="34"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -2042,7 +2088,7 @@
       <c r="V45" s="16"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="34"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -2066,7 +2112,7 @@
       <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="34"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -2090,7 +2136,7 @@
       <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="34"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -2114,7 +2160,7 @@
       <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="34"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -2138,7 +2184,7 @@
       <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="34"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -2162,7 +2208,7 @@
       <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="34"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -2186,7 +2232,7 @@
       <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="34"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -2210,7 +2256,7 @@
       <c r="V52" s="16"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="34"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -2234,7 +2280,7 @@
       <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="34"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -2258,7 +2304,7 @@
       <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="34"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -2282,7 +2328,7 @@
       <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="34"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -2306,7 +2352,7 @@
       <c r="V56" s="16"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="34"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -2330,7 +2376,7 @@
       <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="34"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -2354,7 +2400,7 @@
       <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="34"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2378,7 +2424,7 @@
       <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="34"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -2402,7 +2448,7 @@
       <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="34"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -2426,7 +2472,7 @@
       <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="34"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -2450,7 +2496,7 @@
       <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="34"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -2474,7 +2520,7 @@
       <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="34"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -2498,7 +2544,7 @@
       <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="34"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -2522,7 +2568,7 @@
       <c r="V65" s="16"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="34"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -2546,7 +2592,7 @@
       <c r="V66" s="16"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="34"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -2570,7 +2616,7 @@
       <c r="V67" s="16"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="34"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -2594,7 +2640,7 @@
       <c r="V68" s="16"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="34"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -2618,7 +2664,7 @@
       <c r="V69" s="16"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="34"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -2642,7 +2688,7 @@
       <c r="V70" s="16"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="34"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -2666,7 +2712,7 @@
       <c r="V71" s="16"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="34"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -2690,7 +2736,7 @@
       <c r="V72" s="16"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="34"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -2714,7 +2760,7 @@
       <c r="V73" s="16"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="34"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -2738,7 +2784,7 @@
       <c r="V74" s="16"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="34"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -2762,7 +2808,7 @@
       <c r="V75" s="16"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="34"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -2786,7 +2832,7 @@
       <c r="V76" s="16"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="34"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -2810,7 +2856,7 @@
       <c r="V77" s="16"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="34"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -2834,7 +2880,7 @@
       <c r="V78" s="16"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="34"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -2858,7 +2904,7 @@
       <c r="V79" s="16"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="34"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -2882,7 +2928,7 @@
       <c r="V80" s="16"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="34"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -2906,7 +2952,7 @@
       <c r="V81" s="16"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="34"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -2930,7 +2976,7 @@
       <c r="V82" s="16"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="34"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -2954,7 +3000,7 @@
       <c r="V83" s="16"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="34"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -2978,7 +3024,7 @@
       <c r="V84" s="16"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="34"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -3002,7 +3048,7 @@
       <c r="V85" s="16"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="34"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -3026,7 +3072,7 @@
       <c r="V86" s="16"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="34"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -3050,7 +3096,7 @@
       <c r="V87" s="16"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="34"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -3074,7 +3120,7 @@
       <c r="V88" s="16"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="34"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -3098,7 +3144,7 @@
       <c r="V89" s="16"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="34"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -3122,7 +3168,7 @@
       <c r="V90" s="16"/>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="34"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -3146,7 +3192,7 @@
       <c r="V91" s="16"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="34"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -3170,7 +3216,7 @@
       <c r="V92" s="16"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="34"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -3194,7 +3240,7 @@
       <c r="V93" s="16"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="34"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -3218,7 +3264,7 @@
       <c r="V94" s="16"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="34"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -3242,7 +3288,7 @@
       <c r="V95" s="16"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="34"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -3266,7 +3312,7 @@
       <c r="V96" s="16"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="34"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -3290,7 +3336,7 @@
       <c r="V97" s="16"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="34"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -3314,7 +3360,7 @@
       <c r="V98" s="16"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="34"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -3338,7 +3384,7 @@
       <c r="V99" s="16"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="34"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -3362,7 +3408,7 @@
       <c r="V100" s="16"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="34"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -3386,7 +3432,7 @@
       <c r="V101" s="16"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="34"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -3410,7 +3456,7 @@
       <c r="V102" s="16"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="34"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -3434,7 +3480,7 @@
       <c r="V103" s="16"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="34"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -3458,7 +3504,7 @@
       <c r="V104" s="16"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="34"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -3482,7 +3528,7 @@
       <c r="V105" s="16"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="34"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -3506,7 +3552,7 @@
       <c r="V106" s="16"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="34"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -3530,7 +3576,7 @@
       <c r="V107" s="16"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="34"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -3554,7 +3600,7 @@
       <c r="V108" s="16"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="34"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -3578,7 +3624,7 @@
       <c r="V109" s="16"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="34"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
@@ -3602,7 +3648,7 @@
       <c r="V110" s="16"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="34"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -3626,7 +3672,7 @@
       <c r="V111" s="16"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="34"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -3650,7 +3696,7 @@
       <c r="V112" s="16"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="34"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -3674,7 +3720,7 @@
       <c r="V113" s="16"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="34"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
@@ -3698,7 +3744,7 @@
       <c r="V114" s="16"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="34"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -3722,7 +3768,7 @@
       <c r="V115" s="16"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="34"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -3746,7 +3792,7 @@
       <c r="V116" s="16"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="34"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
@@ -3770,7 +3816,7 @@
       <c r="V117" s="16"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="34"/>
+      <c r="A118" s="32"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
@@ -3794,7 +3840,7 @@
       <c r="V118" s="16"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="34"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
@@ -3818,7 +3864,7 @@
       <c r="V119" s="16"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="34"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
@@ -3842,7 +3888,7 @@
       <c r="V120" s="16"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="34"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -3866,7 +3912,7 @@
       <c r="V121" s="16"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="34"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -3890,7 +3936,7 @@
       <c r="V122" s="16"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="34"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -3914,7 +3960,7 @@
       <c r="V123" s="16"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="34"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -3938,7 +3984,7 @@
       <c r="V124" s="16"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="34"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -3962,7 +4008,7 @@
       <c r="V125" s="16"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="34"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -3986,7 +4032,7 @@
       <c r="V126" s="16"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="34"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
@@ -4010,7 +4056,7 @@
       <c r="V127" s="16"/>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="34"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -4034,7 +4080,7 @@
       <c r="V128" s="16"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="34"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
@@ -4058,7 +4104,7 @@
       <c r="V129" s="16"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="34"/>
+      <c r="A130" s="32"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -4082,7 +4128,7 @@
       <c r="V130" s="16"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="34"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -4106,7 +4152,7 @@
       <c r="V131" s="16"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="34"/>
+      <c r="A132" s="32"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
@@ -4130,7 +4176,7 @@
       <c r="V132" s="16"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="34"/>
+      <c r="A133" s="32"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
@@ -4154,7 +4200,7 @@
       <c r="V133" s="16"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="34"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
@@ -4178,7 +4224,7 @@
       <c r="V134" s="16"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="34"/>
+      <c r="A135" s="32"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
@@ -4202,7 +4248,7 @@
       <c r="V135" s="16"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="34"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
@@ -4226,7 +4272,7 @@
       <c r="V136" s="16"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="34"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
@@ -4250,7 +4296,7 @@
       <c r="V137" s="16"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="34"/>
+      <c r="A138" s="32"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -4274,7 +4320,7 @@
       <c r="V138" s="16"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="34"/>
+      <c r="A139" s="32"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
@@ -4298,7 +4344,7 @@
       <c r="V139" s="16"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="34"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
@@ -4322,7 +4368,7 @@
       <c r="V140" s="16"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="34"/>
+      <c r="A141" s="32"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -4346,7 +4392,7 @@
       <c r="V141" s="16"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="34"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
@@ -4370,7 +4416,7 @@
       <c r="V142" s="16"/>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="34"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
@@ -4394,7 +4440,7 @@
       <c r="V143" s="16"/>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="34"/>
+      <c r="A144" s="32"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
@@ -4418,7 +4464,7 @@
       <c r="V144" s="16"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="34"/>
+      <c r="A145" s="32"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
@@ -4442,7 +4488,7 @@
       <c r="V145" s="16"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="34"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
@@ -4466,7 +4512,7 @@
       <c r="V146" s="16"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="34"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
@@ -4490,7 +4536,7 @@
       <c r="V147" s="16"/>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="34"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
@@ -4514,7 +4560,7 @@
       <c r="V148" s="16"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="34"/>
+      <c r="A149" s="32"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
@@ -4538,7 +4584,7 @@
       <c r="V149" s="16"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="34"/>
+      <c r="A150" s="32"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
@@ -4562,7 +4608,7 @@
       <c r="V150" s="16"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="34"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -4586,7 +4632,7 @@
       <c r="V151" s="16"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="34"/>
+      <c r="A152" s="32"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -4610,7 +4656,7 @@
       <c r="V152" s="16"/>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="34"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -4634,7 +4680,7 @@
       <c r="V153" s="16"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="34"/>
+      <c r="A154" s="32"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
@@ -4658,7 +4704,7 @@
       <c r="V154" s="16"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="34"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -4682,7 +4728,7 @@
       <c r="V155" s="16"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="34"/>
+      <c r="A156" s="32"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -4706,7 +4752,7 @@
       <c r="V156" s="16"/>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="34"/>
+      <c r="A157" s="32"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -4730,7 +4776,7 @@
       <c r="V157" s="16"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="34"/>
+      <c r="A158" s="32"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -4754,7 +4800,7 @@
       <c r="V158" s="16"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="34"/>
+      <c r="A159" s="32"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
@@ -4778,7 +4824,7 @@
       <c r="V159" s="16"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="34"/>
+      <c r="A160" s="32"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
@@ -4802,7 +4848,7 @@
       <c r="V160" s="16"/>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="34"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
@@ -4826,7 +4872,7 @@
       <c r="V161" s="16"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="34"/>
+      <c r="A162" s="32"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
@@ -4850,7 +4896,7 @@
       <c r="V162" s="16"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="34"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
@@ -4874,7 +4920,7 @@
       <c r="V163" s="16"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="34"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
@@ -4898,7 +4944,7 @@
       <c r="V164" s="16"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="34"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
@@ -4922,7 +4968,7 @@
       <c r="V165" s="16"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="34"/>
+      <c r="A166" s="32"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
@@ -4946,7 +4992,7 @@
       <c r="V166" s="16"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="34"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
@@ -4970,7 +5016,7 @@
       <c r="V167" s="16"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="34"/>
+      <c r="A168" s="32"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -4994,7 +5040,7 @@
       <c r="V168" s="16"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="34"/>
+      <c r="A169" s="32"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
@@ -5018,7 +5064,7 @@
       <c r="V169" s="16"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="34"/>
+      <c r="A170" s="32"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
@@ -5042,7 +5088,7 @@
       <c r="V170" s="16"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="34"/>
+      <c r="A171" s="32"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
@@ -5066,7 +5112,7 @@
       <c r="V171" s="16"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="34"/>
+      <c r="A172" s="32"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
@@ -5090,7 +5136,7 @@
       <c r="V172" s="16"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="34"/>
+      <c r="A173" s="32"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
@@ -5114,7 +5160,7 @@
       <c r="V173" s="16"/>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="34"/>
+      <c r="A174" s="32"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
@@ -5138,7 +5184,7 @@
       <c r="V174" s="16"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="34"/>
+      <c r="A175" s="32"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
@@ -5162,7 +5208,7 @@
       <c r="V175" s="16"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="34"/>
+      <c r="A176" s="32"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
@@ -5186,7 +5232,7 @@
       <c r="V176" s="16"/>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="34"/>
+      <c r="A177" s="32"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
@@ -5210,7 +5256,7 @@
       <c r="V177" s="16"/>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="34"/>
+      <c r="A178" s="32"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -5234,7 +5280,7 @@
       <c r="V178" s="16"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="34"/>
+      <c r="A179" s="32"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
@@ -5258,7 +5304,7 @@
       <c r="V179" s="16"/>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="34"/>
+      <c r="A180" s="32"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
@@ -5282,7 +5328,7 @@
       <c r="V180" s="16"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="34"/>
+      <c r="A181" s="32"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
@@ -5306,7 +5352,7 @@
       <c r="V181" s="16"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="34"/>
+      <c r="A182" s="32"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
@@ -5330,7 +5376,7 @@
       <c r="V182" s="16"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="34"/>
+      <c r="A183" s="32"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
@@ -5354,7 +5400,7 @@
       <c r="V183" s="16"/>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="34"/>
+      <c r="A184" s="32"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
@@ -5378,7 +5424,7 @@
       <c r="V184" s="16"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="34"/>
+      <c r="A185" s="32"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -5402,7 +5448,7 @@
       <c r="V185" s="16"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="34"/>
+      <c r="A186" s="32"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
@@ -5426,7 +5472,7 @@
       <c r="V186" s="16"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="34"/>
+      <c r="A187" s="32"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
@@ -5450,7 +5496,7 @@
       <c r="V187" s="16"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="34"/>
+      <c r="A188" s="32"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -5474,7 +5520,7 @@
       <c r="V188" s="16"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="34"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
@@ -5498,7 +5544,7 @@
       <c r="V189" s="16"/>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="34"/>
+      <c r="A190" s="32"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
@@ -5522,7 +5568,7 @@
       <c r="V190" s="16"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="34"/>
+      <c r="A191" s="32"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
@@ -5546,7 +5592,7 @@
       <c r="V191" s="16"/>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="34"/>
+      <c r="A192" s="32"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -5570,7 +5616,7 @@
       <c r="V192" s="16"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="34"/>
+      <c r="A193" s="32"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
@@ -5594,7 +5640,7 @@
       <c r="V193" s="16"/>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="34"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
@@ -5618,7 +5664,7 @@
       <c r="V194" s="16"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="34"/>
+      <c r="A195" s="32"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
@@ -5642,7 +5688,7 @@
       <c r="V195" s="16"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="34"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -5666,7 +5712,7 @@
       <c r="V196" s="16"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="34"/>
+      <c r="A197" s="32"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -5690,7 +5736,7 @@
       <c r="V197" s="16"/>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="34"/>
+      <c r="A198" s="32"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
@@ -5714,7 +5760,7 @@
       <c r="V198" s="16"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="34"/>
+      <c r="A199" s="32"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
@@ -5738,7 +5784,7 @@
       <c r="V199" s="16"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="34"/>
+      <c r="A200" s="32"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
@@ -5762,7 +5808,7 @@
       <c r="V200" s="16"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="34"/>
+      <c r="A201" s="32"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
@@ -5786,7 +5832,7 @@
       <c r="V201" s="16"/>
     </row>
     <row r="202" spans="1:22">
-      <c r="A202" s="34"/>
+      <c r="A202" s="32"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
@@ -5810,7 +5856,7 @@
       <c r="V202" s="16"/>
     </row>
     <row r="203" spans="1:22">
-      <c r="A203" s="34"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -5834,7 +5880,7 @@
       <c r="V203" s="16"/>
     </row>
     <row r="204" spans="1:22">
-      <c r="A204" s="34"/>
+      <c r="A204" s="32"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
@@ -5858,7 +5904,7 @@
       <c r="V204" s="16"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="34"/>
+      <c r="A205" s="32"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
@@ -5882,7 +5928,7 @@
       <c r="V205" s="16"/>
     </row>
     <row r="206" spans="1:22">
-      <c r="A206" s="34"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
@@ -5906,7 +5952,7 @@
       <c r="V206" s="16"/>
     </row>
     <row r="207" spans="1:22">
-      <c r="A207" s="34"/>
+      <c r="A207" s="32"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
@@ -5930,7 +5976,7 @@
       <c r="V207" s="16"/>
     </row>
     <row r="208" spans="1:22">
-      <c r="A208" s="34"/>
+      <c r="A208" s="32"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
@@ -5954,7 +6000,7 @@
       <c r="V208" s="16"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="34"/>
+      <c r="A209" s="32"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
@@ -5978,7 +6024,7 @@
       <c r="V209" s="16"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="34"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
@@ -6002,7 +6048,7 @@
       <c r="V210" s="16"/>
     </row>
     <row r="211" spans="1:22">
-      <c r="A211" s="34"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
@@ -6026,7 +6072,7 @@
       <c r="V211" s="16"/>
     </row>
     <row r="212" spans="1:22">
-      <c r="A212" s="34"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
@@ -6050,7 +6096,7 @@
       <c r="V212" s="16"/>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="34"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
@@ -6074,7 +6120,7 @@
       <c r="V213" s="16"/>
     </row>
     <row r="214" spans="1:22">
-      <c r="A214" s="34"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
@@ -6098,7 +6144,7 @@
       <c r="V214" s="16"/>
     </row>
     <row r="215" spans="1:22">
-      <c r="A215" s="34"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
@@ -6122,7 +6168,7 @@
       <c r="V215" s="16"/>
     </row>
     <row r="216" spans="1:22">
-      <c r="A216" s="34"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
@@ -6146,7 +6192,7 @@
       <c r="V216" s="16"/>
     </row>
     <row r="217" spans="1:22">
-      <c r="A217" s="34"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
@@ -6170,7 +6216,7 @@
       <c r="V217" s="16"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="34"/>
+      <c r="A218" s="32"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
@@ -6194,7 +6240,7 @@
       <c r="V218" s="16"/>
     </row>
     <row r="219" spans="1:22">
-      <c r="A219" s="34"/>
+      <c r="A219" s="32"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
@@ -6218,7 +6264,7 @@
       <c r="V219" s="16"/>
     </row>
     <row r="220" spans="1:22">
-      <c r="A220" s="34"/>
+      <c r="A220" s="32"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
@@ -6242,7 +6288,7 @@
       <c r="V220" s="16"/>
     </row>
     <row r="221" spans="1:22">
-      <c r="A221" s="34"/>
+      <c r="A221" s="32"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
@@ -6266,7 +6312,7 @@
       <c r="V221" s="16"/>
     </row>
     <row r="222" spans="1:22">
-      <c r="A222" s="34"/>
+      <c r="A222" s="32"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
@@ -6290,7 +6336,7 @@
       <c r="V222" s="16"/>
     </row>
     <row r="223" spans="1:22">
-      <c r="A223" s="34"/>
+      <c r="A223" s="32"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
@@ -6314,7 +6360,7 @@
       <c r="V223" s="16"/>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="34"/>
+      <c r="A224" s="32"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
@@ -6338,7 +6384,7 @@
       <c r="V224" s="16"/>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="34"/>
+      <c r="A225" s="32"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
@@ -6362,7 +6408,7 @@
       <c r="V225" s="16"/>
     </row>
     <row r="226" spans="1:22">
-      <c r="A226" s="34"/>
+      <c r="A226" s="32"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
@@ -6386,7 +6432,7 @@
       <c r="V226" s="16"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="34"/>
+      <c r="A227" s="32"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
@@ -6410,7 +6456,7 @@
       <c r="V227" s="16"/>
     </row>
     <row r="228" spans="1:22">
-      <c r="A228" s="34"/>
+      <c r="A228" s="32"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
@@ -6434,7 +6480,7 @@
       <c r="V228" s="16"/>
     </row>
     <row r="229" spans="1:22">
-      <c r="A229" s="34"/>
+      <c r="A229" s="32"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
@@ -6458,7 +6504,7 @@
       <c r="V229" s="16"/>
     </row>
     <row r="230" spans="1:22">
-      <c r="A230" s="34"/>
+      <c r="A230" s="32"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
@@ -6482,7 +6528,7 @@
       <c r="V230" s="16"/>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="34"/>
+      <c r="A231" s="32"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
@@ -6506,7 +6552,7 @@
       <c r="V231" s="16"/>
     </row>
     <row r="232" spans="1:22">
-      <c r="A232" s="34"/>
+      <c r="A232" s="32"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
@@ -6530,7 +6576,7 @@
       <c r="V232" s="16"/>
     </row>
     <row r="233" spans="1:22">
-      <c r="A233" s="34"/>
+      <c r="A233" s="32"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
@@ -6554,7 +6600,7 @@
       <c r="V233" s="16"/>
     </row>
     <row r="234" spans="1:22">
-      <c r="A234" s="34"/>
+      <c r="A234" s="32"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
@@ -6578,7 +6624,7 @@
       <c r="V234" s="16"/>
     </row>
     <row r="235" spans="1:22">
-      <c r="A235" s="34"/>
+      <c r="A235" s="32"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
@@ -6602,7 +6648,7 @@
       <c r="V235" s="16"/>
     </row>
     <row r="236" spans="1:22">
-      <c r="A236" s="34"/>
+      <c r="A236" s="32"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
@@ -6626,7 +6672,7 @@
       <c r="V236" s="16"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="34"/>
+      <c r="A237" s="32"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
@@ -6650,7 +6696,7 @@
       <c r="V237" s="16"/>
     </row>
     <row r="238" spans="1:22">
-      <c r="A238" s="34"/>
+      <c r="A238" s="32"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
@@ -6674,7 +6720,7 @@
       <c r="V238" s="16"/>
     </row>
     <row r="239" spans="1:22">
-      <c r="A239" s="34"/>
+      <c r="A239" s="32"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
@@ -6698,7 +6744,7 @@
       <c r="V239" s="16"/>
     </row>
     <row r="240" spans="1:22">
-      <c r="A240" s="34"/>
+      <c r="A240" s="32"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
@@ -6722,7 +6768,7 @@
       <c r="V240" s="16"/>
     </row>
     <row r="241" spans="1:22">
-      <c r="A241" s="34"/>
+      <c r="A241" s="32"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
@@ -6746,7 +6792,7 @@
       <c r="V241" s="16"/>
     </row>
     <row r="242" spans="1:22">
-      <c r="A242" s="34"/>
+      <c r="A242" s="32"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
@@ -6770,7 +6816,7 @@
       <c r="V242" s="16"/>
     </row>
     <row r="243" spans="1:22">
-      <c r="A243" s="34"/>
+      <c r="A243" s="32"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
@@ -6794,7 +6840,7 @@
       <c r="V243" s="16"/>
     </row>
     <row r="244" spans="1:22">
-      <c r="A244" s="34"/>
+      <c r="A244" s="32"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
@@ -6818,7 +6864,7 @@
       <c r="V244" s="16"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="34"/>
+      <c r="A245" s="32"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
@@ -6842,7 +6888,7 @@
       <c r="V245" s="16"/>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="34"/>
+      <c r="A246" s="32"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
@@ -6866,7 +6912,7 @@
       <c r="V246" s="16"/>
     </row>
     <row r="247" spans="1:22">
-      <c r="A247" s="34"/>
+      <c r="A247" s="32"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
@@ -6890,7 +6936,7 @@
       <c r="V247" s="16"/>
     </row>
     <row r="248" spans="1:22">
-      <c r="A248" s="34"/>
+      <c r="A248" s="32"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
@@ -6914,7 +6960,7 @@
       <c r="V248" s="16"/>
     </row>
     <row r="249" spans="1:22">
-      <c r="A249" s="34"/>
+      <c r="A249" s="32"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
@@ -6938,7 +6984,7 @@
       <c r="V249" s="16"/>
     </row>
     <row r="250" spans="1:22">
-      <c r="A250" s="34"/>
+      <c r="A250" s="32"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
@@ -6962,7 +7008,7 @@
       <c r="V250" s="16"/>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="34"/>
+      <c r="A251" s="32"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
@@ -6986,7 +7032,7 @@
       <c r="V251" s="16"/>
     </row>
     <row r="252" spans="1:22">
-      <c r="A252" s="34"/>
+      <c r="A252" s="32"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
@@ -7010,7 +7056,7 @@
       <c r="V252" s="16"/>
     </row>
     <row r="253" spans="1:22">
-      <c r="A253" s="34"/>
+      <c r="A253" s="32"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
@@ -7034,7 +7080,7 @@
       <c r="V253" s="16"/>
     </row>
     <row r="254" spans="1:22">
-      <c r="A254" s="34"/>
+      <c r="A254" s="32"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
@@ -7058,7 +7104,7 @@
       <c r="V254" s="16"/>
     </row>
     <row r="255" spans="1:22">
-      <c r="A255" s="34"/>
+      <c r="A255" s="32"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
@@ -7082,7 +7128,7 @@
       <c r="V255" s="16"/>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="34"/>
+      <c r="A256" s="32"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
@@ -7106,7 +7152,7 @@
       <c r="V256" s="16"/>
     </row>
     <row r="257" spans="1:22">
-      <c r="A257" s="34"/>
+      <c r="A257" s="32"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
@@ -7130,7 +7176,7 @@
       <c r="V257" s="16"/>
     </row>
     <row r="258" spans="1:22">
-      <c r="A258" s="34"/>
+      <c r="A258" s="32"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
@@ -7154,7 +7200,7 @@
       <c r="V258" s="16"/>
     </row>
     <row r="259" spans="1:22">
-      <c r="A259" s="34"/>
+      <c r="A259" s="32"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
@@ -7178,7 +7224,7 @@
       <c r="V259" s="16"/>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="34"/>
+      <c r="A260" s="32"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
@@ -7202,7 +7248,7 @@
       <c r="V260" s="16"/>
     </row>
     <row r="261" spans="1:22">
-      <c r="A261" s="34"/>
+      <c r="A261" s="32"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
@@ -7226,7 +7272,7 @@
       <c r="V261" s="16"/>
     </row>
     <row r="262" spans="1:22">
-      <c r="A262" s="34"/>
+      <c r="A262" s="32"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
@@ -7250,7 +7296,7 @@
       <c r="V262" s="16"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="34"/>
+      <c r="A263" s="32"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
@@ -7274,7 +7320,7 @@
       <c r="V263" s="16"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="34"/>
+      <c r="A264" s="32"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
@@ -7298,7 +7344,7 @@
       <c r="V264" s="16"/>
     </row>
     <row r="265" spans="1:22">
-      <c r="A265" s="34"/>
+      <c r="A265" s="32"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
@@ -7322,7 +7368,7 @@
       <c r="V265" s="16"/>
     </row>
     <row r="266" spans="1:22">
-      <c r="A266" s="34"/>
+      <c r="A266" s="32"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
@@ -7346,7 +7392,7 @@
       <c r="V266" s="16"/>
     </row>
     <row r="267" spans="1:22">
-      <c r="A267" s="34"/>
+      <c r="A267" s="32"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
@@ -7370,7 +7416,7 @@
       <c r="V267" s="16"/>
     </row>
     <row r="268" spans="1:22">
-      <c r="A268" s="34"/>
+      <c r="A268" s="32"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
@@ -7394,7 +7440,7 @@
       <c r="V268" s="16"/>
     </row>
     <row r="269" spans="1:22">
-      <c r="A269" s="34"/>
+      <c r="A269" s="32"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
@@ -7418,7 +7464,7 @@
       <c r="V269" s="16"/>
     </row>
     <row r="270" spans="1:22">
-      <c r="A270" s="34"/>
+      <c r="A270" s="32"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
@@ -7442,7 +7488,7 @@
       <c r="V270" s="16"/>
     </row>
     <row r="271" spans="1:22">
-      <c r="A271" s="34"/>
+      <c r="A271" s="32"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
@@ -7466,7 +7512,7 @@
       <c r="V271" s="16"/>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="34"/>
+      <c r="A272" s="32"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
@@ -7490,7 +7536,7 @@
       <c r="V272" s="16"/>
     </row>
     <row r="273" spans="1:22">
-      <c r="A273" s="34"/>
+      <c r="A273" s="32"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
@@ -7514,7 +7560,7 @@
       <c r="V273" s="16"/>
     </row>
     <row r="274" spans="1:22">
-      <c r="A274" s="34"/>
+      <c r="A274" s="32"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
@@ -7538,7 +7584,7 @@
       <c r="V274" s="16"/>
     </row>
     <row r="275" spans="1:22">
-      <c r="A275" s="34"/>
+      <c r="A275" s="32"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
@@ -7562,7 +7608,7 @@
       <c r="V275" s="16"/>
     </row>
     <row r="276" spans="1:22">
-      <c r="A276" s="34"/>
+      <c r="A276" s="32"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
@@ -7586,7 +7632,7 @@
       <c r="V276" s="16"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="34"/>
+      <c r="A277" s="32"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
@@ -7610,7 +7656,7 @@
       <c r="V277" s="16"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="34"/>
+      <c r="A278" s="32"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
@@ -7634,7 +7680,7 @@
       <c r="V278" s="16"/>
     </row>
     <row r="279" spans="1:22">
-      <c r="A279" s="34"/>
+      <c r="A279" s="32"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
@@ -7658,7 +7704,7 @@
       <c r="V279" s="16"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="34"/>
+      <c r="A280" s="32"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
@@ -7682,7 +7728,7 @@
       <c r="V280" s="16"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="34"/>
+      <c r="A281" s="32"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
@@ -7706,7 +7752,7 @@
       <c r="V281" s="16"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="34"/>
+      <c r="A282" s="32"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
@@ -7730,7 +7776,7 @@
       <c r="V282" s="16"/>
     </row>
     <row r="283" spans="1:22">
-      <c r="A283" s="34"/>
+      <c r="A283" s="32"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
@@ -7754,7 +7800,7 @@
       <c r="V283" s="16"/>
     </row>
     <row r="284" spans="1:22">
-      <c r="A284" s="34"/>
+      <c r="A284" s="32"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
@@ -7778,7 +7824,7 @@
       <c r="V284" s="16"/>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="34"/>
+      <c r="A285" s="32"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
@@ -7802,7 +7848,7 @@
       <c r="V285" s="16"/>
     </row>
     <row r="286" spans="1:22">
-      <c r="A286" s="34"/>
+      <c r="A286" s="32"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
@@ -7826,7 +7872,7 @@
       <c r="V286" s="16"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="34"/>
+      <c r="A287" s="32"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
@@ -7850,7 +7896,7 @@
       <c r="V287" s="16"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="34"/>
+      <c r="A288" s="32"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
@@ -7874,7 +7920,7 @@
       <c r="V288" s="16"/>
     </row>
     <row r="289" spans="1:22">
-      <c r="A289" s="34"/>
+      <c r="A289" s="32"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
@@ -7898,7 +7944,7 @@
       <c r="V289" s="16"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="34"/>
+      <c r="A290" s="32"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
@@ -7922,7 +7968,7 @@
       <c r="V290" s="16"/>
     </row>
     <row r="291" spans="1:22">
-      <c r="A291" s="34"/>
+      <c r="A291" s="32"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
@@ -7946,7 +7992,7 @@
       <c r="V291" s="16"/>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="34"/>
+      <c r="A292" s="32"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
@@ -7970,7 +8016,7 @@
       <c r="V292" s="16"/>
     </row>
     <row r="293" spans="1:22">
-      <c r="A293" s="34"/>
+      <c r="A293" s="32"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
@@ -7994,7 +8040,7 @@
       <c r="V293" s="16"/>
     </row>
     <row r="294" spans="1:22">
-      <c r="A294" s="34"/>
+      <c r="A294" s="32"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
@@ -8018,7 +8064,7 @@
       <c r="V294" s="16"/>
     </row>
     <row r="295" spans="1:22">
-      <c r="A295" s="34"/>
+      <c r="A295" s="32"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
@@ -8042,7 +8088,7 @@
       <c r="V295" s="16"/>
     </row>
     <row r="296" spans="1:22">
-      <c r="A296" s="34"/>
+      <c r="A296" s="32"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
@@ -8066,7 +8112,7 @@
       <c r="V296" s="16"/>
     </row>
     <row r="297" spans="1:22">
-      <c r="A297" s="34"/>
+      <c r="A297" s="32"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
@@ -8090,7 +8136,7 @@
       <c r="V297" s="16"/>
     </row>
     <row r="298" spans="1:22">
-      <c r="A298" s="34"/>
+      <c r="A298" s="32"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
@@ -8114,7 +8160,7 @@
       <c r="V298" s="16"/>
     </row>
     <row r="299" spans="1:22">
-      <c r="A299" s="34"/>
+      <c r="A299" s="32"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
@@ -8138,7 +8184,7 @@
       <c r="V299" s="16"/>
     </row>
     <row r="300" spans="1:22">
-      <c r="A300" s="34"/>
+      <c r="A300" s="32"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
@@ -8162,7 +8208,7 @@
       <c r="V300" s="16"/>
     </row>
     <row r="301" spans="1:22">
-      <c r="A301" s="34"/>
+      <c r="A301" s="32"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
@@ -8186,7 +8232,7 @@
       <c r="V301" s="16"/>
     </row>
     <row r="302" spans="1:22">
-      <c r="A302" s="34"/>
+      <c r="A302" s="32"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
@@ -8210,7 +8256,7 @@
       <c r="V302" s="16"/>
     </row>
     <row r="303" spans="1:22">
-      <c r="A303" s="34"/>
+      <c r="A303" s="32"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
@@ -8234,7 +8280,7 @@
       <c r="V303" s="16"/>
     </row>
     <row r="304" spans="1:22">
-      <c r="A304" s="34"/>
+      <c r="A304" s="32"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
       <c r="D304" s="13"/>
@@ -8258,7 +8304,7 @@
       <c r="V304" s="16"/>
     </row>
     <row r="305" spans="1:22">
-      <c r="A305" s="34"/>
+      <c r="A305" s="32"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
@@ -8282,7 +8328,7 @@
       <c r="V305" s="16"/>
     </row>
     <row r="306" spans="1:22">
-      <c r="A306" s="34"/>
+      <c r="A306" s="32"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
       <c r="D306" s="13"/>
@@ -8306,7 +8352,7 @@
       <c r="V306" s="16"/>
     </row>
     <row r="307" spans="1:22">
-      <c r="A307" s="34"/>
+      <c r="A307" s="32"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
@@ -8330,7 +8376,7 @@
       <c r="V307" s="16"/>
     </row>
     <row r="308" spans="1:22">
-      <c r="A308" s="34"/>
+      <c r="A308" s="32"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
       <c r="D308" s="13"/>
@@ -8354,7 +8400,7 @@
       <c r="V308" s="16"/>
     </row>
     <row r="309" spans="1:22">
-      <c r="A309" s="34"/>
+      <c r="A309" s="32"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
@@ -8378,7 +8424,7 @@
       <c r="V309" s="16"/>
     </row>
     <row r="310" spans="1:22">
-      <c r="A310" s="34"/>
+      <c r="A310" s="32"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
       <c r="D310" s="13"/>
@@ -8402,7 +8448,7 @@
       <c r="V310" s="16"/>
     </row>
     <row r="311" spans="1:22">
-      <c r="A311" s="34"/>
+      <c r="A311" s="32"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
@@ -8426,7 +8472,7 @@
       <c r="V311" s="16"/>
     </row>
     <row r="312" spans="1:22">
-      <c r="A312" s="34"/>
+      <c r="A312" s="32"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
       <c r="D312" s="13"/>
@@ -8450,7 +8496,7 @@
       <c r="V312" s="16"/>
     </row>
     <row r="313" spans="1:22">
-      <c r="A313" s="34"/>
+      <c r="A313" s="32"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
       <c r="D313" s="13"/>
@@ -8474,7 +8520,7 @@
       <c r="V313" s="16"/>
     </row>
     <row r="314" spans="1:22">
-      <c r="A314" s="34"/>
+      <c r="A314" s="32"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
       <c r="D314" s="13"/>
@@ -8498,7 +8544,7 @@
       <c r="V314" s="16"/>
     </row>
     <row r="315" spans="1:22">
-      <c r="A315" s="34"/>
+      <c r="A315" s="32"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
       <c r="D315" s="13"/>
@@ -8522,7 +8568,7 @@
       <c r="V315" s="16"/>
     </row>
     <row r="316" spans="1:22">
-      <c r="A316" s="34"/>
+      <c r="A316" s="32"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
       <c r="D316" s="13"/>
@@ -8546,7 +8592,7 @@
       <c r="V316" s="16"/>
     </row>
     <row r="317" spans="1:22">
-      <c r="A317" s="34"/>
+      <c r="A317" s="32"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
       <c r="D317" s="13"/>
@@ -8570,7 +8616,7 @@
       <c r="V317" s="16"/>
     </row>
     <row r="318" spans="1:22">
-      <c r="A318" s="34"/>
+      <c r="A318" s="32"/>
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
       <c r="D318" s="13"/>
@@ -8594,7 +8640,7 @@
       <c r="V318" s="16"/>
     </row>
     <row r="319" spans="1:22">
-      <c r="A319" s="34"/>
+      <c r="A319" s="32"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
       <c r="D319" s="13"/>
@@ -8618,7 +8664,7 @@
       <c r="V319" s="16"/>
     </row>
     <row r="320" spans="1:22">
-      <c r="A320" s="34"/>
+      <c r="A320" s="32"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
       <c r="D320" s="13"/>
@@ -8642,7 +8688,7 @@
       <c r="V320" s="16"/>
     </row>
     <row r="321" spans="1:22">
-      <c r="A321" s="34"/>
+      <c r="A321" s="32"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
       <c r="D321" s="13"/>
@@ -8666,7 +8712,7 @@
       <c r="V321" s="16"/>
     </row>
     <row r="322" spans="1:22">
-      <c r="A322" s="34"/>
+      <c r="A322" s="32"/>
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
       <c r="D322" s="13"/>
@@ -8690,7 +8736,7 @@
       <c r="V322" s="16"/>
     </row>
     <row r="323" spans="1:22">
-      <c r="A323" s="34"/>
+      <c r="A323" s="32"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
       <c r="D323" s="13"/>
@@ -8714,7 +8760,7 @@
       <c r="V323" s="16"/>
     </row>
     <row r="324" spans="1:22">
-      <c r="A324" s="34"/>
+      <c r="A324" s="32"/>
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
       <c r="D324" s="13"/>
@@ -8738,7 +8784,7 @@
       <c r="V324" s="16"/>
     </row>
     <row r="325" spans="1:22">
-      <c r="A325" s="34"/>
+      <c r="A325" s="32"/>
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
       <c r="D325" s="13"/>
@@ -8762,7 +8808,7 @@
       <c r="V325" s="16"/>
     </row>
     <row r="326" spans="1:22">
-      <c r="A326" s="34"/>
+      <c r="A326" s="32"/>
       <c r="B326" s="13"/>
       <c r="C326" s="13"/>
       <c r="D326" s="13"/>
@@ -8786,7 +8832,7 @@
       <c r="V326" s="16"/>
     </row>
     <row r="327" spans="1:22">
-      <c r="A327" s="34"/>
+      <c r="A327" s="32"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
       <c r="D327" s="13"/>
@@ -8810,7 +8856,7 @@
       <c r="V327" s="16"/>
     </row>
     <row r="328" spans="1:22">
-      <c r="A328" s="34"/>
+      <c r="A328" s="32"/>
       <c r="B328" s="13"/>
       <c r="C328" s="13"/>
       <c r="D328" s="13"/>
@@ -8834,7 +8880,7 @@
       <c r="V328" s="16"/>
     </row>
     <row r="329" spans="1:22">
-      <c r="A329" s="34"/>
+      <c r="A329" s="32"/>
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
       <c r="D329" s="13"/>
@@ -8858,7 +8904,7 @@
       <c r="V329" s="16"/>
     </row>
     <row r="330" spans="1:22">
-      <c r="A330" s="34"/>
+      <c r="A330" s="32"/>
       <c r="B330" s="13"/>
       <c r="C330" s="13"/>
       <c r="D330" s="13"/>
@@ -8882,7 +8928,7 @@
       <c r="V330" s="16"/>
     </row>
     <row r="331" spans="1:22">
-      <c r="A331" s="34"/>
+      <c r="A331" s="32"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
       <c r="D331" s="13"/>
@@ -8906,7 +8952,7 @@
       <c r="V331" s="16"/>
     </row>
     <row r="332" spans="1:22">
-      <c r="A332" s="34"/>
+      <c r="A332" s="32"/>
       <c r="B332" s="13"/>
       <c r="C332" s="13"/>
       <c r="D332" s="13"/>
@@ -8930,7 +8976,7 @@
       <c r="V332" s="16"/>
     </row>
     <row r="333" spans="1:22">
-      <c r="A333" s="34"/>
+      <c r="A333" s="32"/>
       <c r="B333" s="13"/>
       <c r="C333" s="13"/>
       <c r="D333" s="13"/>
@@ -8954,7 +9000,7 @@
       <c r="V333" s="16"/>
     </row>
     <row r="334" spans="1:22">
-      <c r="A334" s="34"/>
+      <c r="A334" s="32"/>
       <c r="B334" s="13"/>
       <c r="C334" s="13"/>
       <c r="D334" s="13"/>
@@ -8978,7 +9024,7 @@
       <c r="V334" s="16"/>
     </row>
     <row r="335" spans="1:22">
-      <c r="A335" s="34"/>
+      <c r="A335" s="32"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
       <c r="D335" s="13"/>
@@ -9002,7 +9048,7 @@
       <c r="V335" s="16"/>
     </row>
     <row r="336" spans="1:22">
-      <c r="A336" s="34"/>
+      <c r="A336" s="32"/>
       <c r="B336" s="13"/>
       <c r="C336" s="13"/>
       <c r="D336" s="13"/>
@@ -9026,7 +9072,7 @@
       <c r="V336" s="16"/>
     </row>
     <row r="337" spans="1:22">
-      <c r="A337" s="34"/>
+      <c r="A337" s="32"/>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
       <c r="D337" s="13"/>
@@ -9050,7 +9096,7 @@
       <c r="V337" s="16"/>
     </row>
     <row r="338" spans="1:22">
-      <c r="A338" s="34"/>
+      <c r="A338" s="32"/>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
       <c r="D338" s="13"/>
@@ -9074,7 +9120,7 @@
       <c r="V338" s="16"/>
     </row>
     <row r="339" spans="1:22">
-      <c r="A339" s="34"/>
+      <c r="A339" s="32"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
       <c r="D339" s="13"/>
@@ -9098,7 +9144,7 @@
       <c r="V339" s="16"/>
     </row>
     <row r="340" spans="1:22">
-      <c r="A340" s="34"/>
+      <c r="A340" s="32"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
       <c r="D340" s="13"/>
@@ -9122,7 +9168,7 @@
       <c r="V340" s="16"/>
     </row>
     <row r="341" spans="1:22">
-      <c r="A341" s="34"/>
+      <c r="A341" s="32"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
       <c r="D341" s="13"/>
@@ -9146,7 +9192,7 @@
       <c r="V341" s="16"/>
     </row>
     <row r="342" spans="1:22">
-      <c r="A342" s="34"/>
+      <c r="A342" s="32"/>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
       <c r="D342" s="13"/>
@@ -9170,7 +9216,7 @@
       <c r="V342" s="16"/>
     </row>
     <row r="343" spans="1:22">
-      <c r="A343" s="34"/>
+      <c r="A343" s="32"/>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
       <c r="D343" s="13"/>
@@ -9194,7 +9240,7 @@
       <c r="V343" s="16"/>
     </row>
     <row r="344" spans="1:22">
-      <c r="A344" s="34"/>
+      <c r="A344" s="32"/>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
       <c r="D344" s="13"/>
@@ -9218,7 +9264,7 @@
       <c r="V344" s="16"/>
     </row>
     <row r="345" spans="1:22">
-      <c r="A345" s="34"/>
+      <c r="A345" s="32"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
       <c r="D345" s="13"/>
@@ -9242,7 +9288,7 @@
       <c r="V345" s="16"/>
     </row>
     <row r="346" spans="1:22">
-      <c r="A346" s="34"/>
+      <c r="A346" s="32"/>
       <c r="B346" s="13"/>
       <c r="C346" s="13"/>
       <c r="D346" s="13"/>
@@ -9266,7 +9312,7 @@
       <c r="V346" s="16"/>
     </row>
     <row r="347" spans="1:22">
-      <c r="A347" s="34"/>
+      <c r="A347" s="32"/>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
       <c r="D347" s="13"/>
@@ -9290,7 +9336,7 @@
       <c r="V347" s="16"/>
     </row>
     <row r="348" spans="1:22">
-      <c r="A348" s="34"/>
+      <c r="A348" s="32"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
       <c r="D348" s="13"/>
@@ -9314,7 +9360,7 @@
       <c r="V348" s="16"/>
     </row>
     <row r="349" spans="1:22">
-      <c r="A349" s="34"/>
+      <c r="A349" s="32"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
       <c r="D349" s="13"/>
@@ -9338,7 +9384,7 @@
       <c r="V349" s="16"/>
     </row>
     <row r="350" spans="1:22">
-      <c r="A350" s="34"/>
+      <c r="A350" s="32"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
       <c r="D350" s="13"/>
@@ -9362,7 +9408,7 @@
       <c r="V350" s="16"/>
     </row>
     <row r="351" spans="1:22">
-      <c r="A351" s="34"/>
+      <c r="A351" s="32"/>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
       <c r="D351" s="13"/>
@@ -9386,7 +9432,7 @@
       <c r="V351" s="16"/>
     </row>
     <row r="352" spans="1:22">
-      <c r="A352" s="34"/>
+      <c r="A352" s="32"/>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
       <c r="D352" s="13"/>
@@ -9410,7 +9456,7 @@
       <c r="V352" s="16"/>
     </row>
     <row r="353" spans="1:22">
-      <c r="A353" s="34"/>
+      <c r="A353" s="32"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
       <c r="D353" s="13"/>
@@ -9434,7 +9480,7 @@
       <c r="V353" s="16"/>
     </row>
     <row r="354" spans="1:22">
-      <c r="A354" s="34"/>
+      <c r="A354" s="32"/>
       <c r="B354" s="13"/>
       <c r="C354" s="13"/>
       <c r="D354" s="13"/>
@@ -9458,7 +9504,7 @@
       <c r="V354" s="16"/>
     </row>
     <row r="355" spans="1:22">
-      <c r="A355" s="34"/>
+      <c r="A355" s="32"/>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
       <c r="D355" s="13"/>
@@ -9482,7 +9528,7 @@
       <c r="V355" s="16"/>
     </row>
     <row r="356" spans="1:22">
-      <c r="A356" s="34"/>
+      <c r="A356" s="32"/>
       <c r="B356" s="13"/>
       <c r="C356" s="13"/>
       <c r="D356" s="13"/>
@@ -9506,7 +9552,7 @@
       <c r="V356" s="16"/>
     </row>
     <row r="357" spans="1:22">
-      <c r="A357" s="34"/>
+      <c r="A357" s="32"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
       <c r="D357" s="13"/>
@@ -9530,7 +9576,7 @@
       <c r="V357" s="16"/>
     </row>
     <row r="358" spans="1:22">
-      <c r="A358" s="34"/>
+      <c r="A358" s="32"/>
       <c r="B358" s="13"/>
       <c r="C358" s="13"/>
       <c r="D358" s="13"/>
@@ -9554,7 +9600,7 @@
       <c r="V358" s="16"/>
     </row>
     <row r="359" spans="1:22">
-      <c r="A359" s="34"/>
+      <c r="A359" s="32"/>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
       <c r="D359" s="13"/>
@@ -9578,7 +9624,7 @@
       <c r="V359" s="16"/>
     </row>
     <row r="360" spans="1:22">
-      <c r="A360" s="34"/>
+      <c r="A360" s="32"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
       <c r="D360" s="13"/>
@@ -9602,7 +9648,7 @@
       <c r="V360" s="16"/>
     </row>
     <row r="361" spans="1:22">
-      <c r="A361" s="34"/>
+      <c r="A361" s="32"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
       <c r="D361" s="13"/>
@@ -9626,7 +9672,7 @@
       <c r="V361" s="16"/>
     </row>
     <row r="362" spans="1:22">
-      <c r="A362" s="34"/>
+      <c r="A362" s="32"/>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
       <c r="D362" s="13"/>
@@ -9650,7 +9696,7 @@
       <c r="V362" s="16"/>
     </row>
     <row r="363" spans="1:22">
-      <c r="A363" s="34"/>
+      <c r="A363" s="32"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
       <c r="D363" s="13"/>
@@ -9674,7 +9720,7 @@
       <c r="V363" s="16"/>
     </row>
     <row r="364" spans="1:22">
-      <c r="A364" s="34"/>
+      <c r="A364" s="32"/>
       <c r="B364" s="13"/>
       <c r="C364" s="13"/>
       <c r="D364" s="13"/>
@@ -9698,7 +9744,7 @@
       <c r="V364" s="16"/>
     </row>
     <row r="365" spans="1:22">
-      <c r="A365" s="34"/>
+      <c r="A365" s="32"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
       <c r="D365" s="13"/>
@@ -9722,7 +9768,7 @@
       <c r="V365" s="16"/>
     </row>
     <row r="366" spans="1:22">
-      <c r="A366" s="34"/>
+      <c r="A366" s="32"/>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
       <c r="D366" s="13"/>
@@ -9746,7 +9792,7 @@
       <c r="V366" s="16"/>
     </row>
     <row r="367" spans="1:22">
-      <c r="A367" s="34"/>
+      <c r="A367" s="32"/>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
       <c r="D367" s="13"/>
@@ -9770,7 +9816,7 @@
       <c r="V367" s="16"/>
     </row>
     <row r="368" spans="1:22">
-      <c r="A368" s="34"/>
+      <c r="A368" s="32"/>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
       <c r="D368" s="13"/>
@@ -9794,7 +9840,7 @@
       <c r="V368" s="16"/>
     </row>
     <row r="369" spans="1:22">
-      <c r="A369" s="34"/>
+      <c r="A369" s="32"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
       <c r="D369" s="13"/>
@@ -9818,7 +9864,7 @@
       <c r="V369" s="16"/>
     </row>
     <row r="370" spans="1:22">
-      <c r="A370" s="34"/>
+      <c r="A370" s="32"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
       <c r="D370" s="13"/>
@@ -9842,7 +9888,7 @@
       <c r="V370" s="16"/>
     </row>
     <row r="371" spans="1:22">
-      <c r="A371" s="34"/>
+      <c r="A371" s="32"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
       <c r="D371" s="13"/>
@@ -9866,7 +9912,7 @@
       <c r="V371" s="16"/>
     </row>
     <row r="372" spans="1:22">
-      <c r="A372" s="34"/>
+      <c r="A372" s="32"/>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
       <c r="D372" s="13"/>
@@ -9890,7 +9936,7 @@
       <c r="V372" s="16"/>
     </row>
     <row r="373" spans="1:22">
-      <c r="A373" s="34"/>
+      <c r="A373" s="32"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
       <c r="D373" s="13"/>
@@ -9914,7 +9960,7 @@
       <c r="V373" s="16"/>
     </row>
     <row r="374" spans="1:22">
-      <c r="A374" s="34"/>
+      <c r="A374" s="32"/>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
       <c r="D374" s="13"/>
@@ -9938,7 +9984,7 @@
       <c r="V374" s="16"/>
     </row>
     <row r="375" spans="1:22">
-      <c r="A375" s="34"/>
+      <c r="A375" s="32"/>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
       <c r="D375" s="13"/>
@@ -9962,7 +10008,7 @@
       <c r="V375" s="16"/>
     </row>
     <row r="376" spans="1:22">
-      <c r="A376" s="34"/>
+      <c r="A376" s="32"/>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
       <c r="D376" s="13"/>
@@ -9986,7 +10032,7 @@
       <c r="V376" s="16"/>
     </row>
     <row r="377" spans="1:22">
-      <c r="A377" s="34"/>
+      <c r="A377" s="32"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
       <c r="D377" s="13"/>
@@ -10010,7 +10056,7 @@
       <c r="V377" s="16"/>
     </row>
     <row r="378" spans="1:22">
-      <c r="A378" s="34"/>
+      <c r="A378" s="32"/>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
       <c r="D378" s="13"/>
@@ -10034,7 +10080,7 @@
       <c r="V378" s="16"/>
     </row>
     <row r="379" spans="1:22">
-      <c r="A379" s="34"/>
+      <c r="A379" s="32"/>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
       <c r="D379" s="13"/>
@@ -10058,7 +10104,7 @@
       <c r="V379" s="16"/>
     </row>
     <row r="380" spans="1:22">
-      <c r="A380" s="34"/>
+      <c r="A380" s="32"/>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
       <c r="D380" s="13"/>
@@ -10082,7 +10128,7 @@
       <c r="V380" s="16"/>
     </row>
     <row r="381" spans="1:22">
-      <c r="A381" s="34"/>
+      <c r="A381" s="32"/>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
       <c r="D381" s="13"/>
@@ -10106,7 +10152,7 @@
       <c r="V381" s="16"/>
     </row>
     <row r="382" spans="1:22">
-      <c r="A382" s="34"/>
+      <c r="A382" s="32"/>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
       <c r="D382" s="13"/>
@@ -10130,7 +10176,7 @@
       <c r="V382" s="16"/>
     </row>
     <row r="383" spans="1:22">
-      <c r="A383" s="34"/>
+      <c r="A383" s="32"/>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
       <c r="D383" s="13"/>
@@ -10154,7 +10200,7 @@
       <c r="V383" s="16"/>
     </row>
     <row r="384" spans="1:22">
-      <c r="A384" s="34"/>
+      <c r="A384" s="32"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
       <c r="D384" s="13"/>
@@ -10178,7 +10224,7 @@
       <c r="V384" s="16"/>
     </row>
     <row r="385" spans="1:22">
-      <c r="A385" s="34"/>
+      <c r="A385" s="32"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
       <c r="D385" s="13"/>
@@ -10202,7 +10248,7 @@
       <c r="V385" s="16"/>
     </row>
     <row r="386" spans="1:22">
-      <c r="A386" s="34"/>
+      <c r="A386" s="32"/>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
       <c r="D386" s="13"/>
@@ -10226,7 +10272,7 @@
       <c r="V386" s="16"/>
     </row>
     <row r="387" spans="1:22">
-      <c r="A387" s="34"/>
+      <c r="A387" s="32"/>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
       <c r="D387" s="13"/>
@@ -10250,7 +10296,7 @@
       <c r="V387" s="16"/>
     </row>
     <row r="388" spans="1:22">
-      <c r="A388" s="34"/>
+      <c r="A388" s="32"/>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
       <c r="D388" s="13"/>
@@ -10274,7 +10320,7 @@
       <c r="V388" s="16"/>
     </row>
     <row r="389" spans="1:22">
-      <c r="A389" s="34"/>
+      <c r="A389" s="32"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
       <c r="D389" s="13"/>
@@ -10298,7 +10344,7 @@
       <c r="V389" s="16"/>
     </row>
     <row r="390" spans="1:22">
-      <c r="A390" s="34"/>
+      <c r="A390" s="32"/>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
       <c r="D390" s="13"/>
@@ -10322,7 +10368,7 @@
       <c r="V390" s="16"/>
     </row>
     <row r="391" spans="1:22">
-      <c r="A391" s="34"/>
+      <c r="A391" s="32"/>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
       <c r="D391" s="13"/>
@@ -10346,7 +10392,7 @@
       <c r="V391" s="16"/>
     </row>
     <row r="392" spans="1:22">
-      <c r="A392" s="34"/>
+      <c r="A392" s="32"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
       <c r="D392" s="13"/>
@@ -10370,7 +10416,7 @@
       <c r="V392" s="16"/>
     </row>
     <row r="393" spans="1:22">
-      <c r="A393" s="34"/>
+      <c r="A393" s="32"/>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
       <c r="D393" s="13"/>
@@ -10394,7 +10440,7 @@
       <c r="V393" s="16"/>
     </row>
     <row r="394" spans="1:22">
-      <c r="A394" s="34"/>
+      <c r="A394" s="32"/>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
       <c r="D394" s="13"/>
@@ -10418,7 +10464,7 @@
       <c r="V394" s="16"/>
     </row>
     <row r="395" spans="1:22">
-      <c r="A395" s="34"/>
+      <c r="A395" s="32"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
       <c r="D395" s="13"/>
@@ -10442,7 +10488,7 @@
       <c r="V395" s="16"/>
     </row>
     <row r="396" spans="1:22">
-      <c r="A396" s="34"/>
+      <c r="A396" s="32"/>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
       <c r="D396" s="13"/>
@@ -10466,7 +10512,7 @@
       <c r="V396" s="16"/>
     </row>
     <row r="397" spans="1:22">
-      <c r="A397" s="34"/>
+      <c r="A397" s="32"/>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
       <c r="D397" s="13"/>
@@ -10490,7 +10536,7 @@
       <c r="V397" s="16"/>
     </row>
     <row r="398" spans="1:22">
-      <c r="A398" s="34"/>
+      <c r="A398" s="32"/>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
       <c r="D398" s="13"/>
@@ -10514,7 +10560,7 @@
       <c r="V398" s="16"/>
     </row>
     <row r="399" spans="1:22">
-      <c r="A399" s="34"/>
+      <c r="A399" s="32"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
       <c r="D399" s="13"/>
@@ -10538,7 +10584,7 @@
       <c r="V399" s="16"/>
     </row>
     <row r="400" spans="1:22">
-      <c r="A400" s="34"/>
+      <c r="A400" s="32"/>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
       <c r="D400" s="13"/>
@@ -10562,7 +10608,7 @@
       <c r="V400" s="16"/>
     </row>
     <row r="401" spans="1:22">
-      <c r="A401" s="34"/>
+      <c r="A401" s="32"/>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
       <c r="D401" s="13"/>
@@ -10586,7 +10632,7 @@
       <c r="V401" s="16"/>
     </row>
     <row r="402" spans="1:22">
-      <c r="A402" s="34"/>
+      <c r="A402" s="32"/>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
       <c r="D402" s="13"/>
@@ -10610,7 +10656,7 @@
       <c r="V402" s="16"/>
     </row>
     <row r="403" spans="1:22">
-      <c r="A403" s="34"/>
+      <c r="A403" s="32"/>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
       <c r="D403" s="13"/>
@@ -10634,7 +10680,7 @@
       <c r="V403" s="16"/>
     </row>
     <row r="404" spans="1:22">
-      <c r="A404" s="34"/>
+      <c r="A404" s="32"/>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
       <c r="D404" s="13"/>
@@ -10658,7 +10704,7 @@
       <c r="V404" s="16"/>
     </row>
     <row r="405" spans="1:22">
-      <c r="A405" s="34"/>
+      <c r="A405" s="32"/>
       <c r="B405" s="13"/>
       <c r="C405" s="13"/>
       <c r="D405" s="13"/>
@@ -10682,7 +10728,7 @@
       <c r="V405" s="16"/>
     </row>
     <row r="406" spans="1:22">
-      <c r="A406" s="34"/>
+      <c r="A406" s="32"/>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
       <c r="D406" s="13"/>
@@ -10706,7 +10752,7 @@
       <c r="V406" s="16"/>
     </row>
     <row r="407" spans="1:22">
-      <c r="A407" s="34"/>
+      <c r="A407" s="32"/>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
       <c r="D407" s="13"/>
@@ -10730,7 +10776,7 @@
       <c r="V407" s="16"/>
     </row>
     <row r="408" spans="1:22">
-      <c r="A408" s="34"/>
+      <c r="A408" s="32"/>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
       <c r="D408" s="13"/>
@@ -10754,7 +10800,7 @@
       <c r="V408" s="16"/>
     </row>
     <row r="409" spans="1:22">
-      <c r="A409" s="34"/>
+      <c r="A409" s="32"/>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
       <c r="D409" s="13"/>
@@ -10778,7 +10824,7 @@
       <c r="V409" s="16"/>
     </row>
     <row r="410" spans="1:22">
-      <c r="A410" s="34"/>
+      <c r="A410" s="32"/>
       <c r="B410" s="13"/>
       <c r="C410" s="13"/>
       <c r="D410" s="13"/>
@@ -10802,7 +10848,7 @@
       <c r="V410" s="16"/>
     </row>
     <row r="411" spans="1:22">
-      <c r="A411" s="34"/>
+      <c r="A411" s="32"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
       <c r="D411" s="13"/>
@@ -10826,7 +10872,7 @@
       <c r="V411" s="16"/>
     </row>
     <row r="412" spans="1:22">
-      <c r="A412" s="34"/>
+      <c r="A412" s="32"/>
       <c r="B412" s="13"/>
       <c r="C412" s="13"/>
       <c r="D412" s="13"/>
@@ -10850,7 +10896,7 @@
       <c r="V412" s="16"/>
     </row>
     <row r="413" spans="1:22">
-      <c r="A413" s="34"/>
+      <c r="A413" s="32"/>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
       <c r="D413" s="13"/>
@@ -10874,7 +10920,7 @@
       <c r="V413" s="16"/>
     </row>
     <row r="414" spans="1:22">
-      <c r="A414" s="34"/>
+      <c r="A414" s="32"/>
       <c r="B414" s="13"/>
       <c r="C414" s="13"/>
       <c r="D414" s="13"/>
@@ -10898,7 +10944,7 @@
       <c r="V414" s="16"/>
     </row>
     <row r="415" spans="1:22">
-      <c r="A415" s="34"/>
+      <c r="A415" s="32"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
       <c r="D415" s="13"/>
@@ -10922,7 +10968,7 @@
       <c r="V415" s="16"/>
     </row>
     <row r="416" spans="1:22">
-      <c r="A416" s="34"/>
+      <c r="A416" s="32"/>
       <c r="B416" s="13"/>
       <c r="C416" s="13"/>
       <c r="D416" s="13"/>
@@ -10946,7 +10992,7 @@
       <c r="V416" s="16"/>
     </row>
     <row r="417" spans="1:22">
-      <c r="A417" s="34"/>
+      <c r="A417" s="32"/>
       <c r="B417" s="13"/>
       <c r="C417" s="13"/>
       <c r="D417" s="13"/>
@@ -10970,7 +11016,7 @@
       <c r="V417" s="16"/>
     </row>
     <row r="418" spans="1:22">
-      <c r="A418" s="34"/>
+      <c r="A418" s="32"/>
       <c r="B418" s="13"/>
       <c r="C418" s="13"/>
       <c r="D418" s="13"/>
@@ -10994,7 +11040,7 @@
       <c r="V418" s="16"/>
     </row>
     <row r="419" spans="1:22">
-      <c r="A419" s="34"/>
+      <c r="A419" s="32"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
       <c r="D419" s="13"/>
@@ -11018,7 +11064,7 @@
       <c r="V419" s="16"/>
     </row>
     <row r="420" spans="1:22">
-      <c r="A420" s="34"/>
+      <c r="A420" s="32"/>
       <c r="B420" s="13"/>
       <c r="C420" s="13"/>
       <c r="D420" s="13"/>
@@ -11042,7 +11088,7 @@
       <c r="V420" s="16"/>
     </row>
     <row r="421" spans="1:22">
-      <c r="A421" s="34"/>
+      <c r="A421" s="32"/>
       <c r="B421" s="13"/>
       <c r="C421" s="13"/>
       <c r="D421" s="13"/>
@@ -11066,7 +11112,7 @@
       <c r="V421" s="16"/>
     </row>
     <row r="422" spans="1:22">
-      <c r="A422" s="34"/>
+      <c r="A422" s="32"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
       <c r="D422" s="13"/>
@@ -11090,7 +11136,7 @@
       <c r="V422" s="16"/>
     </row>
     <row r="423" spans="1:22">
-      <c r="A423" s="34"/>
+      <c r="A423" s="32"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
       <c r="D423" s="13"/>
@@ -11114,7 +11160,7 @@
       <c r="V423" s="16"/>
     </row>
     <row r="424" spans="1:22">
-      <c r="A424" s="34"/>
+      <c r="A424" s="32"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
       <c r="D424" s="13"/>
@@ -11138,7 +11184,7 @@
       <c r="V424" s="16"/>
     </row>
     <row r="425" spans="1:22">
-      <c r="A425" s="34"/>
+      <c r="A425" s="32"/>
       <c r="B425" s="13"/>
       <c r="C425" s="13"/>
       <c r="D425" s="13"/>
@@ -11162,7 +11208,7 @@
       <c r="V425" s="16"/>
     </row>
     <row r="426" spans="1:22">
-      <c r="A426" s="34"/>
+      <c r="A426" s="32"/>
       <c r="B426" s="13"/>
       <c r="C426" s="13"/>
       <c r="D426" s="13"/>
@@ -11186,7 +11232,7 @@
       <c r="V426" s="16"/>
     </row>
     <row r="427" spans="1:22">
-      <c r="A427" s="34"/>
+      <c r="A427" s="32"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
       <c r="D427" s="13"/>
@@ -11210,7 +11256,7 @@
       <c r="V427" s="16"/>
     </row>
     <row r="428" spans="1:22">
-      <c r="A428" s="34"/>
+      <c r="A428" s="32"/>
       <c r="B428" s="13"/>
       <c r="C428" s="13"/>
       <c r="D428" s="13"/>
@@ -11234,7 +11280,7 @@
       <c r="V428" s="16"/>
     </row>
     <row r="429" spans="1:22">
-      <c r="A429" s="34"/>
+      <c r="A429" s="32"/>
       <c r="B429" s="13"/>
       <c r="C429" s="13"/>
       <c r="D429" s="13"/>
@@ -11258,7 +11304,7 @@
       <c r="V429" s="16"/>
     </row>
     <row r="430" spans="1:22">
-      <c r="A430" s="34"/>
+      <c r="A430" s="32"/>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
       <c r="D430" s="13"/>
@@ -11282,7 +11328,7 @@
       <c r="V430" s="16"/>
     </row>
     <row r="431" spans="1:22">
-      <c r="A431" s="34"/>
+      <c r="A431" s="32"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
       <c r="D431" s="13"/>
@@ -11306,7 +11352,7 @@
       <c r="V431" s="16"/>
     </row>
     <row r="432" spans="1:22">
-      <c r="A432" s="34"/>
+      <c r="A432" s="32"/>
       <c r="B432" s="13"/>
       <c r="C432" s="13"/>
       <c r="D432" s="13"/>
@@ -11330,7 +11376,7 @@
       <c r="V432" s="16"/>
     </row>
     <row r="433" spans="1:22">
-      <c r="A433" s="34"/>
+      <c r="A433" s="32"/>
       <c r="B433" s="13"/>
       <c r="C433" s="13"/>
       <c r="D433" s="13"/>
@@ -11354,7 +11400,7 @@
       <c r="V433" s="16"/>
     </row>
     <row r="434" spans="1:22">
-      <c r="A434" s="34"/>
+      <c r="A434" s="32"/>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
       <c r="D434" s="13"/>
@@ -11378,7 +11424,7 @@
       <c r="V434" s="16"/>
     </row>
     <row r="435" spans="1:22">
-      <c r="A435" s="34"/>
+      <c r="A435" s="32"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
       <c r="D435" s="13"/>
@@ -11402,7 +11448,7 @@
       <c r="V435" s="16"/>
     </row>
     <row r="436" spans="1:22">
-      <c r="A436" s="34"/>
+      <c r="A436" s="32"/>
       <c r="B436" s="13"/>
       <c r="C436" s="13"/>
       <c r="D436" s="13"/>
@@ -11426,7 +11472,7 @@
       <c r="V436" s="16"/>
     </row>
     <row r="437" spans="1:22">
-      <c r="A437" s="34"/>
+      <c r="A437" s="32"/>
       <c r="B437" s="13"/>
       <c r="C437" s="13"/>
       <c r="D437" s="13"/>
@@ -11450,7 +11496,7 @@
       <c r="V437" s="16"/>
     </row>
     <row r="438" spans="1:22">
-      <c r="A438" s="34"/>
+      <c r="A438" s="32"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
       <c r="D438" s="13"/>
@@ -11474,7 +11520,7 @@
       <c r="V438" s="16"/>
     </row>
     <row r="439" spans="1:22">
-      <c r="A439" s="34"/>
+      <c r="A439" s="32"/>
       <c r="B439" s="13"/>
       <c r="C439" s="13"/>
       <c r="D439" s="13"/>
@@ -11498,7 +11544,7 @@
       <c r="V439" s="16"/>
     </row>
     <row r="440" spans="1:22">
-      <c r="A440" s="34"/>
+      <c r="A440" s="32"/>
       <c r="B440" s="13"/>
       <c r="C440" s="13"/>
       <c r="D440" s="13"/>
@@ -11522,7 +11568,7 @@
       <c r="V440" s="16"/>
     </row>
     <row r="441" spans="1:22">
-      <c r="A441" s="34"/>
+      <c r="A441" s="32"/>
       <c r="B441" s="13"/>
       <c r="C441" s="13"/>
       <c r="D441" s="13"/>
@@ -11546,7 +11592,7 @@
       <c r="V441" s="16"/>
     </row>
     <row r="442" spans="1:22">
-      <c r="A442" s="34"/>
+      <c r="A442" s="32"/>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
       <c r="D442" s="13"/>
@@ -11570,7 +11616,7 @@
       <c r="V442" s="16"/>
     </row>
     <row r="443" spans="1:22">
-      <c r="A443" s="34"/>
+      <c r="A443" s="32"/>
       <c r="B443" s="13"/>
       <c r="C443" s="13"/>
       <c r="D443" s="13"/>
@@ -11594,7 +11640,7 @@
       <c r="V443" s="16"/>
     </row>
     <row r="444" spans="1:22">
-      <c r="A444" s="34"/>
+      <c r="A444" s="32"/>
       <c r="B444" s="13"/>
       <c r="C444" s="13"/>
       <c r="D444" s="13"/>
@@ -11618,7 +11664,7 @@
       <c r="V444" s="16"/>
     </row>
     <row r="445" spans="1:22">
-      <c r="A445" s="34"/>
+      <c r="A445" s="32"/>
       <c r="B445" s="13"/>
       <c r="C445" s="13"/>
       <c r="D445" s="13"/>
@@ -11642,7 +11688,7 @@
       <c r="V445" s="16"/>
     </row>
     <row r="446" spans="1:22">
-      <c r="A446" s="34"/>
+      <c r="A446" s="32"/>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
       <c r="D446" s="13"/>
@@ -11666,7 +11712,7 @@
       <c r="V446" s="16"/>
     </row>
     <row r="447" spans="1:22">
-      <c r="A447" s="34"/>
+      <c r="A447" s="32"/>
       <c r="B447" s="13"/>
       <c r="C447" s="13"/>
       <c r="D447" s="13"/>
@@ -11690,7 +11736,7 @@
       <c r="V447" s="16"/>
     </row>
     <row r="448" spans="1:22">
-      <c r="A448" s="34"/>
+      <c r="A448" s="32"/>
       <c r="B448" s="13"/>
       <c r="C448" s="13"/>
       <c r="D448" s="13"/>
@@ -11714,7 +11760,7 @@
       <c r="V448" s="16"/>
     </row>
     <row r="449" spans="1:22">
-      <c r="A449" s="34"/>
+      <c r="A449" s="32"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
       <c r="D449" s="13"/>
@@ -11738,7 +11784,7 @@
       <c r="V449" s="16"/>
     </row>
     <row r="450" spans="1:22">
-      <c r="A450" s="34"/>
+      <c r="A450" s="32"/>
       <c r="B450" s="13"/>
       <c r="C450" s="13"/>
       <c r="D450" s="13"/>
@@ -11762,7 +11808,7 @@
       <c r="V450" s="16"/>
     </row>
     <row r="451" spans="1:22">
-      <c r="A451" s="34"/>
+      <c r="A451" s="32"/>
       <c r="B451" s="13"/>
       <c r="C451" s="13"/>
       <c r="D451" s="13"/>
@@ -11786,7 +11832,7 @@
       <c r="V451" s="16"/>
     </row>
     <row r="452" spans="1:22">
-      <c r="A452" s="34"/>
+      <c r="A452" s="32"/>
       <c r="B452" s="13"/>
       <c r="C452" s="13"/>
       <c r="D452" s="13"/>
@@ -11810,7 +11856,7 @@
       <c r="V452" s="16"/>
     </row>
     <row r="453" spans="1:22">
-      <c r="A453" s="34"/>
+      <c r="A453" s="32"/>
       <c r="B453" s="13"/>
       <c r="C453" s="13"/>
       <c r="D453" s="13"/>
@@ -11834,7 +11880,7 @@
       <c r="V453" s="16"/>
     </row>
     <row r="454" spans="1:22">
-      <c r="A454" s="34"/>
+      <c r="A454" s="32"/>
       <c r="B454" s="13"/>
       <c r="C454" s="13"/>
       <c r="D454" s="13"/>
@@ -11858,7 +11904,7 @@
       <c r="V454" s="16"/>
     </row>
     <row r="455" spans="1:22">
-      <c r="A455" s="34"/>
+      <c r="A455" s="32"/>
       <c r="B455" s="13"/>
       <c r="C455" s="13"/>
       <c r="D455" s="13"/>
@@ -11882,7 +11928,7 @@
       <c r="V455" s="16"/>
     </row>
     <row r="456" spans="1:22">
-      <c r="A456" s="34"/>
+      <c r="A456" s="32"/>
       <c r="B456" s="13"/>
       <c r="C456" s="13"/>
       <c r="D456" s="13"/>
@@ -11906,7 +11952,7 @@
       <c r="V456" s="16"/>
     </row>
     <row r="457" spans="1:22">
-      <c r="A457" s="34"/>
+      <c r="A457" s="32"/>
       <c r="B457" s="13"/>
       <c r="C457" s="13"/>
       <c r="D457" s="13"/>
@@ -11930,7 +11976,7 @@
       <c r="V457" s="16"/>
     </row>
     <row r="458" spans="1:22">
-      <c r="A458" s="34"/>
+      <c r="A458" s="32"/>
       <c r="B458" s="13"/>
       <c r="C458" s="13"/>
       <c r="D458" s="13"/>
@@ -11954,7 +12000,7 @@
       <c r="V458" s="16"/>
     </row>
     <row r="459" spans="1:22">
-      <c r="A459" s="34"/>
+      <c r="A459" s="32"/>
       <c r="B459" s="13"/>
       <c r="C459" s="13"/>
       <c r="D459" s="13"/>
@@ -11978,7 +12024,7 @@
       <c r="V459" s="16"/>
     </row>
     <row r="460" spans="1:22">
-      <c r="A460" s="34"/>
+      <c r="A460" s="32"/>
       <c r="B460" s="13"/>
       <c r="C460" s="13"/>
       <c r="D460" s="13"/>
@@ -12002,7 +12048,7 @@
       <c r="V460" s="16"/>
     </row>
     <row r="461" spans="1:22">
-      <c r="A461" s="34"/>
+      <c r="A461" s="32"/>
       <c r="B461" s="13"/>
       <c r="C461" s="13"/>
       <c r="D461" s="13"/>
@@ -12026,7 +12072,7 @@
       <c r="V461" s="16"/>
     </row>
     <row r="462" spans="1:22">
-      <c r="A462" s="34"/>
+      <c r="A462" s="32"/>
       <c r="B462" s="13"/>
       <c r="C462" s="13"/>
       <c r="D462" s="13"/>
@@ -12050,7 +12096,7 @@
       <c r="V462" s="16"/>
     </row>
     <row r="463" spans="1:22">
-      <c r="A463" s="34"/>
+      <c r="A463" s="32"/>
       <c r="B463" s="13"/>
       <c r="C463" s="13"/>
       <c r="D463" s="13"/>
@@ -12074,7 +12120,7 @@
       <c r="V463" s="16"/>
     </row>
     <row r="464" spans="1:22">
-      <c r="A464" s="34"/>
+      <c r="A464" s="32"/>
       <c r="B464" s="13"/>
       <c r="C464" s="13"/>
       <c r="D464" s="13"/>
@@ -12098,7 +12144,7 @@
       <c r="V464" s="16"/>
     </row>
     <row r="465" spans="1:22">
-      <c r="A465" s="34"/>
+      <c r="A465" s="32"/>
       <c r="B465" s="13"/>
       <c r="C465" s="13"/>
       <c r="D465" s="13"/>
@@ -12122,7 +12168,7 @@
       <c r="V465" s="16"/>
     </row>
     <row r="466" spans="1:22">
-      <c r="A466" s="34"/>
+      <c r="A466" s="32"/>
       <c r="B466" s="13"/>
       <c r="C466" s="13"/>
       <c r="D466" s="13"/>
@@ -12146,7 +12192,7 @@
       <c r="V466" s="16"/>
     </row>
     <row r="467" spans="1:22">
-      <c r="A467" s="34"/>
+      <c r="A467" s="32"/>
       <c r="B467" s="13"/>
       <c r="C467" s="13"/>
       <c r="D467" s="13"/>
@@ -12170,7 +12216,7 @@
       <c r="V467" s="16"/>
     </row>
     <row r="468" spans="1:22">
-      <c r="A468" s="34"/>
+      <c r="A468" s="32"/>
       <c r="B468" s="13"/>
       <c r="C468" s="13"/>
       <c r="D468" s="13"/>
@@ -12194,7 +12240,7 @@
       <c r="V468" s="16"/>
     </row>
     <row r="469" spans="1:22">
-      <c r="A469" s="34"/>
+      <c r="A469" s="32"/>
       <c r="B469" s="13"/>
       <c r="C469" s="13"/>
       <c r="D469" s="13"/>
@@ -12218,7 +12264,7 @@
       <c r="V469" s="16"/>
     </row>
     <row r="470" spans="1:22">
-      <c r="A470" s="34"/>
+      <c r="A470" s="32"/>
       <c r="B470" s="13"/>
       <c r="C470" s="13"/>
       <c r="D470" s="13"/>
@@ -12242,7 +12288,7 @@
       <c r="V470" s="16"/>
     </row>
     <row r="471" spans="1:22">
-      <c r="A471" s="34"/>
+      <c r="A471" s="32"/>
       <c r="B471" s="13"/>
       <c r="C471" s="13"/>
       <c r="D471" s="13"/>
@@ -12266,7 +12312,7 @@
       <c r="V471" s="16"/>
     </row>
     <row r="472" spans="1:22">
-      <c r="A472" s="34"/>
+      <c r="A472" s="32"/>
       <c r="B472" s="13"/>
       <c r="C472" s="13"/>
       <c r="D472" s="13"/>
@@ -12290,7 +12336,7 @@
       <c r="V472" s="16"/>
     </row>
     <row r="473" spans="1:22">
-      <c r="A473" s="34"/>
+      <c r="A473" s="32"/>
       <c r="B473" s="13"/>
       <c r="C473" s="13"/>
       <c r="D473" s="13"/>
@@ -12314,7 +12360,7 @@
       <c r="V473" s="16"/>
     </row>
     <row r="474" spans="1:22">
-      <c r="A474" s="34"/>
+      <c r="A474" s="32"/>
       <c r="B474" s="13"/>
       <c r="C474" s="13"/>
       <c r="D474" s="13"/>
@@ -12338,7 +12384,7 @@
       <c r="V474" s="16"/>
     </row>
     <row r="475" spans="1:22">
-      <c r="A475" s="34"/>
+      <c r="A475" s="32"/>
       <c r="B475" s="13"/>
       <c r="C475" s="13"/>
       <c r="D475" s="13"/>
@@ -12362,7 +12408,7 @@
       <c r="V475" s="16"/>
     </row>
     <row r="476" spans="1:22">
-      <c r="A476" s="34"/>
+      <c r="A476" s="32"/>
       <c r="B476" s="13"/>
       <c r="C476" s="13"/>
       <c r="D476" s="13"/>
@@ -12386,7 +12432,7 @@
       <c r="V476" s="16"/>
     </row>
     <row r="477" spans="1:22">
-      <c r="A477" s="34"/>
+      <c r="A477" s="32"/>
       <c r="B477" s="13"/>
       <c r="C477" s="13"/>
       <c r="D477" s="13"/>
@@ -12410,7 +12456,7 @@
       <c r="V477" s="16"/>
     </row>
     <row r="478" spans="1:22">
-      <c r="A478" s="34"/>
+      <c r="A478" s="32"/>
       <c r="B478" s="13"/>
       <c r="C478" s="13"/>
       <c r="D478" s="13"/>
@@ -12434,7 +12480,7 @@
       <c r="V478" s="16"/>
     </row>
     <row r="479" spans="1:22">
-      <c r="A479" s="34"/>
+      <c r="A479" s="32"/>
       <c r="B479" s="13"/>
       <c r="C479" s="13"/>
       <c r="D479" s="13"/>
@@ -12458,7 +12504,7 @@
       <c r="V479" s="16"/>
     </row>
     <row r="480" spans="1:22">
-      <c r="A480" s="34"/>
+      <c r="A480" s="32"/>
       <c r="B480" s="13"/>
       <c r="C480" s="13"/>
       <c r="D480" s="13"/>
@@ -12482,7 +12528,7 @@
       <c r="V480" s="16"/>
     </row>
     <row r="481" spans="1:22">
-      <c r="A481" s="34"/>
+      <c r="A481" s="32"/>
       <c r="B481" s="13"/>
       <c r="C481" s="13"/>
       <c r="D481" s="13"/>
@@ -12506,7 +12552,7 @@
       <c r="V481" s="16"/>
     </row>
     <row r="482" spans="1:22">
-      <c r="A482" s="34"/>
+      <c r="A482" s="32"/>
       <c r="B482" s="13"/>
       <c r="C482" s="13"/>
       <c r="D482" s="13"/>
@@ -12530,7 +12576,7 @@
       <c r="V482" s="16"/>
     </row>
     <row r="483" spans="1:22">
-      <c r="A483" s="34"/>
+      <c r="A483" s="32"/>
       <c r="B483" s="13"/>
       <c r="C483" s="13"/>
       <c r="D483" s="13"/>
@@ -12554,7 +12600,7 @@
       <c r="V483" s="16"/>
     </row>
     <row r="484" spans="1:22">
-      <c r="A484" s="34"/>
+      <c r="A484" s="32"/>
       <c r="B484" s="13"/>
       <c r="C484" s="13"/>
       <c r="D484" s="13"/>
@@ -12578,7 +12624,7 @@
       <c r="V484" s="16"/>
     </row>
     <row r="485" spans="1:22">
-      <c r="A485" s="34"/>
+      <c r="A485" s="32"/>
       <c r="B485" s="13"/>
       <c r="C485" s="13"/>
       <c r="D485" s="13"/>
@@ -12602,7 +12648,7 @@
       <c r="V485" s="16"/>
     </row>
     <row r="486" spans="1:22">
-      <c r="A486" s="34"/>
+      <c r="A486" s="32"/>
       <c r="B486" s="13"/>
       <c r="C486" s="13"/>
       <c r="D486" s="13"/>
@@ -12626,7 +12672,7 @@
       <c r="V486" s="16"/>
     </row>
     <row r="487" spans="1:22">
-      <c r="A487" s="34"/>
+      <c r="A487" s="32"/>
       <c r="B487" s="13"/>
       <c r="C487" s="13"/>
       <c r="D487" s="13"/>
@@ -12650,7 +12696,7 @@
       <c r="V487" s="16"/>
     </row>
     <row r="488" spans="1:22">
-      <c r="A488" s="34"/>
+      <c r="A488" s="32"/>
       <c r="B488" s="13"/>
       <c r="C488" s="13"/>
       <c r="D488" s="13"/>
@@ -12674,7 +12720,7 @@
       <c r="V488" s="16"/>
     </row>
     <row r="489" spans="1:22">
-      <c r="A489" s="34"/>
+      <c r="A489" s="32"/>
       <c r="B489" s="13"/>
       <c r="C489" s="13"/>
       <c r="D489" s="13"/>
@@ -12698,7 +12744,7 @@
       <c r="V489" s="16"/>
     </row>
     <row r="490" spans="1:22">
-      <c r="A490" s="34"/>
+      <c r="A490" s="32"/>
       <c r="B490" s="13"/>
       <c r="C490" s="13"/>
       <c r="D490" s="13"/>
@@ -12722,7 +12768,7 @@
       <c r="V490" s="16"/>
     </row>
     <row r="491" spans="1:22">
-      <c r="A491" s="34"/>
+      <c r="A491" s="32"/>
       <c r="B491" s="13"/>
       <c r="C491" s="13"/>
       <c r="D491" s="13"/>
@@ -12746,7 +12792,7 @@
       <c r="V491" s="16"/>
     </row>
     <row r="492" spans="1:22">
-      <c r="A492" s="34"/>
+      <c r="A492" s="32"/>
       <c r="B492" s="13"/>
       <c r="C492" s="13"/>
       <c r="D492" s="13"/>
@@ -12770,7 +12816,7 @@
       <c r="V492" s="16"/>
     </row>
     <row r="493" spans="1:22">
-      <c r="A493" s="34"/>
+      <c r="A493" s="32"/>
       <c r="B493" s="13"/>
       <c r="C493" s="13"/>
       <c r="D493" s="13"/>
@@ -12794,7 +12840,7 @@
       <c r="V493" s="16"/>
     </row>
     <row r="494" spans="1:22">
-      <c r="A494" s="34"/>
+      <c r="A494" s="32"/>
       <c r="B494" s="13"/>
       <c r="C494" s="13"/>
       <c r="D494" s="13"/>
@@ -12818,7 +12864,7 @@
       <c r="V494" s="16"/>
     </row>
     <row r="495" spans="1:22">
-      <c r="A495" s="34"/>
+      <c r="A495" s="32"/>
       <c r="B495" s="13"/>
       <c r="C495" s="13"/>
       <c r="D495" s="13"/>
@@ -12842,7 +12888,7 @@
       <c r="V495" s="16"/>
     </row>
     <row r="496" spans="1:22">
-      <c r="A496" s="34"/>
+      <c r="A496" s="32"/>
       <c r="B496" s="13"/>
       <c r="C496" s="13"/>
       <c r="D496" s="13"/>
@@ -12866,7 +12912,7 @@
       <c r="V496" s="16"/>
     </row>
     <row r="497" spans="1:22">
-      <c r="A497" s="34"/>
+      <c r="A497" s="32"/>
       <c r="B497" s="13"/>
       <c r="C497" s="13"/>
       <c r="D497" s="13"/>
@@ -12890,7 +12936,7 @@
       <c r="V497" s="16"/>
     </row>
     <row r="498" spans="1:22">
-      <c r="A498" s="34"/>
+      <c r="A498" s="32"/>
       <c r="B498" s="13"/>
       <c r="C498" s="13"/>
       <c r="D498" s="13"/>
@@ -12914,7 +12960,7 @@
       <c r="V498" s="16"/>
     </row>
     <row r="499" spans="1:22">
-      <c r="A499" s="34"/>
+      <c r="A499" s="32"/>
       <c r="B499" s="13"/>
       <c r="C499" s="13"/>
       <c r="D499" s="13"/>
@@ -12938,7 +12984,7 @@
       <c r="V499" s="16"/>
     </row>
     <row r="500" spans="1:22">
-      <c r="A500" s="34"/>
+      <c r="A500" s="32"/>
       <c r="B500" s="13"/>
       <c r="C500" s="13"/>
       <c r="D500" s="13"/>
@@ -12962,7 +13008,7 @@
       <c r="V500" s="16"/>
     </row>
     <row r="501" spans="1:22">
-      <c r="A501" s="34"/>
+      <c r="A501" s="32"/>
       <c r="B501" s="13"/>
       <c r="C501" s="13"/>
       <c r="D501" s="13"/>
@@ -12986,7 +13032,7 @@
       <c r="V501" s="16"/>
     </row>
     <row r="502" spans="1:22">
-      <c r="A502" s="34"/>
+      <c r="A502" s="32"/>
       <c r="B502" s="13"/>
       <c r="C502" s="13"/>
       <c r="D502" s="13"/>
@@ -13010,7 +13056,7 @@
       <c r="V502" s="16"/>
     </row>
     <row r="503" spans="1:22">
-      <c r="A503" s="34"/>
+      <c r="A503" s="32"/>
       <c r="B503" s="13"/>
       <c r="C503" s="13"/>
       <c r="D503" s="13"/>
@@ -13034,7 +13080,7 @@
       <c r="V503" s="16"/>
     </row>
     <row r="504" spans="1:22">
-      <c r="A504" s="34"/>
+      <c r="A504" s="32"/>
       <c r="B504" s="13"/>
       <c r="C504" s="13"/>
       <c r="D504" s="13"/>
@@ -13058,7 +13104,7 @@
       <c r="V504" s="16"/>
     </row>
     <row r="505" spans="1:22">
-      <c r="A505" s="34"/>
+      <c r="A505" s="32"/>
       <c r="B505" s="13"/>
       <c r="C505" s="13"/>
       <c r="D505" s="13"/>
@@ -13082,7 +13128,7 @@
       <c r="V505" s="16"/>
     </row>
     <row r="506" spans="1:22">
-      <c r="A506" s="34"/>
+      <c r="A506" s="32"/>
       <c r="B506" s="13"/>
       <c r="C506" s="13"/>
       <c r="D506" s="13"/>
@@ -13106,7 +13152,7 @@
       <c r="V506" s="16"/>
     </row>
     <row r="507" spans="1:22">
-      <c r="A507" s="34"/>
+      <c r="A507" s="32"/>
       <c r="B507" s="13"/>
       <c r="C507" s="13"/>
       <c r="D507" s="13"/>
@@ -13130,7 +13176,7 @@
       <c r="V507" s="16"/>
     </row>
     <row r="508" spans="1:22">
-      <c r="A508" s="34"/>
+      <c r="A508" s="32"/>
       <c r="B508" s="13"/>
       <c r="C508" s="13"/>
       <c r="D508" s="13"/>
@@ -13154,7 +13200,7 @@
       <c r="V508" s="16"/>
     </row>
     <row r="509" spans="1:22">
-      <c r="A509" s="34"/>
+      <c r="A509" s="32"/>
       <c r="B509" s="13"/>
       <c r="C509" s="13"/>
       <c r="D509" s="13"/>
@@ -13178,7 +13224,7 @@
       <c r="V509" s="16"/>
     </row>
     <row r="510" spans="1:22">
-      <c r="A510" s="34"/>
+      <c r="A510" s="32"/>
       <c r="B510" s="13"/>
       <c r="C510" s="13"/>
       <c r="D510" s="13"/>
@@ -13202,7 +13248,7 @@
       <c r="V510" s="16"/>
     </row>
     <row r="511" spans="1:22">
-      <c r="A511" s="34"/>
+      <c r="A511" s="32"/>
       <c r="B511" s="13"/>
       <c r="C511" s="13"/>
       <c r="D511" s="13"/>
@@ -13226,7 +13272,7 @@
       <c r="V511" s="16"/>
     </row>
     <row r="512" spans="1:22">
-      <c r="A512" s="34"/>
+      <c r="A512" s="32"/>
       <c r="B512" s="13"/>
       <c r="C512" s="13"/>
       <c r="D512" s="13"/>
@@ -13250,7 +13296,7 @@
       <c r="V512" s="16"/>
     </row>
     <row r="513" spans="1:22">
-      <c r="A513" s="34"/>
+      <c r="A513" s="32"/>
       <c r="B513" s="13"/>
       <c r="C513" s="13"/>
       <c r="D513" s="13"/>
@@ -13274,7 +13320,7 @@
       <c r="V513" s="16"/>
     </row>
     <row r="514" spans="1:22">
-      <c r="A514" s="34"/>
+      <c r="A514" s="32"/>
       <c r="B514" s="13"/>
       <c r="C514" s="13"/>
       <c r="D514" s="13"/>
@@ -13298,7 +13344,7 @@
       <c r="V514" s="16"/>
     </row>
     <row r="515" spans="1:22">
-      <c r="A515" s="34"/>
+      <c r="A515" s="32"/>
       <c r="B515" s="13"/>
       <c r="C515" s="13"/>
       <c r="D515" s="13"/>
@@ -13322,7 +13368,7 @@
       <c r="V515" s="16"/>
     </row>
     <row r="516" spans="1:22">
-      <c r="A516" s="34"/>
+      <c r="A516" s="32"/>
       <c r="B516" s="13"/>
       <c r="C516" s="13"/>
       <c r="D516" s="13"/>
@@ -13346,7 +13392,7 @@
       <c r="V516" s="16"/>
     </row>
     <row r="517" spans="1:22">
-      <c r="A517" s="34"/>
+      <c r="A517" s="32"/>
       <c r="B517" s="13"/>
       <c r="C517" s="13"/>
       <c r="D517" s="13"/>
@@ -13370,7 +13416,7 @@
       <c r="V517" s="16"/>
     </row>
     <row r="518" spans="1:22">
-      <c r="A518" s="34"/>
+      <c r="A518" s="32"/>
       <c r="B518" s="13"/>
       <c r="C518" s="13"/>
       <c r="D518" s="13"/>
@@ -13394,7 +13440,7 @@
       <c r="V518" s="16"/>
     </row>
     <row r="519" spans="1:22">
-      <c r="A519" s="34"/>
+      <c r="A519" s="32"/>
       <c r="B519" s="13"/>
       <c r="C519" s="13"/>
       <c r="D519" s="13"/>
@@ -13418,7 +13464,7 @@
       <c r="V519" s="16"/>
     </row>
     <row r="520" spans="1:22">
-      <c r="A520" s="34"/>
+      <c r="A520" s="32"/>
       <c r="B520" s="13"/>
       <c r="C520" s="13"/>
       <c r="D520" s="13"/>
@@ -13442,7 +13488,7 @@
       <c r="V520" s="16"/>
     </row>
     <row r="521" spans="1:22">
-      <c r="A521" s="34"/>
+      <c r="A521" s="32"/>
       <c r="B521" s="13"/>
       <c r="C521" s="13"/>
       <c r="D521" s="13"/>
@@ -13466,7 +13512,7 @@
       <c r="V521" s="16"/>
     </row>
     <row r="522" spans="1:22">
-      <c r="A522" s="34"/>
+      <c r="A522" s="32"/>
       <c r="B522" s="13"/>
       <c r="C522" s="13"/>
       <c r="D522" s="13"/>
@@ -13490,7 +13536,7 @@
       <c r="V522" s="16"/>
     </row>
     <row r="523" spans="1:22">
-      <c r="A523" s="34"/>
+      <c r="A523" s="32"/>
       <c r="B523" s="13"/>
       <c r="C523" s="13"/>
       <c r="D523" s="13"/>
@@ -13514,7 +13560,7 @@
       <c r="V523" s="16"/>
     </row>
     <row r="524" spans="1:22">
-      <c r="A524" s="34"/>
+      <c r="A524" s="32"/>
       <c r="B524" s="13"/>
       <c r="C524" s="13"/>
       <c r="D524" s="13"/>
@@ -13538,7 +13584,7 @@
       <c r="V524" s="16"/>
     </row>
     <row r="525" spans="1:22">
-      <c r="A525" s="34"/>
+      <c r="A525" s="32"/>
       <c r="B525" s="13"/>
       <c r="C525" s="13"/>
       <c r="D525" s="13"/>
@@ -13562,7 +13608,7 @@
       <c r="V525" s="16"/>
     </row>
     <row r="526" spans="1:22">
-      <c r="A526" s="34"/>
+      <c r="A526" s="32"/>
       <c r="B526" s="13"/>
       <c r="C526" s="13"/>
       <c r="D526" s="13"/>
@@ -13586,7 +13632,7 @@
       <c r="V526" s="16"/>
     </row>
     <row r="527" spans="1:22">
-      <c r="A527" s="34"/>
+      <c r="A527" s="32"/>
       <c r="B527" s="13"/>
       <c r="C527" s="13"/>
       <c r="D527" s="13"/>
@@ -13610,7 +13656,7 @@
       <c r="V527" s="16"/>
     </row>
     <row r="528" spans="1:22">
-      <c r="A528" s="34"/>
+      <c r="A528" s="32"/>
       <c r="B528" s="13"/>
       <c r="C528" s="13"/>
       <c r="D528" s="13"/>
@@ -13634,7 +13680,7 @@
       <c r="V528" s="16"/>
     </row>
     <row r="529" spans="1:22">
-      <c r="A529" s="34"/>
+      <c r="A529" s="32"/>
       <c r="B529" s="13"/>
       <c r="C529" s="13"/>
       <c r="D529" s="13"/>
@@ -13658,7 +13704,7 @@
       <c r="V529" s="16"/>
     </row>
     <row r="530" spans="1:22">
-      <c r="A530" s="34"/>
+      <c r="A530" s="32"/>
       <c r="B530" s="13"/>
       <c r="C530" s="13"/>
       <c r="D530" s="13"/>
@@ -13682,7 +13728,7 @@
       <c r="V530" s="16"/>
     </row>
     <row r="531" spans="1:22">
-      <c r="A531" s="34"/>
+      <c r="A531" s="32"/>
       <c r="B531" s="13"/>
       <c r="C531" s="13"/>
       <c r="D531" s="13"/>
@@ -13706,7 +13752,7 @@
       <c r="V531" s="16"/>
     </row>
     <row r="532" spans="1:22">
-      <c r="A532" s="34"/>
+      <c r="A532" s="32"/>
       <c r="B532" s="13"/>
       <c r="C532" s="13"/>
       <c r="D532" s="13"/>
@@ -13730,7 +13776,7 @@
       <c r="V532" s="16"/>
     </row>
     <row r="533" spans="1:22">
-      <c r="A533" s="34"/>
+      <c r="A533" s="32"/>
       <c r="B533" s="13"/>
       <c r="C533" s="13"/>
       <c r="D533" s="13"/>
@@ -13754,7 +13800,7 @@
       <c r="V533" s="16"/>
     </row>
     <row r="534" spans="1:22">
-      <c r="A534" s="34"/>
+      <c r="A534" s="32"/>
       <c r="B534" s="13"/>
       <c r="C534" s="13"/>
       <c r="D534" s="13"/>
@@ -13778,7 +13824,7 @@
       <c r="V534" s="16"/>
     </row>
     <row r="535" spans="1:22">
-      <c r="A535" s="34"/>
+      <c r="A535" s="32"/>
       <c r="B535" s="13"/>
       <c r="C535" s="13"/>
       <c r="D535" s="13"/>
@@ -13802,7 +13848,7 @@
       <c r="V535" s="16"/>
     </row>
     <row r="536" spans="1:22">
-      <c r="A536" s="34"/>
+      <c r="A536" s="32"/>
       <c r="B536" s="13"/>
       <c r="C536" s="13"/>
       <c r="D536" s="13"/>
@@ -13826,7 +13872,7 @@
       <c r="V536" s="16"/>
     </row>
     <row r="537" spans="1:22">
-      <c r="A537" s="34"/>
+      <c r="A537" s="32"/>
       <c r="B537" s="13"/>
       <c r="C537" s="13"/>
       <c r="D537" s="13"/>
@@ -13850,7 +13896,7 @@
       <c r="V537" s="16"/>
     </row>
     <row r="538" spans="1:22">
-      <c r="A538" s="34"/>
+      <c r="A538" s="32"/>
       <c r="B538" s="13"/>
       <c r="C538" s="13"/>
       <c r="D538" s="13"/>
@@ -13874,7 +13920,7 @@
       <c r="V538" s="16"/>
     </row>
     <row r="539" spans="1:22">
-      <c r="A539" s="34"/>
+      <c r="A539" s="32"/>
       <c r="B539" s="13"/>
       <c r="C539" s="13"/>
       <c r="D539" s="13"/>
@@ -13898,7 +13944,7 @@
       <c r="V539" s="16"/>
     </row>
     <row r="540" spans="1:22">
-      <c r="A540" s="34"/>
+      <c r="A540" s="32"/>
       <c r="B540" s="13"/>
       <c r="C540" s="13"/>
       <c r="D540" s="13"/>
@@ -13922,7 +13968,7 @@
       <c r="V540" s="16"/>
     </row>
     <row r="541" spans="1:22">
-      <c r="A541" s="34"/>
+      <c r="A541" s="32"/>
       <c r="B541" s="13"/>
       <c r="C541" s="13"/>
       <c r="D541" s="13"/>
@@ -13946,7 +13992,7 @@
       <c r="V541" s="16"/>
     </row>
     <row r="542" spans="1:22">
-      <c r="A542" s="34"/>
+      <c r="A542" s="32"/>
       <c r="B542" s="13"/>
       <c r="C542" s="13"/>
       <c r="D542" s="13"/>
@@ -13970,7 +14016,7 @@
       <c r="V542" s="16"/>
     </row>
     <row r="543" spans="1:22">
-      <c r="A543" s="34"/>
+      <c r="A543" s="32"/>
       <c r="B543" s="13"/>
       <c r="C543" s="13"/>
       <c r="D543" s="13"/>
@@ -13994,7 +14040,7 @@
       <c r="V543" s="16"/>
     </row>
     <row r="544" spans="1:22">
-      <c r="A544" s="34"/>
+      <c r="A544" s="32"/>
       <c r="B544" s="13"/>
       <c r="C544" s="13"/>
       <c r="D544" s="13"/>
@@ -14018,7 +14064,7 @@
       <c r="V544" s="16"/>
     </row>
     <row r="545" spans="1:22">
-      <c r="A545" s="34"/>
+      <c r="A545" s="32"/>
       <c r="B545" s="13"/>
       <c r="C545" s="13"/>
       <c r="D545" s="13"/>
@@ -14042,7 +14088,7 @@
       <c r="V545" s="16"/>
     </row>
     <row r="546" spans="1:22">
-      <c r="A546" s="34"/>
+      <c r="A546" s="32"/>
       <c r="B546" s="13"/>
       <c r="C546" s="13"/>
       <c r="D546" s="13"/>
@@ -14066,7 +14112,7 @@
       <c r="V546" s="16"/>
     </row>
     <row r="547" spans="1:22">
-      <c r="A547" s="34"/>
+      <c r="A547" s="32"/>
       <c r="B547" s="13"/>
       <c r="C547" s="13"/>
       <c r="D547" s="13"/>
@@ -14090,7 +14136,7 @@
       <c r="V547" s="16"/>
     </row>
     <row r="548" spans="1:22">
-      <c r="A548" s="34"/>
+      <c r="A548" s="32"/>
       <c r="B548" s="13"/>
       <c r="C548" s="13"/>
       <c r="D548" s="13"/>
@@ -14114,7 +14160,7 @@
       <c r="V548" s="16"/>
     </row>
     <row r="549" spans="1:22">
-      <c r="A549" s="34"/>
+      <c r="A549" s="32"/>
       <c r="B549" s="13"/>
       <c r="C549" s="13"/>
       <c r="D549" s="13"/>
@@ -14138,7 +14184,7 @@
       <c r="V549" s="16"/>
     </row>
     <row r="550" spans="1:22">
-      <c r="A550" s="34"/>
+      <c r="A550" s="32"/>
       <c r="B550" s="13"/>
       <c r="C550" s="13"/>
       <c r="D550" s="13"/>
@@ -14162,7 +14208,7 @@
       <c r="V550" s="16"/>
     </row>
     <row r="551" spans="1:22">
-      <c r="A551" s="34"/>
+      <c r="A551" s="32"/>
       <c r="B551" s="13"/>
       <c r="C551" s="13"/>
       <c r="D551" s="13"/>
@@ -14186,7 +14232,7 @@
       <c r="V551" s="16"/>
     </row>
     <row r="552" spans="1:22">
-      <c r="A552" s="34"/>
+      <c r="A552" s="32"/>
       <c r="B552" s="13"/>
       <c r="C552" s="13"/>
       <c r="D552" s="13"/>
@@ -14210,7 +14256,7 @@
       <c r="V552" s="16"/>
     </row>
     <row r="553" spans="1:22">
-      <c r="A553" s="34"/>
+      <c r="A553" s="32"/>
       <c r="B553" s="13"/>
       <c r="C553" s="13"/>
       <c r="D553" s="13"/>
@@ -14234,7 +14280,7 @@
       <c r="V553" s="16"/>
     </row>
     <row r="554" spans="1:22">
-      <c r="A554" s="34"/>
+      <c r="A554" s="32"/>
       <c r="B554" s="13"/>
       <c r="C554" s="13"/>
       <c r="D554" s="13"/>
@@ -14258,7 +14304,7 @@
       <c r="V554" s="16"/>
     </row>
     <row r="555" spans="1:22">
-      <c r="A555" s="34"/>
+      <c r="A555" s="32"/>
       <c r="B555" s="13"/>
       <c r="C555" s="13"/>
       <c r="D555" s="13"/>
@@ -14282,7 +14328,7 @@
       <c r="V555" s="16"/>
     </row>
     <row r="556" spans="1:22">
-      <c r="A556" s="34"/>
+      <c r="A556" s="32"/>
       <c r="B556" s="13"/>
       <c r="C556" s="13"/>
       <c r="D556" s="13"/>
@@ -14306,7 +14352,7 @@
       <c r="V556" s="16"/>
     </row>
     <row r="557" spans="1:22">
-      <c r="A557" s="34"/>
+      <c r="A557" s="32"/>
       <c r="B557" s="13"/>
       <c r="C557" s="13"/>
       <c r="D557" s="13"/>
@@ -14330,7 +14376,7 @@
       <c r="V557" s="16"/>
     </row>
     <row r="558" spans="1:22">
-      <c r="A558" s="34"/>
+      <c r="A558" s="32"/>
       <c r="B558" s="13"/>
       <c r="C558" s="13"/>
       <c r="D558" s="13"/>
@@ -14354,7 +14400,7 @@
       <c r="V558" s="16"/>
     </row>
     <row r="559" spans="1:22">
-      <c r="A559" s="34"/>
+      <c r="A559" s="32"/>
       <c r="B559" s="13"/>
       <c r="C559" s="13"/>
       <c r="D559" s="13"/>
@@ -14378,7 +14424,7 @@
       <c r="V559" s="16"/>
     </row>
     <row r="560" spans="1:22">
-      <c r="A560" s="34"/>
+      <c r="A560" s="32"/>
       <c r="B560" s="13"/>
       <c r="C560" s="13"/>
       <c r="D560" s="13"/>
@@ -14402,7 +14448,7 @@
       <c r="V560" s="16"/>
     </row>
     <row r="561" spans="1:22">
-      <c r="A561" s="34"/>
+      <c r="A561" s="32"/>
       <c r="B561" s="13"/>
       <c r="C561" s="13"/>
       <c r="D561" s="13"/>
@@ -14426,7 +14472,7 @@
       <c r="V561" s="16"/>
     </row>
     <row r="562" spans="1:22">
-      <c r="A562" s="34"/>
+      <c r="A562" s="32"/>
       <c r="B562" s="13"/>
       <c r="C562" s="13"/>
       <c r="D562" s="13"/>
@@ -14450,7 +14496,7 @@
       <c r="V562" s="16"/>
     </row>
     <row r="563" spans="1:22">
-      <c r="A563" s="34"/>
+      <c r="A563" s="32"/>
       <c r="B563" s="13"/>
       <c r="C563" s="13"/>
       <c r="D563" s="13"/>
@@ -14474,7 +14520,7 @@
       <c r="V563" s="16"/>
     </row>
     <row r="564" spans="1:22">
-      <c r="A564" s="34"/>
+      <c r="A564" s="32"/>
       <c r="B564" s="13"/>
       <c r="C564" s="13"/>
       <c r="D564" s="13"/>
@@ -14498,7 +14544,7 @@
       <c r="V564" s="16"/>
     </row>
     <row r="565" spans="1:22">
-      <c r="A565" s="34"/>
+      <c r="A565" s="32"/>
       <c r="B565" s="13"/>
       <c r="C565" s="13"/>
       <c r="D565" s="13"/>
@@ -14522,7 +14568,7 @@
       <c r="V565" s="16"/>
     </row>
     <row r="566" spans="1:22">
-      <c r="A566" s="34"/>
+      <c r="A566" s="32"/>
       <c r="B566" s="13"/>
       <c r="C566" s="13"/>
       <c r="D566" s="13"/>
@@ -14546,7 +14592,7 @@
       <c r="V566" s="16"/>
     </row>
     <row r="567" spans="1:22">
-      <c r="A567" s="34"/>
+      <c r="A567" s="32"/>
       <c r="B567" s="13"/>
       <c r="C567" s="13"/>
       <c r="D567" s="13"/>
@@ -14570,7 +14616,7 @@
       <c r="V567" s="16"/>
     </row>
     <row r="568" spans="1:22">
-      <c r="A568" s="34"/>
+      <c r="A568" s="32"/>
       <c r="B568" s="13"/>
       <c r="C568" s="13"/>
       <c r="D568" s="13"/>
@@ -14594,7 +14640,7 @@
       <c r="V568" s="16"/>
     </row>
     <row r="569" spans="1:22">
-      <c r="A569" s="34"/>
+      <c r="A569" s="32"/>
       <c r="B569" s="13"/>
       <c r="C569" s="13"/>
       <c r="D569" s="13"/>
@@ -14618,7 +14664,7 @@
       <c r="V569" s="16"/>
     </row>
     <row r="570" spans="1:22">
-      <c r="A570" s="34"/>
+      <c r="A570" s="32"/>
       <c r="B570" s="13"/>
       <c r="C570" s="13"/>
       <c r="D570" s="13"/>
@@ -14642,7 +14688,7 @@
       <c r="V570" s="16"/>
     </row>
     <row r="571" spans="1:22">
-      <c r="A571" s="34"/>
+      <c r="A571" s="32"/>
       <c r="B571" s="13"/>
       <c r="C571" s="13"/>
       <c r="D571" s="13"/>
@@ -14666,7 +14712,7 @@
       <c r="V571" s="16"/>
     </row>
     <row r="572" spans="1:22">
-      <c r="A572" s="34"/>
+      <c r="A572" s="32"/>
       <c r="B572" s="13"/>
       <c r="C572" s="13"/>
       <c r="D572" s="13"/>
@@ -14690,7 +14736,7 @@
       <c r="V572" s="16"/>
     </row>
     <row r="573" spans="1:22">
-      <c r="A573" s="34"/>
+      <c r="A573" s="32"/>
       <c r="B573" s="13"/>
       <c r="C573" s="13"/>
       <c r="D573" s="13"/>
@@ -14714,7 +14760,7 @@
       <c r="V573" s="16"/>
     </row>
     <row r="574" spans="1:22">
-      <c r="A574" s="34"/>
+      <c r="A574" s="32"/>
       <c r="B574" s="13"/>
       <c r="C574" s="13"/>
       <c r="D574" s="13"/>
@@ -14738,7 +14784,7 @@
       <c r="V574" s="16"/>
     </row>
     <row r="575" spans="1:22">
-      <c r="A575" s="34"/>
+      <c r="A575" s="32"/>
       <c r="B575" s="13"/>
       <c r="C575" s="13"/>
       <c r="D575" s="13"/>
@@ -14762,7 +14808,7 @@
       <c r="V575" s="16"/>
     </row>
     <row r="576" spans="1:22">
-      <c r="A576" s="34"/>
+      <c r="A576" s="32"/>
       <c r="B576" s="13"/>
       <c r="C576" s="13"/>
       <c r="D576" s="13"/>
@@ -14786,7 +14832,7 @@
       <c r="V576" s="16"/>
     </row>
     <row r="577" spans="1:22">
-      <c r="A577" s="34"/>
+      <c r="A577" s="32"/>
       <c r="B577" s="13"/>
       <c r="C577" s="13"/>
       <c r="D577" s="13"/>
@@ -14810,7 +14856,7 @@
       <c r="V577" s="16"/>
     </row>
     <row r="578" spans="1:22">
-      <c r="A578" s="34"/>
+      <c r="A578" s="32"/>
       <c r="B578" s="13"/>
       <c r="C578" s="13"/>
       <c r="D578" s="13"/>
@@ -14834,7 +14880,7 @@
       <c r="V578" s="16"/>
     </row>
     <row r="579" spans="1:22">
-      <c r="A579" s="34"/>
+      <c r="A579" s="32"/>
       <c r="B579" s="13"/>
       <c r="C579" s="13"/>
       <c r="D579" s="13"/>
@@ -14858,7 +14904,7 @@
       <c r="V579" s="16"/>
     </row>
     <row r="580" spans="1:22">
-      <c r="A580" s="34"/>
+      <c r="A580" s="32"/>
       <c r="B580" s="13"/>
       <c r="C580" s="13"/>
       <c r="D580" s="13"/>
@@ -14882,7 +14928,7 @@
       <c r="V580" s="16"/>
     </row>
     <row r="581" spans="1:22">
-      <c r="A581" s="34"/>
+      <c r="A581" s="32"/>
       <c r="B581" s="13"/>
       <c r="C581" s="13"/>
       <c r="D581" s="13"/>
@@ -14906,7 +14952,7 @@
       <c r="V581" s="16"/>
     </row>
     <row r="582" spans="1:22">
-      <c r="A582" s="34"/>
+      <c r="A582" s="32"/>
       <c r="B582" s="13"/>
       <c r="C582" s="13"/>
       <c r="D582" s="13"/>
@@ -14930,7 +14976,7 @@
       <c r="V582" s="16"/>
     </row>
     <row r="583" spans="1:22">
-      <c r="A583" s="34"/>
+      <c r="A583" s="32"/>
       <c r="B583" s="13"/>
       <c r="C583" s="13"/>
       <c r="D583" s="13"/>
@@ -14954,7 +15000,7 @@
       <c r="V583" s="16"/>
     </row>
     <row r="584" spans="1:22">
-      <c r="A584" s="34"/>
+      <c r="A584" s="32"/>
       <c r="B584" s="13"/>
       <c r="C584" s="13"/>
       <c r="D584" s="13"/>
@@ -14978,7 +15024,7 @@
       <c r="V584" s="16"/>
     </row>
     <row r="585" spans="1:22">
-      <c r="A585" s="34"/>
+      <c r="A585" s="32"/>
       <c r="B585" s="13"/>
       <c r="C585" s="13"/>
       <c r="D585" s="13"/>
@@ -15002,7 +15048,7 @@
       <c r="V585" s="16"/>
     </row>
     <row r="586" spans="1:22">
-      <c r="A586" s="34"/>
+      <c r="A586" s="32"/>
       <c r="B586" s="13"/>
       <c r="C586" s="13"/>
       <c r="D586" s="13"/>
@@ -15026,7 +15072,7 @@
       <c r="V586" s="16"/>
     </row>
     <row r="587" spans="1:22">
-      <c r="A587" s="34"/>
+      <c r="A587" s="32"/>
       <c r="B587" s="13"/>
       <c r="C587" s="13"/>
       <c r="D587" s="13"/>
@@ -15050,7 +15096,7 @@
       <c r="V587" s="16"/>
     </row>
     <row r="588" spans="1:22">
-      <c r="A588" s="34"/>
+      <c r="A588" s="32"/>
       <c r="B588" s="13"/>
       <c r="C588" s="13"/>
       <c r="D588" s="13"/>
@@ -15074,7 +15120,7 @@
       <c r="V588" s="16"/>
     </row>
     <row r="589" spans="1:22">
-      <c r="A589" s="34"/>
+      <c r="A589" s="32"/>
       <c r="B589" s="13"/>
       <c r="C589" s="13"/>
       <c r="D589" s="13"/>
@@ -15098,7 +15144,7 @@
       <c r="V589" s="16"/>
     </row>
     <row r="590" spans="1:22">
-      <c r="A590" s="34"/>
+      <c r="A590" s="32"/>
       <c r="B590" s="13"/>
       <c r="C590" s="13"/>
       <c r="D590" s="13"/>
@@ -15122,7 +15168,7 @@
       <c r="V590" s="16"/>
     </row>
     <row r="591" spans="1:22">
-      <c r="A591" s="34"/>
+      <c r="A591" s="32"/>
       <c r="B591" s="13"/>
       <c r="C591" s="13"/>
       <c r="D591" s="13"/>
@@ -15146,7 +15192,7 @@
       <c r="V591" s="16"/>
     </row>
     <row r="592" spans="1:22">
-      <c r="A592" s="34"/>
+      <c r="A592" s="32"/>
       <c r="B592" s="13"/>
       <c r="C592" s="13"/>
       <c r="D592" s="13"/>
@@ -15170,7 +15216,7 @@
       <c r="V592" s="16"/>
     </row>
     <row r="593" spans="1:22">
-      <c r="A593" s="34"/>
+      <c r="A593" s="32"/>
       <c r="B593" s="13"/>
       <c r="C593" s="13"/>
       <c r="D593" s="13"/>
@@ -15194,7 +15240,7 @@
       <c r="V593" s="16"/>
     </row>
     <row r="594" spans="1:22">
-      <c r="A594" s="34"/>
+      <c r="A594" s="32"/>
       <c r="B594" s="13"/>
       <c r="C594" s="13"/>
       <c r="D594" s="13"/>
@@ -15218,7 +15264,7 @@
       <c r="V594" s="16"/>
     </row>
     <row r="595" spans="1:22">
-      <c r="A595" s="34"/>
+      <c r="A595" s="32"/>
       <c r="B595" s="13"/>
       <c r="C595" s="13"/>
       <c r="D595" s="13"/>
@@ -15242,7 +15288,7 @@
       <c r="V595" s="16"/>
     </row>
     <row r="596" spans="1:22">
-      <c r="A596" s="34"/>
+      <c r="A596" s="32"/>
       <c r="B596" s="13"/>
       <c r="C596" s="13"/>
       <c r="D596" s="13"/>
@@ -15266,7 +15312,7 @@
       <c r="V596" s="16"/>
     </row>
     <row r="597" spans="1:22">
-      <c r="A597" s="34"/>
+      <c r="A597" s="32"/>
       <c r="B597" s="13"/>
       <c r="C597" s="13"/>
       <c r="D597" s="13"/>
@@ -15290,7 +15336,7 @@
       <c r="V597" s="16"/>
     </row>
     <row r="598" spans="1:22">
-      <c r="A598" s="34"/>
+      <c r="A598" s="32"/>
       <c r="B598" s="13"/>
       <c r="C598" s="13"/>
       <c r="D598" s="13"/>
@@ -15314,7 +15360,7 @@
       <c r="V598" s="16"/>
     </row>
     <row r="599" spans="1:22">
-      <c r="A599" s="34"/>
+      <c r="A599" s="32"/>
       <c r="B599" s="13"/>
       <c r="C599" s="13"/>
       <c r="D599" s="13"/>
@@ -15338,7 +15384,7 @@
       <c r="V599" s="16"/>
     </row>
     <row r="600" spans="1:22">
-      <c r="A600" s="34"/>
+      <c r="A600" s="32"/>
       <c r="B600" s="13"/>
       <c r="C600" s="13"/>
       <c r="D600" s="13"/>
@@ -15362,7 +15408,7 @@
       <c r="V600" s="16"/>
     </row>
     <row r="601" spans="1:22">
-      <c r="A601" s="34"/>
+      <c r="A601" s="32"/>
       <c r="B601" s="13"/>
       <c r="C601" s="13"/>
       <c r="D601" s="13"/>
@@ -15386,7 +15432,7 @@
       <c r="V601" s="16"/>
     </row>
     <row r="602" spans="1:22">
-      <c r="A602" s="34"/>
+      <c r="A602" s="32"/>
       <c r="B602" s="13"/>
       <c r="C602" s="13"/>
       <c r="D602" s="13"/>
@@ -15410,7 +15456,7 @@
       <c r="V602" s="16"/>
     </row>
     <row r="603" spans="1:22">
-      <c r="A603" s="34"/>
+      <c r="A603" s="32"/>
       <c r="B603" s="13"/>
       <c r="C603" s="13"/>
       <c r="D603" s="13"/>
@@ -15434,7 +15480,7 @@
       <c r="V603" s="16"/>
     </row>
     <row r="604" spans="1:22">
-      <c r="A604" s="34"/>
+      <c r="A604" s="32"/>
       <c r="B604" s="13"/>
       <c r="C604" s="13"/>
       <c r="D604" s="13"/>
@@ -15458,7 +15504,7 @@
       <c r="V604" s="16"/>
     </row>
     <row r="605" spans="1:22">
-      <c r="A605" s="34"/>
+      <c r="A605" s="32"/>
       <c r="B605" s="13"/>
       <c r="C605" s="13"/>
       <c r="D605" s="13"/>
@@ -15482,7 +15528,7 @@
       <c r="V605" s="16"/>
     </row>
     <row r="606" spans="1:22">
-      <c r="A606" s="34"/>
+      <c r="A606" s="32"/>
       <c r="B606" s="13"/>
       <c r="C606" s="13"/>
       <c r="D606" s="13"/>
@@ -15506,7 +15552,7 @@
       <c r="V606" s="16"/>
     </row>
     <row r="607" spans="1:22">
-      <c r="A607" s="34"/>
+      <c r="A607" s="32"/>
       <c r="B607" s="13"/>
       <c r="C607" s="13"/>
       <c r="D607" s="13"/>
@@ -15530,7 +15576,7 @@
       <c r="V607" s="16"/>
     </row>
     <row r="608" spans="1:22">
-      <c r="A608" s="34"/>
+      <c r="A608" s="32"/>
       <c r="B608" s="13"/>
       <c r="C608" s="13"/>
       <c r="D608" s="13"/>
@@ -15554,7 +15600,7 @@
       <c r="V608" s="16"/>
     </row>
     <row r="609" spans="1:22">
-      <c r="A609" s="34"/>
+      <c r="A609" s="32"/>
       <c r="B609" s="13"/>
       <c r="C609" s="13"/>
       <c r="D609" s="13"/>
@@ -15578,7 +15624,7 @@
       <c r="V609" s="16"/>
     </row>
     <row r="610" spans="1:22">
-      <c r="A610" s="34"/>
+      <c r="A610" s="32"/>
       <c r="B610" s="13"/>
       <c r="C610" s="13"/>
       <c r="D610" s="13"/>
@@ -15602,7 +15648,7 @@
       <c r="V610" s="16"/>
     </row>
     <row r="611" spans="1:22">
-      <c r="A611" s="34"/>
+      <c r="A611" s="32"/>
       <c r="B611" s="13"/>
       <c r="C611" s="13"/>
       <c r="D611" s="13"/>
@@ -15626,7 +15672,7 @@
       <c r="V611" s="16"/>
     </row>
     <row r="612" spans="1:22">
-      <c r="A612" s="34"/>
+      <c r="A612" s="32"/>
       <c r="B612" s="13"/>
       <c r="C612" s="13"/>
       <c r="D612" s="13"/>
@@ -15650,7 +15696,7 @@
       <c r="V612" s="16"/>
     </row>
     <row r="613" spans="1:22">
-      <c r="A613" s="34"/>
+      <c r="A613" s="32"/>
       <c r="B613" s="13"/>
       <c r="C613" s="13"/>
       <c r="D613" s="13"/>
@@ -15674,7 +15720,7 @@
       <c r="V613" s="16"/>
     </row>
     <row r="614" spans="1:22">
-      <c r="A614" s="34"/>
+      <c r="A614" s="32"/>
       <c r="B614" s="13"/>
       <c r="C614" s="13"/>
       <c r="D614" s="13"/>
@@ -15698,7 +15744,7 @@
       <c r="V614" s="16"/>
     </row>
     <row r="615" spans="1:22">
-      <c r="A615" s="34"/>
+      <c r="A615" s="32"/>
       <c r="B615" s="13"/>
       <c r="C615" s="13"/>
       <c r="D615" s="13"/>
@@ -15722,7 +15768,7 @@
       <c r="V615" s="16"/>
     </row>
     <row r="616" spans="1:22">
-      <c r="A616" s="34"/>
+      <c r="A616" s="32"/>
       <c r="B616" s="13"/>
       <c r="C616" s="13"/>
       <c r="D616" s="13"/>
@@ -15746,7 +15792,7 @@
       <c r="V616" s="16"/>
     </row>
     <row r="617" spans="1:22">
-      <c r="A617" s="34"/>
+      <c r="A617" s="32"/>
       <c r="B617" s="13"/>
       <c r="C617" s="13"/>
       <c r="D617" s="13"/>
@@ -15770,7 +15816,7 @@
       <c r="V617" s="16"/>
     </row>
     <row r="618" spans="1:22">
-      <c r="A618" s="34"/>
+      <c r="A618" s="32"/>
       <c r="B618" s="13"/>
       <c r="C618" s="13"/>
       <c r="D618" s="13"/>
@@ -15794,7 +15840,7 @@
       <c r="V618" s="16"/>
     </row>
     <row r="619" spans="1:22">
-      <c r="A619" s="34"/>
+      <c r="A619" s="32"/>
       <c r="B619" s="13"/>
       <c r="C619" s="13"/>
       <c r="D619" s="13"/>
@@ -15818,7 +15864,7 @@
       <c r="V619" s="16"/>
     </row>
     <row r="620" spans="1:22">
-      <c r="A620" s="34"/>
+      <c r="A620" s="32"/>
       <c r="B620" s="13"/>
       <c r="C620" s="13"/>
       <c r="D620" s="13"/>
@@ -15842,7 +15888,7 @@
       <c r="V620" s="16"/>
     </row>
     <row r="621" spans="1:22">
-      <c r="A621" s="34"/>
+      <c r="A621" s="32"/>
       <c r="B621" s="13"/>
       <c r="C621" s="13"/>
       <c r="D621" s="13"/>
@@ -15866,7 +15912,7 @@
       <c r="V621" s="16"/>
     </row>
     <row r="622" spans="1:22">
-      <c r="A622" s="34"/>
+      <c r="A622" s="32"/>
       <c r="B622" s="13"/>
       <c r="C622" s="13"/>
       <c r="D622" s="13"/>
@@ -15890,7 +15936,7 @@
       <c r="V622" s="16"/>
     </row>
     <row r="623" spans="1:22">
-      <c r="A623" s="34"/>
+      <c r="A623" s="32"/>
       <c r="B623" s="13"/>
       <c r="C623" s="13"/>
       <c r="D623" s="13"/>
@@ -15914,7 +15960,7 @@
       <c r="V623" s="16"/>
     </row>
     <row r="624" spans="1:22">
-      <c r="A624" s="34"/>
+      <c r="A624" s="32"/>
       <c r="B624" s="13"/>
       <c r="C624" s="13"/>
       <c r="D624" s="13"/>
@@ -15938,7 +15984,7 @@
       <c r="V624" s="16"/>
     </row>
     <row r="625" spans="1:22">
-      <c r="A625" s="34"/>
+      <c r="A625" s="32"/>
       <c r="B625" s="13"/>
       <c r="C625" s="13"/>
       <c r="D625" s="13"/>
@@ -15962,7 +16008,7 @@
       <c r="V625" s="16"/>
     </row>
     <row r="626" spans="1:22">
-      <c r="A626" s="34"/>
+      <c r="A626" s="32"/>
       <c r="B626" s="13"/>
       <c r="C626" s="13"/>
       <c r="D626" s="13"/>
@@ -15986,7 +16032,7 @@
       <c r="V626" s="16"/>
     </row>
     <row r="627" spans="1:22">
-      <c r="A627" s="34"/>
+      <c r="A627" s="32"/>
       <c r="B627" s="13"/>
       <c r="C627" s="13"/>
       <c r="D627" s="13"/>
@@ -16010,7 +16056,7 @@
       <c r="V627" s="16"/>
     </row>
     <row r="628" spans="1:22">
-      <c r="A628" s="34"/>
+      <c r="A628" s="32"/>
       <c r="B628" s="13"/>
       <c r="C628" s="13"/>
       <c r="D628" s="13"/>
@@ -16034,7 +16080,7 @@
       <c r="V628" s="16"/>
     </row>
     <row r="629" spans="1:22">
-      <c r="A629" s="34"/>
+      <c r="A629" s="32"/>
       <c r="B629" s="13"/>
       <c r="C629" s="13"/>
       <c r="D629" s="13"/>
@@ -16058,7 +16104,7 @@
       <c r="V629" s="16"/>
     </row>
     <row r="630" spans="1:22">
-      <c r="A630" s="34"/>
+      <c r="A630" s="32"/>
       <c r="B630" s="13"/>
       <c r="C630" s="13"/>
       <c r="D630" s="13"/>
@@ -16082,7 +16128,7 @@
       <c r="V630" s="16"/>
     </row>
     <row r="631" spans="1:22">
-      <c r="A631" s="34"/>
+      <c r="A631" s="32"/>
       <c r="B631" s="13"/>
       <c r="C631" s="13"/>
       <c r="D631" s="13"/>
@@ -16106,7 +16152,7 @@
       <c r="V631" s="16"/>
     </row>
     <row r="632" spans="1:22">
-      <c r="A632" s="34"/>
+      <c r="A632" s="32"/>
       <c r="B632" s="13"/>
       <c r="C632" s="13"/>
       <c r="D632" s="13"/>
@@ -16130,7 +16176,7 @@
       <c r="V632" s="16"/>
     </row>
     <row r="633" spans="1:22">
-      <c r="A633" s="34"/>
+      <c r="A633" s="32"/>
       <c r="B633" s="13"/>
       <c r="C633" s="13"/>
       <c r="D633" s="13"/>
@@ -16154,7 +16200,7 @@
       <c r="V633" s="16"/>
     </row>
     <row r="634" spans="1:22">
-      <c r="A634" s="34"/>
+      <c r="A634" s="32"/>
       <c r="B634" s="13"/>
       <c r="C634" s="13"/>
       <c r="D634" s="13"/>
@@ -16178,7 +16224,7 @@
       <c r="V634" s="16"/>
     </row>
     <row r="635" spans="1:22">
-      <c r="A635" s="34"/>
+      <c r="A635" s="32"/>
       <c r="B635" s="13"/>
       <c r="C635" s="13"/>
       <c r="D635" s="13"/>
@@ -16202,7 +16248,7 @@
       <c r="V635" s="16"/>
     </row>
     <row r="636" spans="1:22">
-      <c r="A636" s="34"/>
+      <c r="A636" s="32"/>
       <c r="B636" s="13"/>
       <c r="C636" s="13"/>
       <c r="D636" s="13"/>
@@ -16226,7 +16272,7 @@
       <c r="V636" s="16"/>
     </row>
     <row r="637" spans="1:22">
-      <c r="A637" s="34"/>
+      <c r="A637" s="32"/>
       <c r="B637" s="13"/>
       <c r="C637" s="13"/>
       <c r="D637" s="13"/>
@@ -16250,7 +16296,7 @@
       <c r="V637" s="16"/>
     </row>
     <row r="638" spans="1:22">
-      <c r="A638" s="34"/>
+      <c r="A638" s="32"/>
       <c r="B638" s="13"/>
       <c r="C638" s="13"/>
       <c r="D638" s="13"/>
@@ -16274,7 +16320,7 @@
       <c r="V638" s="16"/>
     </row>
     <row r="639" spans="1:22">
-      <c r="A639" s="34"/>
+      <c r="A639" s="32"/>
       <c r="B639" s="13"/>
       <c r="C639" s="13"/>
       <c r="D639" s="13"/>
@@ -16298,7 +16344,7 @@
       <c r="V639" s="16"/>
     </row>
     <row r="640" spans="1:22">
-      <c r="A640" s="34"/>
+      <c r="A640" s="32"/>
       <c r="B640" s="13"/>
       <c r="C640" s="13"/>
       <c r="D640" s="13"/>
@@ -16322,7 +16368,7 @@
       <c r="V640" s="16"/>
     </row>
     <row r="641" spans="1:22">
-      <c r="A641" s="34"/>
+      <c r="A641" s="32"/>
       <c r="B641" s="13"/>
       <c r="C641" s="13"/>
       <c r="D641" s="13"/>
@@ -16346,7 +16392,7 @@
       <c r="V641" s="16"/>
     </row>
     <row r="642" spans="1:22">
-      <c r="A642" s="34"/>
+      <c r="A642" s="32"/>
       <c r="B642" s="13"/>
       <c r="C642" s="13"/>
       <c r="D642" s="13"/>
@@ -16370,7 +16416,7 @@
       <c r="V642" s="16"/>
     </row>
     <row r="643" spans="1:22">
-      <c r="A643" s="34"/>
+      <c r="A643" s="32"/>
       <c r="B643" s="13"/>
       <c r="C643" s="13"/>
       <c r="D643" s="13"/>
@@ -16394,7 +16440,7 @@
       <c r="V643" s="16"/>
     </row>
     <row r="644" spans="1:22">
-      <c r="A644" s="34"/>
+      <c r="A644" s="32"/>
       <c r="B644" s="13"/>
       <c r="C644" s="13"/>
       <c r="D644" s="13"/>
@@ -16418,7 +16464,7 @@
       <c r="V644" s="16"/>
     </row>
     <row r="645" spans="1:22">
-      <c r="A645" s="34"/>
+      <c r="A645" s="32"/>
       <c r="B645" s="13"/>
       <c r="C645" s="13"/>
       <c r="D645" s="13"/>
@@ -16442,7 +16488,7 @@
       <c r="V645" s="16"/>
     </row>
     <row r="646" spans="1:22">
-      <c r="A646" s="34"/>
+      <c r="A646" s="32"/>
       <c r="B646" s="13"/>
       <c r="C646" s="13"/>
       <c r="D646" s="13"/>
@@ -16466,7 +16512,7 @@
       <c r="V646" s="16"/>
     </row>
     <row r="647" spans="1:22">
-      <c r="A647" s="34"/>
+      <c r="A647" s="32"/>
       <c r="B647" s="13"/>
       <c r="C647" s="13"/>
       <c r="D647" s="13"/>
@@ -16490,7 +16536,7 @@
       <c r="V647" s="16"/>
     </row>
     <row r="648" spans="1:22">
-      <c r="A648" s="34"/>
+      <c r="A648" s="32"/>
       <c r="B648" s="13"/>
       <c r="C648" s="13"/>
       <c r="D648" s="13"/>
@@ -16514,7 +16560,7 @@
       <c r="V648" s="16"/>
     </row>
     <row r="649" spans="1:22">
-      <c r="A649" s="34"/>
+      <c r="A649" s="32"/>
       <c r="B649" s="13"/>
       <c r="C649" s="13"/>
       <c r="D649" s="13"/>
@@ -16538,7 +16584,7 @@
       <c r="V649" s="16"/>
     </row>
     <row r="650" spans="1:22">
-      <c r="A650" s="34"/>
+      <c r="A650" s="32"/>
       <c r="B650" s="13"/>
       <c r="C650" s="13"/>
       <c r="D650" s="13"/>
@@ -16562,7 +16608,7 @@
       <c r="V650" s="16"/>
     </row>
     <row r="651" spans="1:22">
-      <c r="A651" s="34"/>
+      <c r="A651" s="32"/>
       <c r="B651" s="13"/>
       <c r="C651" s="13"/>
       <c r="D651" s="13"/>
@@ -16586,7 +16632,7 @@
       <c r="V651" s="16"/>
     </row>
     <row r="652" spans="1:22">
-      <c r="A652" s="34"/>
+      <c r="A652" s="32"/>
       <c r="B652" s="13"/>
       <c r="C652" s="13"/>
       <c r="D652" s="13"/>
@@ -16610,7 +16656,7 @@
       <c r="V652" s="16"/>
     </row>
     <row r="653" spans="1:22">
-      <c r="A653" s="34"/>
+      <c r="A653" s="32"/>
       <c r="B653" s="13"/>
       <c r="C653" s="13"/>
       <c r="D653" s="13"/>
@@ -16634,7 +16680,7 @@
       <c r="V653" s="16"/>
     </row>
     <row r="654" spans="1:22">
-      <c r="A654" s="34"/>
+      <c r="A654" s="32"/>
       <c r="B654" s="13"/>
       <c r="C654" s="13"/>
       <c r="D654" s="13"/>
@@ -16658,7 +16704,7 @@
       <c r="V654" s="16"/>
     </row>
     <row r="655" spans="1:22">
-      <c r="A655" s="34"/>
+      <c r="A655" s="32"/>
       <c r="B655" s="13"/>
       <c r="C655" s="13"/>
       <c r="D655" s="13"/>
@@ -16682,7 +16728,7 @@
       <c r="V655" s="16"/>
     </row>
     <row r="656" spans="1:22">
-      <c r="A656" s="34"/>
+      <c r="A656" s="32"/>
       <c r="B656" s="13"/>
       <c r="C656" s="13"/>
       <c r="D656" s="13"/>
@@ -16706,7 +16752,7 @@
       <c r="V656" s="16"/>
     </row>
     <row r="657" spans="1:22">
-      <c r="A657" s="34"/>
+      <c r="A657" s="32"/>
       <c r="B657" s="13"/>
       <c r="C657" s="13"/>
       <c r="D657" s="13"/>
@@ -16730,7 +16776,7 @@
       <c r="V657" s="16"/>
     </row>
     <row r="658" spans="1:22">
-      <c r="A658" s="34"/>
+      <c r="A658" s="32"/>
       <c r="B658" s="13"/>
       <c r="C658" s="13"/>
       <c r="D658" s="13"/>
@@ -16754,7 +16800,7 @@
       <c r="V658" s="16"/>
     </row>
     <row r="659" spans="1:22">
-      <c r="A659" s="34"/>
+      <c r="A659" s="32"/>
       <c r="B659" s="13"/>
       <c r="C659" s="13"/>
       <c r="D659" s="13"/>
@@ -16778,7 +16824,7 @@
       <c r="V659" s="16"/>
     </row>
     <row r="660" spans="1:22">
-      <c r="A660" s="34"/>
+      <c r="A660" s="32"/>
       <c r="B660" s="13"/>
       <c r="C660" s="13"/>
       <c r="D660" s="13"/>
@@ -16802,7 +16848,7 @@
       <c r="V660" s="16"/>
     </row>
     <row r="661" spans="1:22">
-      <c r="A661" s="34"/>
+      <c r="A661" s="32"/>
       <c r="B661" s="13"/>
       <c r="C661" s="13"/>
       <c r="D661" s="13"/>
@@ -16826,7 +16872,7 @@
       <c r="V661" s="16"/>
     </row>
     <row r="662" spans="1:22">
-      <c r="A662" s="34"/>
+      <c r="A662" s="32"/>
       <c r="B662" s="13"/>
       <c r="C662" s="13"/>
       <c r="D662" s="13"/>
@@ -16850,7 +16896,7 @@
       <c r="V662" s="16"/>
     </row>
     <row r="663" spans="1:22">
-      <c r="A663" s="34"/>
+      <c r="A663" s="32"/>
       <c r="B663" s="13"/>
       <c r="C663" s="13"/>
       <c r="D663" s="13"/>
@@ -16874,7 +16920,7 @@
       <c r="V663" s="16"/>
     </row>
     <row r="664" spans="1:22">
-      <c r="A664" s="34"/>
+      <c r="A664" s="32"/>
       <c r="B664" s="13"/>
       <c r="C664" s="13"/>
       <c r="D664" s="13"/>
@@ -16898,7 +16944,7 @@
       <c r="V664" s="16"/>
     </row>
     <row r="665" spans="1:22">
-      <c r="A665" s="34"/>
+      <c r="A665" s="32"/>
       <c r="B665" s="13"/>
       <c r="C665" s="13"/>
       <c r="D665" s="13"/>
@@ -16922,7 +16968,7 @@
       <c r="V665" s="16"/>
     </row>
     <row r="666" spans="1:22">
-      <c r="A666" s="34"/>
+      <c r="A666" s="32"/>
       <c r="B666" s="13"/>
       <c r="C666" s="13"/>
       <c r="D666" s="13"/>
@@ -16946,7 +16992,7 @@
       <c r="V666" s="16"/>
     </row>
     <row r="667" spans="1:22">
-      <c r="A667" s="34"/>
+      <c r="A667" s="32"/>
       <c r="B667" s="13"/>
       <c r="C667" s="13"/>
       <c r="D667" s="13"/>
@@ -16970,7 +17016,7 @@
       <c r="V667" s="16"/>
     </row>
     <row r="668" spans="1:22">
-      <c r="A668" s="34"/>
+      <c r="A668" s="32"/>
       <c r="B668" s="13"/>
       <c r="C668" s="13"/>
       <c r="D668" s="13"/>
@@ -16994,7 +17040,7 @@
       <c r="V668" s="16"/>
     </row>
     <row r="669" spans="1:22">
-      <c r="A669" s="34"/>
+      <c r="A669" s="32"/>
       <c r="B669" s="13"/>
       <c r="C669" s="13"/>
       <c r="D669" s="13"/>
@@ -17018,7 +17064,7 @@
       <c r="V669" s="16"/>
     </row>
     <row r="670" spans="1:22">
-      <c r="A670" s="34"/>
+      <c r="A670" s="32"/>
       <c r="B670" s="13"/>
       <c r="C670" s="13"/>
       <c r="D670" s="13"/>
@@ -17042,7 +17088,7 @@
       <c r="V670" s="16"/>
     </row>
     <row r="671" spans="1:22">
-      <c r="A671" s="34"/>
+      <c r="A671" s="32"/>
       <c r="B671" s="13"/>
       <c r="C671" s="13"/>
       <c r="D671" s="13"/>
@@ -17066,7 +17112,7 @@
       <c r="V671" s="16"/>
     </row>
     <row r="672" spans="1:22">
-      <c r="A672" s="34"/>
+      <c r="A672" s="32"/>
       <c r="B672" s="13"/>
       <c r="C672" s="13"/>
       <c r="D672" s="13"/>
@@ -17090,7 +17136,7 @@
       <c r="V672" s="16"/>
     </row>
     <row r="673" spans="1:22">
-      <c r="A673" s="34"/>
+      <c r="A673" s="32"/>
       <c r="B673" s="13"/>
       <c r="C673" s="13"/>
       <c r="D673" s="13"/>
@@ -17114,7 +17160,7 @@
       <c r="V673" s="16"/>
     </row>
     <row r="674" spans="1:22">
-      <c r="A674" s="34"/>
+      <c r="A674" s="32"/>
       <c r="B674" s="13"/>
       <c r="C674" s="13"/>
       <c r="D674" s="13"/>
@@ -17138,7 +17184,7 @@
       <c r="V674" s="16"/>
     </row>
     <row r="675" spans="1:22">
-      <c r="A675" s="34"/>
+      <c r="A675" s="32"/>
       <c r="B675" s="13"/>
       <c r="C675" s="13"/>
       <c r="D675" s="13"/>
@@ -17162,7 +17208,7 @@
       <c r="V675" s="16"/>
     </row>
     <row r="676" spans="1:22">
-      <c r="A676" s="34"/>
+      <c r="A676" s="32"/>
       <c r="B676" s="13"/>
       <c r="C676" s="13"/>
       <c r="D676" s="13"/>
@@ -17186,7 +17232,7 @@
       <c r="V676" s="16"/>
     </row>
     <row r="677" spans="1:22">
-      <c r="A677" s="34"/>
+      <c r="A677" s="32"/>
       <c r="B677" s="13"/>
       <c r="C677" s="13"/>
       <c r="D677" s="13"/>
@@ -17210,7 +17256,7 @@
       <c r="V677" s="16"/>
     </row>
     <row r="678" spans="1:22">
-      <c r="A678" s="34"/>
+      <c r="A678" s="32"/>
       <c r="B678" s="13"/>
       <c r="C678" s="13"/>
       <c r="D678" s="13"/>
@@ -17234,7 +17280,7 @@
       <c r="V678" s="16"/>
     </row>
     <row r="679" spans="1:22">
-      <c r="A679" s="34"/>
+      <c r="A679" s="32"/>
       <c r="B679" s="13"/>
       <c r="C679" s="13"/>
       <c r="D679" s="13"/>
@@ -17258,7 +17304,7 @@
       <c r="V679" s="16"/>
     </row>
     <row r="680" spans="1:22">
-      <c r="A680" s="34"/>
+      <c r="A680" s="32"/>
       <c r="B680" s="13"/>
       <c r="C680" s="13"/>
       <c r="D680" s="13"/>
@@ -17282,7 +17328,7 @@
       <c r="V680" s="16"/>
     </row>
     <row r="681" spans="1:22">
-      <c r="A681" s="34"/>
+      <c r="A681" s="32"/>
       <c r="B681" s="13"/>
       <c r="C681" s="13"/>
       <c r="D681" s="13"/>
@@ -17306,7 +17352,7 @@
       <c r="V681" s="16"/>
     </row>
     <row r="682" spans="1:22">
-      <c r="A682" s="34"/>
+      <c r="A682" s="32"/>
       <c r="B682" s="13"/>
       <c r="C682" s="13"/>
       <c r="D682" s="13"/>
@@ -17330,7 +17376,7 @@
       <c r="V682" s="16"/>
     </row>
     <row r="683" spans="1:22">
-      <c r="A683" s="34"/>
+      <c r="A683" s="32"/>
       <c r="B683" s="13"/>
       <c r="C683" s="13"/>
       <c r="D683" s="13"/>
@@ -17354,7 +17400,7 @@
       <c r="V683" s="16"/>
     </row>
     <row r="684" spans="1:22">
-      <c r="A684" s="34"/>
+      <c r="A684" s="32"/>
       <c r="B684" s="13"/>
       <c r="C684" s="13"/>
       <c r="D684" s="13"/>
@@ -17378,7 +17424,7 @@
       <c r="V684" s="16"/>
     </row>
     <row r="685" spans="1:22">
-      <c r="A685" s="34"/>
+      <c r="A685" s="32"/>
       <c r="B685" s="13"/>
       <c r="C685" s="13"/>
       <c r="D685" s="13"/>
@@ -17402,7 +17448,7 @@
       <c r="V685" s="16"/>
     </row>
     <row r="686" spans="1:22">
-      <c r="A686" s="34"/>
+      <c r="A686" s="32"/>
       <c r="B686" s="13"/>
       <c r="C686" s="13"/>
       <c r="D686" s="13"/>
@@ -17426,7 +17472,7 @@
       <c r="V686" s="16"/>
     </row>
     <row r="687" spans="1:22">
-      <c r="A687" s="34"/>
+      <c r="A687" s="32"/>
       <c r="B687" s="13"/>
       <c r="C687" s="13"/>
       <c r="D687" s="13"/>
@@ -17450,7 +17496,7 @@
       <c r="V687" s="16"/>
     </row>
     <row r="688" spans="1:22">
-      <c r="A688" s="34"/>
+      <c r="A688" s="32"/>
       <c r="B688" s="13"/>
       <c r="C688" s="13"/>
       <c r="D688" s="13"/>
@@ -17474,7 +17520,7 @@
       <c r="V688" s="16"/>
     </row>
     <row r="689" spans="1:22">
-      <c r="A689" s="34"/>
+      <c r="A689" s="32"/>
       <c r="B689" s="13"/>
       <c r="C689" s="13"/>
       <c r="D689" s="13"/>
@@ -17498,7 +17544,7 @@
       <c r="V689" s="16"/>
     </row>
     <row r="690" spans="1:22">
-      <c r="A690" s="34"/>
+      <c r="A690" s="32"/>
       <c r="B690" s="13"/>
       <c r="C690" s="13"/>
       <c r="D690" s="13"/>
@@ -17522,7 +17568,7 @@
       <c r="V690" s="16"/>
     </row>
     <row r="691" spans="1:22">
-      <c r="A691" s="34"/>
+      <c r="A691" s="32"/>
       <c r="B691" s="13"/>
       <c r="C691" s="13"/>
       <c r="D691" s="13"/>
@@ -17546,7 +17592,7 @@
       <c r="V691" s="16"/>
     </row>
     <row r="692" spans="1:22">
-      <c r="A692" s="34"/>
+      <c r="A692" s="32"/>
       <c r="B692" s="13"/>
       <c r="C692" s="13"/>
       <c r="D692" s="13"/>
@@ -17570,7 +17616,7 @@
       <c r="V692" s="16"/>
     </row>
     <row r="693" spans="1:22">
-      <c r="A693" s="34"/>
+      <c r="A693" s="32"/>
       <c r="B693" s="13"/>
       <c r="C693" s="13"/>
       <c r="D693" s="13"/>
@@ -17594,7 +17640,7 @@
       <c r="V693" s="16"/>
     </row>
     <row r="694" spans="1:22">
-      <c r="A694" s="34"/>
+      <c r="A694" s="32"/>
       <c r="B694" s="13"/>
       <c r="C694" s="13"/>
       <c r="D694" s="13"/>
@@ -17618,7 +17664,7 @@
       <c r="V694" s="16"/>
     </row>
     <row r="695" spans="1:22">
-      <c r="A695" s="34"/>
+      <c r="A695" s="32"/>
       <c r="B695" s="13"/>
       <c r="C695" s="13"/>
       <c r="D695" s="13"/>
@@ -17642,7 +17688,7 @@
       <c r="V695" s="16"/>
     </row>
     <row r="696" spans="1:22">
-      <c r="A696" s="34"/>
+      <c r="A696" s="32"/>
       <c r="B696" s="13"/>
       <c r="C696" s="13"/>
       <c r="D696" s="13"/>
@@ -17666,7 +17712,7 @@
       <c r="V696" s="16"/>
     </row>
     <row r="697" spans="1:22">
-      <c r="A697" s="34"/>
+      <c r="A697" s="32"/>
       <c r="B697" s="13"/>
       <c r="C697" s="13"/>
       <c r="D697" s="13"/>
@@ -17690,7 +17736,7 @@
       <c r="V697" s="16"/>
     </row>
     <row r="698" spans="1:22">
-      <c r="A698" s="34"/>
+      <c r="A698" s="32"/>
       <c r="B698" s="13"/>
       <c r="C698" s="13"/>
       <c r="D698" s="13"/>
@@ -17714,7 +17760,7 @@
       <c r="V698" s="16"/>
     </row>
     <row r="699" spans="1:22">
-      <c r="A699" s="34"/>
+      <c r="A699" s="32"/>
       <c r="B699" s="13"/>
       <c r="C699" s="13"/>
       <c r="D699" s="13"/>
@@ -17738,7 +17784,7 @@
       <c r="V699" s="16"/>
     </row>
     <row r="700" spans="1:22">
-      <c r="A700" s="34"/>
+      <c r="A700" s="32"/>
       <c r="B700" s="13"/>
       <c r="C700" s="13"/>
       <c r="D700" s="13"/>
@@ -17762,7 +17808,7 @@
       <c r="V700" s="16"/>
     </row>
     <row r="701" spans="1:22">
-      <c r="A701" s="34"/>
+      <c r="A701" s="32"/>
       <c r="B701" s="13"/>
       <c r="C701" s="13"/>
       <c r="D701" s="13"/>
@@ -17786,7 +17832,7 @@
       <c r="V701" s="16"/>
     </row>
     <row r="702" spans="1:22">
-      <c r="A702" s="34"/>
+      <c r="A702" s="32"/>
       <c r="B702" s="13"/>
       <c r="C702" s="13"/>
       <c r="D702" s="13"/>
@@ -17810,7 +17856,7 @@
       <c r="V702" s="16"/>
     </row>
     <row r="703" spans="1:22">
-      <c r="A703" s="34"/>
+      <c r="A703" s="32"/>
       <c r="B703" s="13"/>
       <c r="C703" s="13"/>
       <c r="D703" s="13"/>
@@ -17834,7 +17880,7 @@
       <c r="V703" s="16"/>
     </row>
     <row r="704" spans="1:22">
-      <c r="A704" s="34"/>
+      <c r="A704" s="32"/>
       <c r="B704" s="13"/>
       <c r="C704" s="13"/>
       <c r="D704" s="13"/>
@@ -17858,7 +17904,7 @@
       <c r="V704" s="16"/>
     </row>
     <row r="705" spans="1:22">
-      <c r="A705" s="34"/>
+      <c r="A705" s="32"/>
       <c r="B705" s="13"/>
       <c r="C705" s="13"/>
       <c r="D705" s="13"/>
@@ -17882,7 +17928,7 @@
       <c r="V705" s="16"/>
     </row>
     <row r="706" spans="1:22">
-      <c r="A706" s="34"/>
+      <c r="A706" s="32"/>
       <c r="B706" s="13"/>
       <c r="C706" s="13"/>
       <c r="D706" s="13"/>
@@ -17906,7 +17952,7 @@
       <c r="V706" s="16"/>
     </row>
     <row r="707" spans="1:22">
-      <c r="A707" s="34"/>
+      <c r="A707" s="32"/>
       <c r="B707" s="13"/>
       <c r="C707" s="13"/>
       <c r="D707" s="13"/>
@@ -17930,7 +17976,7 @@
       <c r="V707" s="16"/>
     </row>
     <row r="708" spans="1:22">
-      <c r="A708" s="34"/>
+      <c r="A708" s="32"/>
       <c r="B708" s="13"/>
       <c r="C708" s="13"/>
       <c r="D708" s="13"/>
@@ -17954,7 +18000,7 @@
       <c r="V708" s="16"/>
     </row>
     <row r="709" spans="1:22">
-      <c r="A709" s="34"/>
+      <c r="A709" s="32"/>
       <c r="B709" s="13"/>
       <c r="C709" s="13"/>
       <c r="D709" s="13"/>
@@ -17978,7 +18024,7 @@
       <c r="V709" s="16"/>
     </row>
     <row r="710" spans="1:22">
-      <c r="A710" s="34"/>
+      <c r="A710" s="32"/>
       <c r="B710" s="13"/>
       <c r="C710" s="13"/>
       <c r="D710" s="13"/>
@@ -18002,7 +18048,7 @@
       <c r="V710" s="16"/>
     </row>
     <row r="711" spans="1:22">
-      <c r="A711" s="34"/>
+      <c r="A711" s="32"/>
       <c r="B711" s="13"/>
       <c r="C711" s="13"/>
       <c r="D711" s="13"/>
@@ -18026,7 +18072,7 @@
       <c r="V711" s="16"/>
     </row>
     <row r="712" spans="1:22">
-      <c r="A712" s="34"/>
+      <c r="A712" s="32"/>
       <c r="B712" s="13"/>
       <c r="C712" s="13"/>
       <c r="D712" s="13"/>
@@ -18050,7 +18096,7 @@
       <c r="V712" s="16"/>
     </row>
     <row r="713" spans="1:22">
-      <c r="A713" s="34"/>
+      <c r="A713" s="32"/>
       <c r="B713" s="13"/>
       <c r="C713" s="13"/>
       <c r="D713" s="13"/>
@@ -18074,7 +18120,7 @@
       <c r="V713" s="16"/>
     </row>
     <row r="714" spans="1:22">
-      <c r="A714" s="34"/>
+      <c r="A714" s="32"/>
       <c r="B714" s="13"/>
       <c r="C714" s="13"/>
       <c r="D714" s="13"/>
@@ -18098,7 +18144,7 @@
       <c r="V714" s="16"/>
     </row>
     <row r="715" spans="1:22">
-      <c r="A715" s="34"/>
+      <c r="A715" s="32"/>
       <c r="B715" s="13"/>
       <c r="C715" s="13"/>
       <c r="D715" s="13"/>
@@ -18122,7 +18168,7 @@
       <c r="V715" s="16"/>
     </row>
     <row r="716" spans="1:22">
-      <c r="A716" s="34"/>
+      <c r="A716" s="32"/>
       <c r="B716" s="13"/>
       <c r="C716" s="13"/>
       <c r="D716" s="13"/>
@@ -18146,7 +18192,7 @@
       <c r="V716" s="16"/>
     </row>
     <row r="717" spans="1:22">
-      <c r="A717" s="34"/>
+      <c r="A717" s="32"/>
       <c r="B717" s="13"/>
       <c r="C717" s="13"/>
       <c r="D717" s="13"/>
@@ -18170,7 +18216,7 @@
       <c r="V717" s="16"/>
     </row>
     <row r="718" spans="1:22">
-      <c r="A718" s="34"/>
+      <c r="A718" s="32"/>
       <c r="B718" s="13"/>
       <c r="C718" s="13"/>
       <c r="D718" s="13"/>
@@ -18194,7 +18240,7 @@
       <c r="V718" s="16"/>
     </row>
     <row r="719" spans="1:22">
-      <c r="A719" s="34"/>
+      <c r="A719" s="32"/>
       <c r="B719" s="13"/>
       <c r="C719" s="13"/>
       <c r="D719" s="13"/>
@@ -18218,7 +18264,7 @@
       <c r="V719" s="16"/>
     </row>
     <row r="720" spans="1:22">
-      <c r="A720" s="34"/>
+      <c r="A720" s="32"/>
       <c r="B720" s="13"/>
       <c r="C720" s="13"/>
       <c r="D720" s="13"/>
@@ -18242,7 +18288,7 @@
       <c r="V720" s="16"/>
     </row>
     <row r="721" spans="1:22">
-      <c r="A721" s="34"/>
+      <c r="A721" s="32"/>
       <c r="B721" s="13"/>
       <c r="C721" s="13"/>
       <c r="D721" s="13"/>
@@ -18266,7 +18312,7 @@
       <c r="V721" s="16"/>
     </row>
     <row r="722" spans="1:22">
-      <c r="A722" s="34"/>
+      <c r="A722" s="32"/>
       <c r="B722" s="13"/>
       <c r="C722" s="13"/>
       <c r="D722" s="13"/>
@@ -18290,7 +18336,7 @@
       <c r="V722" s="16"/>
     </row>
     <row r="723" spans="1:22">
-      <c r="A723" s="34"/>
+      <c r="A723" s="32"/>
       <c r="B723" s="13"/>
       <c r="C723" s="13"/>
       <c r="D723" s="13"/>
@@ -18314,7 +18360,7 @@
       <c r="V723" s="16"/>
     </row>
     <row r="724" spans="1:22">
-      <c r="A724" s="34"/>
+      <c r="A724" s="32"/>
       <c r="B724" s="13"/>
       <c r="C724" s="13"/>
       <c r="D724" s="13"/>
@@ -18338,7 +18384,7 @@
       <c r="V724" s="16"/>
     </row>
     <row r="725" spans="1:22">
-      <c r="A725" s="34"/>
+      <c r="A725" s="32"/>
       <c r="B725" s="13"/>
       <c r="C725" s="13"/>
       <c r="D725" s="13"/>
@@ -18362,7 +18408,7 @@
       <c r="V725" s="16"/>
     </row>
     <row r="726" spans="1:22">
-      <c r="A726" s="34"/>
+      <c r="A726" s="32"/>
       <c r="B726" s="13"/>
       <c r="C726" s="13"/>
       <c r="D726" s="13"/>
@@ -18386,7 +18432,7 @@
       <c r="V726" s="16"/>
     </row>
     <row r="727" spans="1:22">
-      <c r="A727" s="34"/>
+      <c r="A727" s="32"/>
       <c r="B727" s="13"/>
       <c r="C727" s="13"/>
       <c r="D727" s="13"/>
@@ -18410,7 +18456,7 @@
       <c r="V727" s="16"/>
     </row>
     <row r="728" spans="1:22">
-      <c r="A728" s="34"/>
+      <c r="A728" s="32"/>
       <c r="B728" s="13"/>
       <c r="C728" s="13"/>
       <c r="D728" s="13"/>
@@ -18434,7 +18480,7 @@
       <c r="V728" s="16"/>
     </row>
     <row r="729" spans="1:22">
-      <c r="A729" s="34"/>
+      <c r="A729" s="32"/>
       <c r="B729" s="13"/>
       <c r="C729" s="13"/>
       <c r="D729" s="13"/>
@@ -18458,7 +18504,7 @@
       <c r="V729" s="16"/>
     </row>
     <row r="730" spans="1:22">
-      <c r="A730" s="34"/>
+      <c r="A730" s="32"/>
       <c r="B730" s="13"/>
       <c r="C730" s="13"/>
       <c r="D730" s="13"/>
@@ -18482,7 +18528,7 @@
       <c r="V730" s="16"/>
     </row>
     <row r="731" spans="1:22">
-      <c r="A731" s="34"/>
+      <c r="A731" s="32"/>
       <c r="B731" s="13"/>
       <c r="C731" s="13"/>
       <c r="D731" s="13"/>
@@ -18506,7 +18552,7 @@
       <c r="V731" s="16"/>
     </row>
     <row r="732" spans="1:22">
-      <c r="A732" s="34"/>
+      <c r="A732" s="32"/>
       <c r="B732" s="13"/>
       <c r="C732" s="13"/>
       <c r="D732" s="13"/>
@@ -18530,7 +18576,7 @@
       <c r="V732" s="16"/>
     </row>
     <row r="733" spans="1:22">
-      <c r="A733" s="34"/>
+      <c r="A733" s="32"/>
       <c r="B733" s="13"/>
       <c r="C733" s="13"/>
       <c r="D733" s="13"/>
@@ -18554,7 +18600,7 @@
       <c r="V733" s="16"/>
     </row>
     <row r="734" spans="1:22">
-      <c r="A734" s="34"/>
+      <c r="A734" s="32"/>
       <c r="B734" s="13"/>
       <c r="C734" s="13"/>
       <c r="D734" s="13"/>
@@ -18578,7 +18624,7 @@
       <c r="V734" s="16"/>
     </row>
     <row r="735" spans="1:22">
-      <c r="A735" s="34"/>
+      <c r="A735" s="32"/>
       <c r="B735" s="13"/>
       <c r="C735" s="13"/>
       <c r="D735" s="13"/>
@@ -18602,7 +18648,7 @@
       <c r="V735" s="16"/>
     </row>
     <row r="736" spans="1:22">
-      <c r="A736" s="34"/>
+      <c r="A736" s="32"/>
       <c r="B736" s="13"/>
       <c r="C736" s="13"/>
       <c r="D736" s="13"/>
@@ -18626,7 +18672,7 @@
       <c r="V736" s="16"/>
     </row>
     <row r="737" spans="1:22">
-      <c r="A737" s="34"/>
+      <c r="A737" s="32"/>
       <c r="B737" s="13"/>
       <c r="C737" s="13"/>
       <c r="D737" s="13"/>
@@ -18650,7 +18696,7 @@
       <c r="V737" s="16"/>
     </row>
     <row r="738" spans="1:22">
-      <c r="A738" s="34"/>
+      <c r="A738" s="32"/>
       <c r="B738" s="13"/>
       <c r="C738" s="13"/>
       <c r="D738" s="13"/>
@@ -18674,7 +18720,7 @@
       <c r="V738" s="16"/>
     </row>
     <row r="739" spans="1:22">
-      <c r="A739" s="34"/>
+      <c r="A739" s="32"/>
       <c r="B739" s="13"/>
       <c r="C739" s="13"/>
       <c r="D739" s="13"/>
@@ -18698,7 +18744,7 @@
       <c r="V739" s="16"/>
     </row>
     <row r="740" spans="1:22">
-      <c r="A740" s="34"/>
+      <c r="A740" s="32"/>
       <c r="B740" s="13"/>
       <c r="C740" s="13"/>
       <c r="D740" s="13"/>
@@ -18722,7 +18768,7 @@
       <c r="V740" s="16"/>
     </row>
     <row r="741" spans="1:22">
-      <c r="A741" s="34"/>
+      <c r="A741" s="32"/>
       <c r="B741" s="13"/>
       <c r="C741" s="13"/>
       <c r="D741" s="13"/>
@@ -18746,7 +18792,7 @@
       <c r="V741" s="16"/>
     </row>
     <row r="742" spans="1:22">
-      <c r="A742" s="34"/>
+      <c r="A742" s="32"/>
       <c r="B742" s="13"/>
       <c r="C742" s="13"/>
       <c r="D742" s="13"/>
@@ -18770,7 +18816,7 @@
       <c r="V742" s="16"/>
     </row>
     <row r="743" spans="1:22">
-      <c r="A743" s="34"/>
+      <c r="A743" s="32"/>
       <c r="B743" s="13"/>
       <c r="C743" s="13"/>
       <c r="D743" s="13"/>
@@ -18794,7 +18840,7 @@
       <c r="V743" s="16"/>
     </row>
     <row r="744" spans="1:22">
-      <c r="A744" s="34"/>
+      <c r="A744" s="32"/>
       <c r="B744" s="13"/>
       <c r="C744" s="13"/>
       <c r="D744" s="13"/>
@@ -18818,7 +18864,7 @@
       <c r="V744" s="16"/>
     </row>
     <row r="745" spans="1:22">
-      <c r="A745" s="34"/>
+      <c r="A745" s="32"/>
       <c r="B745" s="13"/>
       <c r="C745" s="13"/>
       <c r="D745" s="13"/>
@@ -18842,7 +18888,7 @@
       <c r="V745" s="16"/>
     </row>
     <row r="746" spans="1:22">
-      <c r="A746" s="34"/>
+      <c r="A746" s="32"/>
       <c r="B746" s="13"/>
       <c r="C746" s="13"/>
       <c r="D746" s="13"/>
@@ -18866,7 +18912,7 @@
       <c r="V746" s="16"/>
     </row>
     <row r="747" spans="1:22">
-      <c r="A747" s="34"/>
+      <c r="A747" s="32"/>
       <c r="B747" s="13"/>
       <c r="C747" s="13"/>
       <c r="D747" s="13"/>
@@ -18890,7 +18936,7 @@
       <c r="V747" s="16"/>
     </row>
     <row r="748" spans="1:22">
-      <c r="A748" s="34"/>
+      <c r="A748" s="32"/>
       <c r="B748" s="13"/>
       <c r="C748" s="13"/>
       <c r="D748" s="13"/>
@@ -18914,7 +18960,7 @@
       <c r="V748" s="16"/>
     </row>
     <row r="749" spans="1:22">
-      <c r="A749" s="34"/>
+      <c r="A749" s="32"/>
       <c r="B749" s="13"/>
       <c r="C749" s="13"/>
       <c r="D749" s="13"/>
@@ -18938,7 +18984,7 @@
       <c r="V749" s="16"/>
     </row>
     <row r="750" spans="1:22">
-      <c r="A750" s="34"/>
+      <c r="A750" s="32"/>
       <c r="B750" s="13"/>
       <c r="C750" s="13"/>
       <c r="D750" s="13"/>
@@ -18962,7 +19008,7 @@
       <c r="V750" s="16"/>
     </row>
     <row r="751" spans="1:22">
-      <c r="A751" s="34"/>
+      <c r="A751" s="32"/>
       <c r="B751" s="13"/>
       <c r="C751" s="13"/>
       <c r="D751" s="13"/>
@@ -18986,7 +19032,7 @@
       <c r="V751" s="16"/>
     </row>
     <row r="752" spans="1:22">
-      <c r="A752" s="34"/>
+      <c r="A752" s="32"/>
       <c r="B752" s="13"/>
       <c r="C752" s="13"/>
       <c r="D752" s="13"/>
@@ -19010,7 +19056,7 @@
       <c r="V752" s="16"/>
     </row>
     <row r="753" spans="1:22">
-      <c r="A753" s="34"/>
+      <c r="A753" s="32"/>
       <c r="B753" s="13"/>
       <c r="C753" s="13"/>
       <c r="D753" s="13"/>
@@ -19034,7 +19080,7 @@
       <c r="V753" s="16"/>
     </row>
     <row r="754" spans="1:22">
-      <c r="A754" s="34"/>
+      <c r="A754" s="32"/>
       <c r="B754" s="13"/>
       <c r="C754" s="13"/>
       <c r="D754" s="13"/>
@@ -19058,7 +19104,7 @@
       <c r="V754" s="16"/>
     </row>
     <row r="755" spans="1:22">
-      <c r="A755" s="34"/>
+      <c r="A755" s="32"/>
       <c r="B755" s="13"/>
       <c r="C755" s="13"/>
       <c r="D755" s="13"/>
@@ -19082,7 +19128,7 @@
       <c r="V755" s="16"/>
     </row>
     <row r="756" spans="1:22">
-      <c r="A756" s="34"/>
+      <c r="A756" s="32"/>
       <c r="B756" s="13"/>
       <c r="C756" s="13"/>
       <c r="D756" s="13"/>
@@ -19106,7 +19152,7 @@
       <c r="V756" s="16"/>
     </row>
     <row r="757" spans="1:22">
-      <c r="A757" s="34"/>
+      <c r="A757" s="32"/>
       <c r="B757" s="13"/>
       <c r="C757" s="13"/>
       <c r="D757" s="13"/>
@@ -19130,7 +19176,7 @@
       <c r="V757" s="16"/>
     </row>
     <row r="758" spans="1:22">
-      <c r="A758" s="34"/>
+      <c r="A758" s="32"/>
       <c r="B758" s="13"/>
       <c r="C758" s="13"/>
       <c r="D758" s="13"/>
@@ -19154,7 +19200,7 @@
       <c r="V758" s="16"/>
     </row>
     <row r="759" spans="1:22">
-      <c r="A759" s="34"/>
+      <c r="A759" s="32"/>
       <c r="B759" s="13"/>
       <c r="C759" s="13"/>
       <c r="D759" s="13"/>
@@ -19178,7 +19224,7 @@
       <c r="V759" s="16"/>
     </row>
     <row r="760" spans="1:22">
-      <c r="A760" s="34"/>
+      <c r="A760" s="32"/>
       <c r="B760" s="13"/>
       <c r="C760" s="13"/>
       <c r="D760" s="13"/>
@@ -19202,7 +19248,7 @@
       <c r="V760" s="16"/>
     </row>
     <row r="761" spans="1:22">
-      <c r="A761" s="34"/>
+      <c r="A761" s="32"/>
       <c r="B761" s="13"/>
       <c r="C761" s="13"/>
       <c r="D761" s="13"/>
@@ -19226,7 +19272,7 @@
       <c r="V761" s="16"/>
     </row>
     <row r="762" spans="1:22">
-      <c r="A762" s="34"/>
+      <c r="A762" s="32"/>
       <c r="B762" s="13"/>
       <c r="C762" s="13"/>
       <c r="D762" s="13"/>
@@ -19250,7 +19296,7 @@
       <c r="V762" s="16"/>
     </row>
     <row r="763" spans="1:22">
-      <c r="A763" s="34"/>
+      <c r="A763" s="32"/>
       <c r="B763" s="13"/>
       <c r="C763" s="13"/>
       <c r="D763" s="13"/>
@@ -19274,7 +19320,7 @@
       <c r="V763" s="16"/>
     </row>
     <row r="764" spans="1:22">
-      <c r="A764" s="34"/>
+      <c r="A764" s="32"/>
       <c r="B764" s="13"/>
       <c r="C764" s="13"/>
       <c r="D764" s="13"/>
@@ -19298,7 +19344,7 @@
       <c r="V764" s="16"/>
     </row>
     <row r="765" spans="1:22">
-      <c r="A765" s="34"/>
+      <c r="A765" s="32"/>
       <c r="B765" s="13"/>
       <c r="C765" s="13"/>
       <c r="D765" s="13"/>
@@ -19322,7 +19368,7 @@
       <c r="V765" s="16"/>
     </row>
     <row r="766" spans="1:22">
-      <c r="A766" s="34"/>
+      <c r="A766" s="32"/>
       <c r="B766" s="13"/>
       <c r="C766" s="13"/>
       <c r="D766" s="13"/>
@@ -19346,7 +19392,7 @@
       <c r="V766" s="16"/>
     </row>
     <row r="767" spans="1:22">
-      <c r="A767" s="34"/>
+      <c r="A767" s="32"/>
       <c r="B767" s="13"/>
       <c r="C767" s="13"/>
       <c r="D767" s="13"/>
@@ -19370,7 +19416,7 @@
       <c r="V767" s="16"/>
     </row>
     <row r="768" spans="1:22">
-      <c r="A768" s="34"/>
+      <c r="A768" s="32"/>
       <c r="B768" s="13"/>
       <c r="C768" s="13"/>
       <c r="D768" s="13"/>
@@ -19394,7 +19440,7 @@
       <c r="V768" s="16"/>
     </row>
     <row r="769" spans="1:22">
-      <c r="A769" s="34"/>
+      <c r="A769" s="32"/>
       <c r="B769" s="13"/>
       <c r="C769" s="13"/>
       <c r="D769" s="13"/>
@@ -19418,7 +19464,7 @@
       <c r="V769" s="16"/>
     </row>
     <row r="770" spans="1:22">
-      <c r="A770" s="34"/>
+      <c r="A770" s="32"/>
       <c r="B770" s="13"/>
       <c r="C770" s="13"/>
       <c r="D770" s="13"/>
@@ -19442,7 +19488,7 @@
       <c r="V770" s="16"/>
     </row>
     <row r="771" spans="1:22">
-      <c r="A771" s="34"/>
+      <c r="A771" s="32"/>
       <c r="B771" s="13"/>
       <c r="C771" s="13"/>
       <c r="D771" s="13"/>
@@ -19466,7 +19512,7 @@
       <c r="V771" s="16"/>
     </row>
     <row r="772" spans="1:22">
-      <c r="A772" s="34"/>
+      <c r="A772" s="32"/>
       <c r="B772" s="13"/>
       <c r="C772" s="13"/>
       <c r="D772" s="13"/>
@@ -19490,7 +19536,7 @@
       <c r="V772" s="16"/>
     </row>
     <row r="773" spans="1:22">
-      <c r="A773" s="34"/>
+      <c r="A773" s="32"/>
       <c r="B773" s="13"/>
       <c r="C773" s="13"/>
       <c r="D773" s="13"/>
@@ -19514,7 +19560,7 @@
       <c r="V773" s="16"/>
     </row>
     <row r="774" spans="1:22">
-      <c r="A774" s="34"/>
+      <c r="A774" s="32"/>
       <c r="B774" s="13"/>
       <c r="C774" s="13"/>
       <c r="D774" s="13"/>
@@ -19538,7 +19584,7 @@
       <c r="V774" s="16"/>
     </row>
     <row r="775" spans="1:22">
-      <c r="A775" s="34"/>
+      <c r="A775" s="32"/>
       <c r="B775" s="13"/>
       <c r="C775" s="13"/>
       <c r="D775" s="13"/>
@@ -19562,7 +19608,7 @@
       <c r="V775" s="16"/>
     </row>
     <row r="776" spans="1:22">
-      <c r="A776" s="34"/>
+      <c r="A776" s="32"/>
       <c r="B776" s="13"/>
       <c r="C776" s="13"/>
       <c r="D776" s="13"/>
@@ -19586,7 +19632,7 @@
       <c r="V776" s="16"/>
     </row>
     <row r="777" spans="1:22">
-      <c r="A777" s="34"/>
+      <c r="A777" s="32"/>
       <c r="B777" s="13"/>
       <c r="C777" s="13"/>
       <c r="D777" s="13"/>
@@ -19610,7 +19656,7 @@
       <c r="V777" s="16"/>
     </row>
     <row r="778" spans="1:22">
-      <c r="A778" s="34"/>
+      <c r="A778" s="32"/>
       <c r="B778" s="13"/>
       <c r="C778" s="13"/>
       <c r="D778" s="13"/>
@@ -19634,7 +19680,7 @@
       <c r="V778" s="16"/>
     </row>
     <row r="779" spans="1:22">
-      <c r="A779" s="34"/>
+      <c r="A779" s="32"/>
       <c r="B779" s="13"/>
       <c r="C779" s="13"/>
       <c r="D779" s="13"/>
@@ -19658,7 +19704,7 @@
       <c r="V779" s="16"/>
     </row>
     <row r="780" spans="1:22">
-      <c r="A780" s="34"/>
+      <c r="A780" s="32"/>
       <c r="B780" s="13"/>
       <c r="C780" s="13"/>
       <c r="D780" s="13"/>
@@ -19682,7 +19728,7 @@
       <c r="V780" s="16"/>
     </row>
     <row r="781" spans="1:22">
-      <c r="A781" s="34"/>
+      <c r="A781" s="32"/>
       <c r="B781" s="13"/>
       <c r="C781" s="13"/>
       <c r="D781" s="13"/>
@@ -19706,7 +19752,7 @@
       <c r="V781" s="16"/>
     </row>
     <row r="782" spans="1:22">
-      <c r="A782" s="34"/>
+      <c r="A782" s="32"/>
       <c r="B782" s="13"/>
       <c r="C782" s="13"/>
       <c r="D782" s="13"/>
@@ -19730,7 +19776,7 @@
       <c r="V782" s="16"/>
     </row>
     <row r="783" spans="1:22">
-      <c r="A783" s="34"/>
+      <c r="A783" s="32"/>
       <c r="B783" s="13"/>
       <c r="C783" s="13"/>
       <c r="D783" s="13"/>
@@ -19754,7 +19800,7 @@
       <c r="V783" s="16"/>
     </row>
     <row r="784" spans="1:22">
-      <c r="A784" s="34"/>
+      <c r="A784" s="32"/>
       <c r="B784" s="13"/>
       <c r="C784" s="13"/>
       <c r="D784" s="13"/>
@@ -19778,7 +19824,7 @@
       <c r="V784" s="16"/>
     </row>
     <row r="785" spans="1:22">
-      <c r="A785" s="34"/>
+      <c r="A785" s="32"/>
       <c r="B785" s="13"/>
       <c r="C785" s="13"/>
       <c r="D785" s="13"/>
@@ -19802,7 +19848,7 @@
       <c r="V785" s="16"/>
     </row>
     <row r="786" spans="1:22">
-      <c r="A786" s="34"/>
+      <c r="A786" s="32"/>
       <c r="B786" s="13"/>
       <c r="C786" s="13"/>
       <c r="D786" s="13"/>
@@ -19826,7 +19872,7 @@
       <c r="V786" s="16"/>
     </row>
     <row r="787" spans="1:22">
-      <c r="A787" s="34"/>
+      <c r="A787" s="32"/>
       <c r="B787" s="13"/>
       <c r="C787" s="13"/>
       <c r="D787" s="13"/>
@@ -19850,7 +19896,7 @@
       <c r="V787" s="16"/>
     </row>
     <row r="788" spans="1:22">
-      <c r="A788" s="34"/>
+      <c r="A788" s="32"/>
       <c r="B788" s="13"/>
       <c r="C788" s="13"/>
       <c r="D788" s="13"/>
@@ -19874,7 +19920,7 @@
       <c r="V788" s="16"/>
     </row>
     <row r="789" spans="1:22">
-      <c r="A789" s="34"/>
+      <c r="A789" s="32"/>
       <c r="B789" s="13"/>
       <c r="C789" s="13"/>
       <c r="D789" s="13"/>
@@ -19898,7 +19944,7 @@
       <c r="V789" s="16"/>
     </row>
     <row r="790" spans="1:22">
-      <c r="A790" s="34"/>
+      <c r="A790" s="32"/>
       <c r="B790" s="13"/>
       <c r="C790" s="13"/>
       <c r="D790" s="13"/>
@@ -19922,7 +19968,7 @@
       <c r="V790" s="16"/>
     </row>
     <row r="791" spans="1:22">
-      <c r="A791" s="34"/>
+      <c r="A791" s="32"/>
       <c r="B791" s="13"/>
       <c r="C791" s="13"/>
       <c r="D791" s="13"/>
@@ -19946,7 +19992,7 @@
       <c r="V791" s="16"/>
     </row>
     <row r="792" spans="1:22">
-      <c r="A792" s="34"/>
+      <c r="A792" s="32"/>
       <c r="B792" s="13"/>
       <c r="C792" s="13"/>
       <c r="D792" s="13"/>
@@ -19970,7 +20016,7 @@
       <c r="V792" s="16"/>
     </row>
     <row r="793" spans="1:22">
-      <c r="A793" s="34"/>
+      <c r="A793" s="32"/>
       <c r="B793" s="13"/>
       <c r="C793" s="13"/>
       <c r="D793" s="13"/>
@@ -19994,7 +20040,7 @@
       <c r="V793" s="16"/>
     </row>
     <row r="794" spans="1:22">
-      <c r="A794" s="34"/>
+      <c r="A794" s="32"/>
       <c r="B794" s="13"/>
       <c r="C794" s="13"/>
       <c r="D794" s="13"/>
@@ -20018,7 +20064,7 @@
       <c r="V794" s="16"/>
     </row>
     <row r="795" spans="1:22">
-      <c r="A795" s="34"/>
+      <c r="A795" s="32"/>
       <c r="B795" s="13"/>
       <c r="C795" s="13"/>
       <c r="D795" s="13"/>
@@ -20042,7 +20088,7 @@
       <c r="V795" s="16"/>
     </row>
     <row r="796" spans="1:22">
-      <c r="A796" s="34"/>
+      <c r="A796" s="32"/>
       <c r="B796" s="13"/>
       <c r="C796" s="13"/>
       <c r="D796" s="13"/>
@@ -20066,7 +20112,7 @@
       <c r="V796" s="16"/>
     </row>
     <row r="797" spans="1:22">
-      <c r="A797" s="34"/>
+      <c r="A797" s="32"/>
       <c r="B797" s="13"/>
       <c r="C797" s="13"/>
       <c r="D797" s="13"/>
@@ -20090,7 +20136,7 @@
       <c r="V797" s="16"/>
     </row>
     <row r="798" spans="1:22">
-      <c r="A798" s="34"/>
+      <c r="A798" s="32"/>
       <c r="B798" s="13"/>
       <c r="C798" s="13"/>
       <c r="D798" s="13"/>
@@ -20114,7 +20160,7 @@
       <c r="V798" s="16"/>
     </row>
     <row r="799" spans="1:22">
-      <c r="A799" s="34"/>
+      <c r="A799" s="32"/>
       <c r="B799" s="13"/>
       <c r="C799" s="13"/>
       <c r="D799" s="13"/>
@@ -20138,7 +20184,7 @@
       <c r="V799" s="16"/>
     </row>
     <row r="800" spans="1:22">
-      <c r="A800" s="34"/>
+      <c r="A800" s="32"/>
       <c r="B800" s="13"/>
       <c r="C800" s="13"/>
       <c r="D800" s="13"/>
@@ -20162,7 +20208,7 @@
       <c r="V800" s="16"/>
     </row>
     <row r="801" spans="1:22">
-      <c r="A801" s="34"/>
+      <c r="A801" s="32"/>
       <c r="B801" s="13"/>
       <c r="C801" s="13"/>
       <c r="D801" s="13"/>
@@ -20186,7 +20232,7 @@
       <c r="V801" s="16"/>
     </row>
     <row r="802" spans="1:22">
-      <c r="A802" s="34"/>
+      <c r="A802" s="32"/>
       <c r="B802" s="13"/>
       <c r="C802" s="13"/>
       <c r="D802" s="13"/>
@@ -20210,7 +20256,7 @@
       <c r="V802" s="16"/>
     </row>
     <row r="803" spans="1:22">
-      <c r="A803" s="34"/>
+      <c r="A803" s="32"/>
       <c r="B803" s="13"/>
       <c r="C803" s="13"/>
       <c r="D803" s="13"/>
@@ -20234,7 +20280,7 @@
       <c r="V803" s="16"/>
     </row>
     <row r="804" spans="1:22">
-      <c r="A804" s="34"/>
+      <c r="A804" s="32"/>
       <c r="B804" s="13"/>
       <c r="C804" s="13"/>
       <c r="D804" s="13"/>
@@ -20258,7 +20304,7 @@
       <c r="V804" s="16"/>
     </row>
     <row r="805" spans="1:22">
-      <c r="A805" s="34"/>
+      <c r="A805" s="32"/>
       <c r="B805" s="13"/>
       <c r="C805" s="13"/>
       <c r="D805" s="13"/>
@@ -20282,7 +20328,7 @@
       <c r="V805" s="16"/>
     </row>
     <row r="806" spans="1:22">
-      <c r="A806" s="34"/>
+      <c r="A806" s="32"/>
       <c r="B806" s="13"/>
       <c r="C806" s="13"/>
       <c r="D806" s="13"/>
@@ -20306,7 +20352,7 @@
       <c r="V806" s="16"/>
     </row>
     <row r="807" spans="1:22">
-      <c r="A807" s="34"/>
+      <c r="A807" s="32"/>
       <c r="B807" s="13"/>
       <c r="C807" s="13"/>
       <c r="D807" s="13"/>
@@ -20330,7 +20376,7 @@
       <c r="V807" s="16"/>
     </row>
     <row r="808" spans="1:22">
-      <c r="A808" s="34"/>
+      <c r="A808" s="32"/>
       <c r="B808" s="13"/>
       <c r="C808" s="13"/>
       <c r="D808" s="13"/>
@@ -20354,7 +20400,7 @@
       <c r="V808" s="16"/>
     </row>
     <row r="809" spans="1:22">
-      <c r="A809" s="34"/>
+      <c r="A809" s="32"/>
       <c r="B809" s="13"/>
       <c r="C809" s="13"/>
       <c r="D809" s="13"/>
@@ -20378,7 +20424,7 @@
       <c r="V809" s="16"/>
     </row>
     <row r="810" spans="1:22">
-      <c r="A810" s="34"/>
+      <c r="A810" s="32"/>
       <c r="B810" s="13"/>
       <c r="C810" s="13"/>
       <c r="D810" s="13"/>
@@ -20402,7 +20448,7 @@
       <c r="V810" s="16"/>
     </row>
     <row r="811" spans="1:22">
-      <c r="A811" s="34"/>
+      <c r="A811" s="32"/>
       <c r="B811" s="13"/>
       <c r="C811" s="13"/>
       <c r="D811" s="13"/>
@@ -20426,7 +20472,7 @@
       <c r="V811" s="16"/>
     </row>
     <row r="812" spans="1:22">
-      <c r="A812" s="34"/>
+      <c r="A812" s="32"/>
       <c r="B812" s="13"/>
       <c r="C812" s="13"/>
       <c r="D812" s="13"/>
@@ -20450,7 +20496,7 @@
       <c r="V812" s="16"/>
     </row>
     <row r="813" spans="1:22">
-      <c r="A813" s="34"/>
+      <c r="A813" s="32"/>
       <c r="B813" s="13"/>
       <c r="C813" s="13"/>
       <c r="D813" s="13"/>
@@ -20474,7 +20520,7 @@
       <c r="V813" s="16"/>
     </row>
     <row r="814" spans="1:22">
-      <c r="A814" s="34"/>
+      <c r="A814" s="32"/>
       <c r="B814" s="13"/>
       <c r="C814" s="13"/>
       <c r="D814" s="13"/>
@@ -20498,7 +20544,7 @@
       <c r="V814" s="16"/>
     </row>
     <row r="815" spans="1:22">
-      <c r="A815" s="34"/>
+      <c r="A815" s="32"/>
       <c r="B815" s="13"/>
       <c r="C815" s="13"/>
       <c r="D815" s="13"/>
@@ -20522,7 +20568,7 @@
       <c r="V815" s="16"/>
     </row>
     <row r="816" spans="1:22">
-      <c r="A816" s="34"/>
+      <c r="A816" s="32"/>
       <c r="B816" s="13"/>
       <c r="C816" s="13"/>
       <c r="D816" s="13"/>
@@ -20546,7 +20592,7 @@
       <c r="V816" s="16"/>
     </row>
     <row r="817" spans="1:22">
-      <c r="A817" s="34"/>
+      <c r="A817" s="32"/>
       <c r="B817" s="13"/>
       <c r="C817" s="13"/>
       <c r="D817" s="13"/>
@@ -20570,7 +20616,7 @@
       <c r="V817" s="16"/>
     </row>
     <row r="818" spans="1:22">
-      <c r="A818" s="34"/>
+      <c r="A818" s="32"/>
       <c r="B818" s="13"/>
       <c r="C818" s="13"/>
       <c r="D818" s="13"/>
@@ -20594,7 +20640,7 @@
       <c r="V818" s="16"/>
     </row>
     <row r="819" spans="1:22">
-      <c r="A819" s="34"/>
+      <c r="A819" s="32"/>
       <c r="B819" s="13"/>
       <c r="C819" s="13"/>
       <c r="D819" s="13"/>
@@ -20618,7 +20664,7 @@
       <c r="V819" s="16"/>
     </row>
     <row r="820" spans="1:22">
-      <c r="A820" s="34"/>
+      <c r="A820" s="32"/>
       <c r="B820" s="13"/>
       <c r="C820" s="13"/>
       <c r="D820" s="13"/>
@@ -20642,7 +20688,7 @@
       <c r="V820" s="16"/>
     </row>
     <row r="821" spans="1:22">
-      <c r="A821" s="34"/>
+      <c r="A821" s="32"/>
       <c r="B821" s="13"/>
       <c r="C821" s="13"/>
       <c r="D821" s="13"/>
@@ -20666,7 +20712,7 @@
       <c r="V821" s="16"/>
     </row>
     <row r="822" spans="1:22">
-      <c r="A822" s="34"/>
+      <c r="A822" s="32"/>
       <c r="B822" s="13"/>
       <c r="C822" s="13"/>
       <c r="D822" s="13"/>
@@ -20690,7 +20736,7 @@
       <c r="V822" s="16"/>
     </row>
     <row r="823" spans="1:22">
-      <c r="A823" s="34"/>
+      <c r="A823" s="32"/>
       <c r="B823" s="13"/>
       <c r="C823" s="13"/>
       <c r="D823" s="13"/>
@@ -20714,7 +20760,7 @@
       <c r="V823" s="16"/>
     </row>
     <row r="824" spans="1:22">
-      <c r="A824" s="34"/>
+      <c r="A824" s="32"/>
       <c r="B824" s="13"/>
       <c r="C824" s="13"/>
       <c r="D824" s="13"/>
@@ -20738,7 +20784,7 @@
       <c r="V824" s="16"/>
     </row>
     <row r="825" spans="1:22">
-      <c r="A825" s="34"/>
+      <c r="A825" s="32"/>
       <c r="B825" s="13"/>
       <c r="C825" s="13"/>
       <c r="D825" s="13"/>
@@ -20762,7 +20808,7 @@
       <c r="V825" s="16"/>
     </row>
     <row r="826" spans="1:22">
-      <c r="A826" s="34"/>
+      <c r="A826" s="32"/>
       <c r="B826" s="13"/>
       <c r="C826" s="13"/>
       <c r="D826" s="13"/>
@@ -20786,7 +20832,7 @@
       <c r="V826" s="16"/>
     </row>
     <row r="827" spans="1:22">
-      <c r="A827" s="34"/>
+      <c r="A827" s="32"/>
       <c r="B827" s="13"/>
       <c r="C827" s="13"/>
       <c r="D827" s="13"/>
@@ -20810,7 +20856,7 @@
       <c r="V827" s="16"/>
     </row>
     <row r="828" spans="1:22">
-      <c r="A828" s="34"/>
+      <c r="A828" s="32"/>
       <c r="B828" s="13"/>
       <c r="C828" s="13"/>
       <c r="D828" s="13"/>
@@ -20834,7 +20880,7 @@
       <c r="V828" s="16"/>
     </row>
     <row r="829" spans="1:22">
-      <c r="A829" s="34"/>
+      <c r="A829" s="32"/>
       <c r="B829" s="13"/>
       <c r="C829" s="13"/>
       <c r="D829" s="13"/>
@@ -20858,7 +20904,7 @@
       <c r="V829" s="16"/>
     </row>
     <row r="830" spans="1:22">
-      <c r="A830" s="34"/>
+      <c r="A830" s="32"/>
       <c r="B830" s="13"/>
       <c r="C830" s="13"/>
       <c r="D830" s="13"/>
@@ -20882,7 +20928,7 @@
       <c r="V830" s="16"/>
     </row>
     <row r="831" spans="1:22">
-      <c r="A831" s="34"/>
+      <c r="A831" s="32"/>
       <c r="B831" s="13"/>
       <c r="C831" s="13"/>
       <c r="D831" s="13"/>
@@ -20906,7 +20952,7 @@
       <c r="V831" s="16"/>
     </row>
     <row r="832" spans="1:22">
-      <c r="A832" s="34"/>
+      <c r="A832" s="32"/>
       <c r="B832" s="13"/>
       <c r="C832" s="13"/>
       <c r="D832" s="13"/>
@@ -20930,7 +20976,7 @@
       <c r="V832" s="16"/>
     </row>
     <row r="833" spans="1:22">
-      <c r="A833" s="34"/>
+      <c r="A833" s="32"/>
       <c r="B833" s="13"/>
       <c r="C833" s="13"/>
       <c r="D833" s="13"/>
@@ -20954,7 +21000,7 @@
       <c r="V833" s="16"/>
     </row>
     <row r="834" spans="1:22">
-      <c r="A834" s="34"/>
+      <c r="A834" s="32"/>
       <c r="B834" s="13"/>
       <c r="C834" s="13"/>
       <c r="D834" s="13"/>
@@ -20978,7 +21024,7 @@
       <c r="V834" s="16"/>
     </row>
     <row r="835" spans="1:22">
-      <c r="A835" s="34"/>
+      <c r="A835" s="32"/>
       <c r="B835" s="13"/>
       <c r="C835" s="13"/>
       <c r="D835" s="13"/>
@@ -21002,7 +21048,7 @@
       <c r="V835" s="16"/>
     </row>
     <row r="836" spans="1:22">
-      <c r="A836" s="34"/>
+      <c r="A836" s="32"/>
       <c r="B836" s="13"/>
       <c r="C836" s="13"/>
       <c r="D836" s="13"/>
@@ -21026,7 +21072,7 @@
       <c r="V836" s="16"/>
     </row>
     <row r="837" spans="1:22">
-      <c r="A837" s="34"/>
+      <c r="A837" s="32"/>
       <c r="B837" s="13"/>
       <c r="C837" s="13"/>
       <c r="D837" s="13"/>
@@ -21050,7 +21096,7 @@
       <c r="V837" s="16"/>
     </row>
     <row r="838" spans="1:22">
-      <c r="A838" s="34"/>
+      <c r="A838" s="32"/>
       <c r="B838" s="13"/>
       <c r="C838" s="13"/>
       <c r="D838" s="13"/>
@@ -21074,7 +21120,7 @@
       <c r="V838" s="16"/>
     </row>
     <row r="839" spans="1:22">
-      <c r="A839" s="34"/>
+      <c r="A839" s="32"/>
       <c r="B839" s="13"/>
       <c r="C839" s="13"/>
       <c r="D839" s="13"/>
@@ -21098,7 +21144,7 @@
       <c r="V839" s="16"/>
     </row>
     <row r="840" spans="1:22">
-      <c r="A840" s="34"/>
+      <c r="A840" s="32"/>
       <c r="B840" s="13"/>
       <c r="C840" s="13"/>
       <c r="D840" s="13"/>
@@ -21122,7 +21168,7 @@
       <c r="V840" s="16"/>
     </row>
     <row r="841" spans="1:22">
-      <c r="A841" s="34"/>
+      <c r="A841" s="32"/>
       <c r="B841" s="13"/>
       <c r="C841" s="13"/>
       <c r="D841" s="13"/>
@@ -21146,7 +21192,7 @@
       <c r="V841" s="16"/>
     </row>
     <row r="842" spans="1:22">
-      <c r="A842" s="34"/>
+      <c r="A842" s="32"/>
       <c r="B842" s="13"/>
       <c r="C842" s="13"/>
       <c r="D842" s="13"/>
@@ -21170,7 +21216,7 @@
       <c r="V842" s="16"/>
     </row>
     <row r="843" spans="1:22">
-      <c r="A843" s="34"/>
+      <c r="A843" s="32"/>
       <c r="B843" s="13"/>
       <c r="C843" s="13"/>
       <c r="D843" s="13"/>
@@ -21194,7 +21240,7 @@
       <c r="V843" s="16"/>
     </row>
     <row r="844" spans="1:22">
-      <c r="A844" s="34"/>
+      <c r="A844" s="32"/>
       <c r="B844" s="13"/>
       <c r="C844" s="13"/>
       <c r="D844" s="13"/>
@@ -21218,7 +21264,7 @@
       <c r="V844" s="16"/>
     </row>
     <row r="845" spans="1:22">
-      <c r="A845" s="34"/>
+      <c r="A845" s="32"/>
       <c r="B845" s="13"/>
       <c r="C845" s="13"/>
       <c r="D845" s="13"/>
@@ -21242,7 +21288,7 @@
       <c r="V845" s="16"/>
     </row>
     <row r="846" spans="1:22">
-      <c r="A846" s="34"/>
+      <c r="A846" s="32"/>
       <c r="B846" s="13"/>
       <c r="C846" s="13"/>
       <c r="D846" s="13"/>
@@ -21266,7 +21312,7 @@
       <c r="V846" s="16"/>
     </row>
     <row r="847" spans="1:22">
-      <c r="A847" s="34"/>
+      <c r="A847" s="32"/>
       <c r="B847" s="13"/>
       <c r="C847" s="13"/>
       <c r="D847" s="13"/>
@@ -21290,7 +21336,7 @@
       <c r="V847" s="16"/>
     </row>
     <row r="848" spans="1:22">
-      <c r="A848" s="34"/>
+      <c r="A848" s="32"/>
       <c r="B848" s="13"/>
       <c r="C848" s="13"/>
       <c r="D848" s="13"/>
@@ -21314,7 +21360,7 @@
       <c r="V848" s="16"/>
     </row>
     <row r="849" spans="1:22">
-      <c r="A849" s="34"/>
+      <c r="A849" s="32"/>
       <c r="B849" s="13"/>
       <c r="C849" s="13"/>
       <c r="D849" s="13"/>
@@ -21338,7 +21384,7 @@
       <c r="V849" s="16"/>
     </row>
     <row r="850" spans="1:22">
-      <c r="A850" s="34"/>
+      <c r="A850" s="32"/>
       <c r="B850" s="13"/>
       <c r="C850" s="13"/>
       <c r="D850" s="13"/>
@@ -21362,7 +21408,7 @@
       <c r="V850" s="16"/>
     </row>
     <row r="851" spans="1:22">
-      <c r="A851" s="34"/>
+      <c r="A851" s="32"/>
       <c r="B851" s="13"/>
       <c r="C851" s="13"/>
       <c r="D851" s="13"/>
@@ -21386,7 +21432,7 @@
       <c r="V851" s="16"/>
     </row>
     <row r="852" spans="1:22">
-      <c r="A852" s="34"/>
+      <c r="A852" s="32"/>
       <c r="B852" s="13"/>
       <c r="C852" s="13"/>
       <c r="D852" s="13"/>
@@ -21410,7 +21456,7 @@
       <c r="V852" s="16"/>
     </row>
     <row r="853" spans="1:22">
-      <c r="A853" s="34"/>
+      <c r="A853" s="32"/>
       <c r="B853" s="13"/>
       <c r="C853" s="13"/>
       <c r="D853" s="13"/>
@@ -21434,7 +21480,7 @@
       <c r="V853" s="16"/>
     </row>
     <row r="854" spans="1:22">
-      <c r="A854" s="34"/>
+      <c r="A854" s="32"/>
       <c r="B854" s="13"/>
       <c r="C854" s="13"/>
       <c r="D854" s="13"/>
@@ -21458,7 +21504,7 @@
       <c r="V854" s="16"/>
     </row>
     <row r="855" spans="1:22">
-      <c r="A855" s="34"/>
+      <c r="A855" s="32"/>
       <c r="B855" s="13"/>
       <c r="C855" s="13"/>
       <c r="D855" s="13"/>
@@ -21482,7 +21528,7 @@
       <c r="V855" s="16"/>
     </row>
     <row r="856" spans="1:22">
-      <c r="A856" s="34"/>
+      <c r="A856" s="32"/>
       <c r="B856" s="13"/>
       <c r="C856" s="13"/>
       <c r="D856" s="13"/>
@@ -21506,7 +21552,7 @@
       <c r="V856" s="16"/>
     </row>
     <row r="857" spans="1:22">
-      <c r="A857" s="34"/>
+      <c r="A857" s="32"/>
       <c r="B857" s="13"/>
       <c r="C857" s="13"/>
       <c r="D857" s="13"/>
@@ -21530,7 +21576,7 @@
       <c r="V857" s="16"/>
     </row>
     <row r="858" spans="1:22">
-      <c r="A858" s="34"/>
+      <c r="A858" s="32"/>
       <c r="B858" s="13"/>
       <c r="C858" s="13"/>
       <c r="D858" s="13"/>
@@ -21554,7 +21600,7 @@
       <c r="V858" s="16"/>
     </row>
     <row r="859" spans="1:22">
-      <c r="A859" s="34"/>
+      <c r="A859" s="32"/>
       <c r="B859" s="13"/>
       <c r="C859" s="13"/>
       <c r="D859" s="13"/>
@@ -21578,7 +21624,7 @@
       <c r="V859" s="16"/>
     </row>
     <row r="860" spans="1:22">
-      <c r="A860" s="34"/>
+      <c r="A860" s="32"/>
       <c r="B860" s="13"/>
       <c r="C860" s="13"/>
       <c r="D860" s="13"/>
@@ -21602,7 +21648,7 @@
       <c r="V860" s="16"/>
     </row>
     <row r="861" spans="1:22">
-      <c r="A861" s="34"/>
+      <c r="A861" s="32"/>
       <c r="B861" s="13"/>
       <c r="C861" s="13"/>
       <c r="D861" s="13"/>
@@ -21626,7 +21672,7 @@
       <c r="V861" s="16"/>
     </row>
     <row r="862" spans="1:22">
-      <c r="A862" s="34"/>
+      <c r="A862" s="32"/>
       <c r="B862" s="13"/>
       <c r="C862" s="13"/>
       <c r="D862" s="13"/>
@@ -21650,7 +21696,7 @@
       <c r="V862" s="16"/>
     </row>
     <row r="863" spans="1:22">
-      <c r="A863" s="34"/>
+      <c r="A863" s="32"/>
       <c r="B863" s="13"/>
       <c r="C863" s="13"/>
       <c r="D863" s="13"/>
@@ -21674,7 +21720,7 @@
       <c r="V863" s="16"/>
     </row>
     <row r="864" spans="1:22">
-      <c r="A864" s="34"/>
+      <c r="A864" s="32"/>
       <c r="B864" s="13"/>
       <c r="C864" s="13"/>
       <c r="D864" s="13"/>
@@ -21698,7 +21744,7 @@
       <c r="V864" s="16"/>
     </row>
     <row r="865" spans="1:22">
-      <c r="A865" s="34"/>
+      <c r="A865" s="32"/>
       <c r="B865" s="13"/>
       <c r="C865" s="13"/>
       <c r="D865" s="13"/>
@@ -21722,7 +21768,7 @@
       <c r="V865" s="16"/>
     </row>
     <row r="866" spans="1:22">
-      <c r="A866" s="34"/>
+      <c r="A866" s="32"/>
       <c r="B866" s="13"/>
       <c r="C866" s="13"/>
       <c r="D866" s="13"/>
@@ -21746,7 +21792,7 @@
       <c r="V866" s="16"/>
     </row>
     <row r="867" spans="1:22">
-      <c r="A867" s="34"/>
+      <c r="A867" s="32"/>
       <c r="B867" s="13"/>
       <c r="C867" s="13"/>
       <c r="D867" s="13"/>
@@ -21770,7 +21816,7 @@
       <c r="V867" s="16"/>
     </row>
     <row r="868" spans="1:22">
-      <c r="A868" s="34"/>
+      <c r="A868" s="32"/>
       <c r="B868" s="13"/>
       <c r="C868" s="13"/>
       <c r="D868" s="13"/>
@@ -21794,7 +21840,7 @@
       <c r="V868" s="16"/>
     </row>
     <row r="869" spans="1:22">
-      <c r="A869" s="34"/>
+      <c r="A869" s="32"/>
       <c r="B869" s="13"/>
       <c r="C869" s="13"/>
       <c r="D869" s="13"/>
@@ -21818,7 +21864,7 @@
       <c r="V869" s="16"/>
     </row>
     <row r="870" spans="1:22">
-      <c r="A870" s="34"/>
+      <c r="A870" s="32"/>
       <c r="B870" s="13"/>
       <c r="C870" s="13"/>
       <c r="D870" s="13"/>
@@ -21842,7 +21888,7 @@
       <c r="V870" s="16"/>
     </row>
     <row r="871" spans="1:22">
-      <c r="A871" s="34"/>
+      <c r="A871" s="32"/>
       <c r="B871" s="13"/>
       <c r="C871" s="13"/>
       <c r="D871" s="13"/>
@@ -21866,7 +21912,7 @@
       <c r="V871" s="16"/>
     </row>
     <row r="872" spans="1:22">
-      <c r="A872" s="34"/>
+      <c r="A872" s="32"/>
       <c r="B872" s="13"/>
       <c r="C872" s="13"/>
       <c r="D872" s="13"/>
@@ -21890,7 +21936,7 @@
       <c r="V872" s="16"/>
     </row>
     <row r="873" spans="1:22">
-      <c r="A873" s="34"/>
+      <c r="A873" s="32"/>
       <c r="B873" s="13"/>
       <c r="C873" s="13"/>
       <c r="D873" s="13"/>
@@ -21914,7 +21960,7 @@
       <c r="V873" s="16"/>
     </row>
     <row r="874" spans="1:22">
-      <c r="A874" s="34"/>
+      <c r="A874" s="32"/>
       <c r="B874" s="13"/>
       <c r="C874" s="13"/>
       <c r="D874" s="13"/>
@@ -21938,7 +21984,7 @@
       <c r="V874" s="16"/>
     </row>
     <row r="875" spans="1:22">
-      <c r="A875" s="34"/>
+      <c r="A875" s="32"/>
       <c r="B875" s="13"/>
       <c r="C875" s="13"/>
       <c r="D875" s="13"/>
@@ -21962,7 +22008,7 @@
       <c r="V875" s="16"/>
     </row>
     <row r="876" spans="1:22">
-      <c r="A876" s="34"/>
+      <c r="A876" s="32"/>
       <c r="B876" s="13"/>
       <c r="C876" s="13"/>
       <c r="D876" s="13"/>
@@ -21986,7 +22032,7 @@
       <c r="V876" s="16"/>
     </row>
     <row r="877" spans="1:22">
-      <c r="A877" s="34"/>
+      <c r="A877" s="32"/>
       <c r="B877" s="13"/>
       <c r="C877" s="13"/>
       <c r="D877" s="13"/>
@@ -22010,7 +22056,7 @@
       <c r="V877" s="16"/>
     </row>
     <row r="878" spans="1:22">
-      <c r="A878" s="34"/>
+      <c r="A878" s="32"/>
       <c r="B878" s="13"/>
       <c r="C878" s="13"/>
       <c r="D878" s="13"/>
@@ -22034,7 +22080,7 @@
       <c r="V878" s="16"/>
     </row>
     <row r="879" spans="1:22">
-      <c r="A879" s="34"/>
+      <c r="A879" s="32"/>
       <c r="B879" s="13"/>
       <c r="C879" s="13"/>
       <c r="D879" s="13"/>
@@ -22058,7 +22104,7 @@
       <c r="V879" s="16"/>
     </row>
     <row r="880" spans="1:22">
-      <c r="A880" s="34"/>
+      <c r="A880" s="32"/>
       <c r="B880" s="13"/>
       <c r="C880" s="13"/>
       <c r="D880" s="13"/>
@@ -22082,7 +22128,7 @@
       <c r="V880" s="16"/>
     </row>
     <row r="881" spans="1:22">
-      <c r="A881" s="34"/>
+      <c r="A881" s="32"/>
       <c r="B881" s="13"/>
       <c r="C881" s="13"/>
       <c r="D881" s="13"/>
@@ -22106,7 +22152,7 @@
       <c r="V881" s="16"/>
     </row>
     <row r="882" spans="1:22">
-      <c r="A882" s="34"/>
+      <c r="A882" s="32"/>
       <c r="B882" s="13"/>
       <c r="C882" s="13"/>
       <c r="D882" s="13"/>
@@ -22130,7 +22176,7 @@
       <c r="V882" s="16"/>
     </row>
     <row r="883" spans="1:22">
-      <c r="A883" s="34"/>
+      <c r="A883" s="32"/>
       <c r="B883" s="13"/>
       <c r="C883" s="13"/>
       <c r="D883" s="13"/>
@@ -22154,7 +22200,7 @@
       <c r="V883" s="16"/>
     </row>
     <row r="884" spans="1:22">
-      <c r="A884" s="34"/>
+      <c r="A884" s="32"/>
       <c r="B884" s="13"/>
       <c r="C884" s="13"/>
       <c r="D884" s="13"/>
@@ -22178,7 +22224,7 @@
       <c r="V884" s="16"/>
     </row>
     <row r="885" spans="1:22">
-      <c r="A885" s="34"/>
+      <c r="A885" s="32"/>
       <c r="B885" s="13"/>
       <c r="C885" s="13"/>
       <c r="D885" s="13"/>
@@ -22202,7 +22248,7 @@
       <c r="V885" s="16"/>
     </row>
     <row r="886" spans="1:22">
-      <c r="A886" s="34"/>
+      <c r="A886" s="32"/>
       <c r="B886" s="13"/>
       <c r="C886" s="13"/>
       <c r="D886" s="13"/>
@@ -22226,7 +22272,7 @@
       <c r="V886" s="16"/>
     </row>
     <row r="887" spans="1:22">
-      <c r="A887" s="34"/>
+      <c r="A887" s="32"/>
       <c r="B887" s="13"/>
       <c r="C887" s="13"/>
       <c r="D887" s="13"/>
@@ -22250,7 +22296,7 @@
       <c r="V887" s="16"/>
     </row>
     <row r="888" spans="1:22">
-      <c r="A888" s="34"/>
+      <c r="A888" s="32"/>
       <c r="B888" s="13"/>
       <c r="C888" s="13"/>
       <c r="D888" s="13"/>
@@ -22274,7 +22320,7 @@
       <c r="V888" s="16"/>
     </row>
     <row r="889" spans="1:22">
-      <c r="A889" s="34"/>
+      <c r="A889" s="32"/>
       <c r="B889" s="13"/>
       <c r="C889" s="13"/>
       <c r="D889" s="13"/>
@@ -22298,7 +22344,7 @@
       <c r="V889" s="16"/>
     </row>
     <row r="890" spans="1:22">
-      <c r="A890" s="34"/>
+      <c r="A890" s="32"/>
       <c r="B890" s="13"/>
       <c r="C890" s="13"/>
       <c r="D890" s="13"/>
@@ -22322,7 +22368,7 @@
       <c r="V890" s="16"/>
     </row>
     <row r="891" spans="1:22">
-      <c r="A891" s="34"/>
+      <c r="A891" s="32"/>
       <c r="B891" s="13"/>
       <c r="C891" s="13"/>
       <c r="D891" s="13"/>
@@ -22346,7 +22392,7 @@
       <c r="V891" s="16"/>
     </row>
     <row r="892" spans="1:22">
-      <c r="A892" s="34"/>
+      <c r="A892" s="32"/>
       <c r="B892" s="13"/>
       <c r="C892" s="13"/>
       <c r="D892" s="13"/>
@@ -22370,7 +22416,7 @@
       <c r="V892" s="16"/>
     </row>
     <row r="893" spans="1:22">
-      <c r="A893" s="34"/>
+      <c r="A893" s="32"/>
       <c r="B893" s="13"/>
       <c r="C893" s="13"/>
       <c r="D893" s="13"/>
@@ -22394,7 +22440,7 @@
       <c r="V893" s="16"/>
     </row>
     <row r="894" spans="1:22">
-      <c r="A894" s="34"/>
+      <c r="A894" s="32"/>
       <c r="B894" s="13"/>
       <c r="C894" s="13"/>
       <c r="D894" s="13"/>
@@ -22418,7 +22464,7 @@
       <c r="V894" s="16"/>
     </row>
     <row r="895" spans="1:22">
-      <c r="A895" s="34"/>
+      <c r="A895" s="32"/>
       <c r="B895" s="13"/>
       <c r="C895" s="13"/>
       <c r="D895" s="13"/>
@@ -22442,7 +22488,7 @@
       <c r="V895" s="16"/>
     </row>
     <row r="896" spans="1:22">
-      <c r="A896" s="34"/>
+      <c r="A896" s="32"/>
       <c r="B896" s="13"/>
       <c r="C896" s="13"/>
       <c r="D896" s="13"/>
@@ -22466,7 +22512,7 @@
       <c r="V896" s="16"/>
     </row>
     <row r="897" spans="1:22">
-      <c r="A897" s="34"/>
+      <c r="A897" s="32"/>
       <c r="B897" s="13"/>
       <c r="C897" s="13"/>
       <c r="D897" s="13"/>
@@ -22490,7 +22536,7 @@
       <c r="V897" s="16"/>
     </row>
     <row r="898" spans="1:22">
-      <c r="A898" s="34"/>
+      <c r="A898" s="32"/>
       <c r="B898" s="13"/>
       <c r="C898" s="13"/>
       <c r="D898" s="13"/>
@@ -22514,7 +22560,7 @@
       <c r="V898" s="16"/>
     </row>
     <row r="899" spans="1:22">
-      <c r="A899" s="34"/>
+      <c r="A899" s="32"/>
       <c r="B899" s="13"/>
       <c r="C899" s="13"/>
       <c r="D899" s="13"/>
@@ -22538,7 +22584,7 @@
       <c r="V899" s="16"/>
     </row>
     <row r="900" spans="1:22">
-      <c r="A900" s="34"/>
+      <c r="A900" s="32"/>
       <c r="B900" s="13"/>
       <c r="C900" s="13"/>
       <c r="D900" s="13"/>
@@ -22562,7 +22608,7 @@
       <c r="V900" s="16"/>
     </row>
     <row r="901" spans="1:22">
-      <c r="A901" s="34"/>
+      <c r="A901" s="32"/>
       <c r="B901" s="13"/>
       <c r="C901" s="13"/>
       <c r="D901" s="13"/>
@@ -22586,7 +22632,7 @@
       <c r="V901" s="16"/>
     </row>
     <row r="902" spans="1:22">
-      <c r="A902" s="34"/>
+      <c r="A902" s="32"/>
       <c r="B902" s="13"/>
       <c r="C902" s="13"/>
       <c r="D902" s="13"/>
@@ -22610,7 +22656,7 @@
       <c r="V902" s="16"/>
     </row>
     <row r="903" spans="1:22">
-      <c r="A903" s="34"/>
+      <c r="A903" s="32"/>
       <c r="B903" s="13"/>
       <c r="C903" s="13"/>
       <c r="D903" s="13"/>
@@ -22634,7 +22680,7 @@
       <c r="V903" s="16"/>
     </row>
     <row r="904" spans="1:22">
-      <c r="A904" s="34"/>
+      <c r="A904" s="32"/>
       <c r="B904" s="13"/>
       <c r="C904" s="13"/>
       <c r="D904" s="13"/>
@@ -22658,7 +22704,7 @@
       <c r="V904" s="16"/>
     </row>
     <row r="905" spans="1:22">
-      <c r="A905" s="34"/>
+      <c r="A905" s="32"/>
       <c r="B905" s="13"/>
       <c r="C905" s="13"/>
       <c r="D905" s="13"/>
@@ -22682,7 +22728,7 @@
       <c r="V905" s="16"/>
     </row>
     <row r="906" spans="1:22">
-      <c r="A906" s="34"/>
+      <c r="A906" s="32"/>
       <c r="B906" s="13"/>
       <c r="C906" s="13"/>
       <c r="D906" s="13"/>
@@ -22706,7 +22752,7 @@
       <c r="V906" s="16"/>
     </row>
     <row r="907" spans="1:22">
-      <c r="A907" s="34"/>
+      <c r="A907" s="32"/>
       <c r="B907" s="13"/>
       <c r="C907" s="13"/>
       <c r="D907" s="13"/>
@@ -22730,7 +22776,7 @@
       <c r="V907" s="16"/>
     </row>
     <row r="908" spans="1:22">
-      <c r="A908" s="34"/>
+      <c r="A908" s="32"/>
       <c r="B908" s="13"/>
       <c r="C908" s="13"/>
       <c r="D908" s="13"/>
@@ -22754,7 +22800,7 @@
       <c r="V908" s="16"/>
     </row>
     <row r="909" spans="1:22">
-      <c r="A909" s="34"/>
+      <c r="A909" s="32"/>
       <c r="B909" s="13"/>
       <c r="C909" s="13"/>
       <c r="D909" s="13"/>
@@ -22778,7 +22824,7 @@
       <c r="V909" s="16"/>
     </row>
     <row r="910" spans="1:22">
-      <c r="A910" s="34"/>
+      <c r="A910" s="32"/>
       <c r="B910" s="13"/>
       <c r="C910" s="13"/>
       <c r="D910" s="13"/>
@@ -22802,7 +22848,7 @@
       <c r="V910" s="16"/>
     </row>
     <row r="911" spans="1:22">
-      <c r="A911" s="34"/>
+      <c r="A911" s="32"/>
       <c r="B911" s="13"/>
       <c r="C911" s="13"/>
       <c r="D911" s="13"/>
@@ -22826,7 +22872,7 @@
       <c r="V911" s="16"/>
     </row>
     <row r="912" spans="1:22">
-      <c r="A912" s="34"/>
+      <c r="A912" s="32"/>
       <c r="B912" s="13"/>
       <c r="C912" s="13"/>
       <c r="D912" s="13"/>
@@ -22850,7 +22896,7 @@
       <c r="V912" s="16"/>
     </row>
     <row r="913" spans="1:22">
-      <c r="A913" s="34"/>
+      <c r="A913" s="32"/>
       <c r="B913" s="13"/>
       <c r="C913" s="13"/>
       <c r="D913" s="13"/>
@@ -22874,7 +22920,7 @@
       <c r="V913" s="16"/>
     </row>
     <row r="914" spans="1:22">
-      <c r="A914" s="34"/>
+      <c r="A914" s="32"/>
       <c r="B914" s="13"/>
       <c r="C914" s="13"/>
       <c r="D914" s="13"/>
@@ -22898,7 +22944,7 @@
       <c r="V914" s="16"/>
     </row>
     <row r="915" spans="1:22">
-      <c r="A915" s="34"/>
+      <c r="A915" s="32"/>
       <c r="B915" s="13"/>
       <c r="C915" s="13"/>
       <c r="D915" s="13"/>
@@ -22922,7 +22968,7 @@
       <c r="V915" s="16"/>
     </row>
     <row r="916" spans="1:22">
-      <c r="A916" s="34"/>
+      <c r="A916" s="32"/>
       <c r="B916" s="13"/>
       <c r="C916" s="13"/>
       <c r="D916" s="13"/>
@@ -22946,7 +22992,7 @@
       <c r="V916" s="16"/>
     </row>
     <row r="917" spans="1:22">
-      <c r="A917" s="34"/>
+      <c r="A917" s="32"/>
       <c r="B917" s="13"/>
       <c r="C917" s="13"/>
       <c r="D917" s="13"/>
@@ -22970,7 +23016,7 @@
       <c r="V917" s="16"/>
     </row>
     <row r="918" spans="1:22">
-      <c r="A918" s="34"/>
+      <c r="A918" s="32"/>
       <c r="B918" s="13"/>
       <c r="C918" s="13"/>
       <c r="D918" s="13"/>
@@ -22994,7 +23040,7 @@
       <c r="V918" s="16"/>
     </row>
     <row r="919" spans="1:22">
-      <c r="A919" s="34"/>
+      <c r="A919" s="32"/>
       <c r="B919" s="13"/>
       <c r="C919" s="13"/>
       <c r="D919" s="13"/>
@@ -23018,7 +23064,7 @@
       <c r="V919" s="16"/>
     </row>
     <row r="920" spans="1:22">
-      <c r="A920" s="34"/>
+      <c r="A920" s="32"/>
       <c r="B920" s="13"/>
       <c r="C920" s="13"/>
       <c r="D920" s="13"/>
@@ -23042,7 +23088,7 @@
       <c r="V920" s="16"/>
     </row>
     <row r="921" spans="1:22">
-      <c r="A921" s="34"/>
+      <c r="A921" s="32"/>
       <c r="B921" s="13"/>
       <c r="C921" s="13"/>
       <c r="D921" s="13"/>
@@ -23066,7 +23112,7 @@
       <c r="V921" s="16"/>
     </row>
     <row r="922" spans="1:22">
-      <c r="A922" s="34"/>
+      <c r="A922" s="32"/>
       <c r="B922" s="13"/>
       <c r="C922" s="13"/>
       <c r="D922" s="13"/>
@@ -23090,7 +23136,7 @@
       <c r="V922" s="16"/>
     </row>
     <row r="923" spans="1:22">
-      <c r="A923" s="34"/>
+      <c r="A923" s="32"/>
       <c r="B923" s="13"/>
       <c r="C923" s="13"/>
       <c r="D923" s="13"/>
@@ -23114,7 +23160,7 @@
       <c r="V923" s="16"/>
     </row>
     <row r="924" spans="1:22">
-      <c r="A924" s="34"/>
+      <c r="A924" s="32"/>
       <c r="B924" s="13"/>
       <c r="C924" s="13"/>
       <c r="D924" s="13"/>
@@ -23138,7 +23184,7 @@
       <c r="V924" s="16"/>
     </row>
     <row r="925" spans="1:22">
-      <c r="A925" s="34"/>
+      <c r="A925" s="32"/>
       <c r="B925" s="13"/>
       <c r="C925" s="13"/>
       <c r="D925" s="13"/>
@@ -23162,7 +23208,7 @@
       <c r="V925" s="16"/>
     </row>
     <row r="926" spans="1:22">
-      <c r="A926" s="34"/>
+      <c r="A926" s="32"/>
       <c r="B926" s="13"/>
       <c r="C926" s="13"/>
       <c r="D926" s="13"/>
@@ -23186,7 +23232,7 @@
       <c r="V926" s="16"/>
     </row>
     <row r="927" spans="1:22">
-      <c r="A927" s="34"/>
+      <c r="A927" s="32"/>
       <c r="B927" s="13"/>
       <c r="C927" s="13"/>
       <c r="D927" s="13"/>
@@ -23210,7 +23256,7 @@
       <c r="V927" s="16"/>
     </row>
     <row r="928" spans="1:22">
-      <c r="A928" s="34"/>
+      <c r="A928" s="32"/>
       <c r="B928" s="13"/>
       <c r="C928" s="13"/>
       <c r="D928" s="13"/>
@@ -23234,7 +23280,7 @@
       <c r="V928" s="16"/>
     </row>
     <row r="929" spans="1:22">
-      <c r="A929" s="34"/>
+      <c r="A929" s="32"/>
       <c r="B929" s="13"/>
       <c r="C929" s="13"/>
       <c r="D929" s="13"/>
@@ -23258,7 +23304,7 @@
       <c r="V929" s="16"/>
     </row>
     <row r="930" spans="1:22">
-      <c r="A930" s="34"/>
+      <c r="A930" s="32"/>
       <c r="B930" s="13"/>
       <c r="C930" s="13"/>
       <c r="D930" s="13"/>
@@ -23282,7 +23328,7 @@
       <c r="V930" s="16"/>
     </row>
     <row r="931" spans="1:22">
-      <c r="A931" s="34"/>
+      <c r="A931" s="32"/>
       <c r="B931" s="13"/>
       <c r="C931" s="13"/>
       <c r="D931" s="13"/>
@@ -23306,7 +23352,7 @@
       <c r="V931" s="16"/>
     </row>
     <row r="932" spans="1:22">
-      <c r="A932" s="34"/>
+      <c r="A932" s="32"/>
       <c r="B932" s="13"/>
       <c r="C932" s="13"/>
       <c r="D932" s="13"/>
@@ -23330,7 +23376,7 @@
       <c r="V932" s="16"/>
     </row>
     <row r="933" spans="1:22">
-      <c r="A933" s="34"/>
+      <c r="A933" s="32"/>
       <c r="B933" s="13"/>
       <c r="C933" s="13"/>
       <c r="D933" s="13"/>
@@ -23354,7 +23400,7 @@
       <c r="V933" s="16"/>
     </row>
     <row r="934" spans="1:22">
-      <c r="A934" s="34"/>
+      <c r="A934" s="32"/>
       <c r="B934" s="13"/>
       <c r="C934" s="13"/>
       <c r="D934" s="13"/>
@@ -23378,7 +23424,7 @@
       <c r="V934" s="16"/>
     </row>
     <row r="935" spans="1:22">
-      <c r="A935" s="34"/>
+      <c r="A935" s="32"/>
       <c r="B935" s="13"/>
       <c r="C935" s="13"/>
       <c r="D935" s="13"/>
@@ -23402,7 +23448,7 @@
       <c r="V935" s="16"/>
     </row>
     <row r="936" spans="1:22">
-      <c r="A936" s="34"/>
+      <c r="A936" s="32"/>
       <c r="B936" s="13"/>
       <c r="C936" s="13"/>
       <c r="D936" s="13"/>
@@ -23426,7 +23472,7 @@
       <c r="V936" s="16"/>
     </row>
     <row r="937" spans="1:22">
-      <c r="A937" s="34"/>
+      <c r="A937" s="32"/>
       <c r="B937" s="13"/>
       <c r="C937" s="13"/>
       <c r="D937" s="13"/>
@@ -23450,7 +23496,7 @@
       <c r="V937" s="16"/>
     </row>
     <row r="938" spans="1:22">
-      <c r="A938" s="34"/>
+      <c r="A938" s="32"/>
       <c r="B938" s="13"/>
       <c r="C938" s="13"/>
       <c r="D938" s="13"/>
@@ -23474,7 +23520,7 @@
       <c r="V938" s="16"/>
     </row>
     <row r="939" spans="1:22">
-      <c r="A939" s="34"/>
+      <c r="A939" s="32"/>
       <c r="B939" s="13"/>
       <c r="C939" s="13"/>
       <c r="D939" s="13"/>
@@ -23498,7 +23544,7 @@
       <c r="V939" s="16"/>
     </row>
     <row r="940" spans="1:22">
-      <c r="A940" s="34"/>
+      <c r="A940" s="32"/>
       <c r="B940" s="13"/>
       <c r="C940" s="13"/>
       <c r="D940" s="13"/>
@@ -23522,7 +23568,7 @@
       <c r="V940" s="16"/>
     </row>
     <row r="941" spans="1:22">
-      <c r="A941" s="34"/>
+      <c r="A941" s="32"/>
       <c r="B941" s="13"/>
       <c r="C941" s="13"/>
       <c r="D941" s="13"/>
@@ -23546,7 +23592,7 @@
       <c r="V941" s="16"/>
     </row>
     <row r="942" spans="1:22">
-      <c r="A942" s="34"/>
+      <c r="A942" s="32"/>
       <c r="B942" s="13"/>
       <c r="C942" s="13"/>
       <c r="D942" s="13"/>
@@ -23570,7 +23616,7 @@
       <c r="V942" s="16"/>
     </row>
     <row r="943" spans="1:22">
-      <c r="A943" s="34"/>
+      <c r="A943" s="32"/>
       <c r="B943" s="13"/>
       <c r="C943" s="13"/>
       <c r="D943" s="13"/>
@@ -23594,7 +23640,7 @@
       <c r="V943" s="16"/>
     </row>
     <row r="944" spans="1:22">
-      <c r="A944" s="34"/>
+      <c r="A944" s="32"/>
       <c r="B944" s="13"/>
       <c r="C944" s="13"/>
       <c r="D944" s="13"/>
@@ -23618,7 +23664,7 @@
       <c r="V944" s="16"/>
     </row>
     <row r="945" spans="1:22">
-      <c r="A945" s="34"/>
+      <c r="A945" s="32"/>
       <c r="B945" s="13"/>
       <c r="C945" s="13"/>
       <c r="D945" s="13"/>
@@ -23642,7 +23688,7 @@
       <c r="V945" s="16"/>
     </row>
     <row r="946" spans="1:22">
-      <c r="A946" s="34"/>
+      <c r="A946" s="32"/>
       <c r="B946" s="13"/>
       <c r="C946" s="13"/>
       <c r="D946" s="13"/>
@@ -23666,7 +23712,7 @@
       <c r="V946" s="16"/>
     </row>
     <row r="947" spans="1:22">
-      <c r="A947" s="34"/>
+      <c r="A947" s="32"/>
       <c r="B947" s="13"/>
       <c r="C947" s="13"/>
       <c r="D947" s="13"/>
@@ -23709,191 +23755,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="38">
+      <c r="A1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36">
         <v>2021</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="36">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="36">
         <v>2019</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="36">
         <v>2018</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="36">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="35">
+        <v>3</v>
+      </c>
+      <c r="C2" s="35">
+        <v>3</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2</v>
+      </c>
+      <c r="E2" s="35">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="35">
+        <v>4</v>
+      </c>
+      <c r="C3" s="35">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35">
+        <v>3</v>
+      </c>
+      <c r="E3" s="35">
+        <v>4</v>
+      </c>
+      <c r="F3" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B4" s="35">
+        <v>0</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1</v>
+      </c>
+      <c r="D5" s="35">
+        <v>11</v>
+      </c>
+      <c r="E5" s="35">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
         <v>3</v>
       </c>
-      <c r="C2" s="37">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="35">
+        <v>2</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
         <v>3</v>
       </c>
-      <c r="D2" s="37">
+      <c r="E9" s="35">
         <v>2</v>
       </c>
-      <c r="E2" s="37">
-        <v>4</v>
-      </c>
-      <c r="F2" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="37">
-        <v>4</v>
-      </c>
-      <c r="C3" s="37">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37">
-        <v>3</v>
-      </c>
-      <c r="E3" s="37">
-        <v>4</v>
-      </c>
-      <c r="F3" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-      <c r="C4" s="37">
-        <v>0</v>
-      </c>
-      <c r="D4" s="37">
+      <c r="F9" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="37">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="37">
-        <v>2</v>
-      </c>
-      <c r="C5" s="37">
-        <v>1</v>
-      </c>
-      <c r="D5" s="37">
-        <v>11</v>
-      </c>
-      <c r="E5" s="37">
-        <v>1</v>
-      </c>
-      <c r="F5" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="37">
-        <v>0</v>
-      </c>
-      <c r="C6" s="37">
-        <v>0</v>
-      </c>
-      <c r="D6" s="37">
-        <v>0</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="37">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37">
-        <v>0</v>
-      </c>
-      <c r="D7" s="37">
-        <v>0</v>
-      </c>
-      <c r="E7" s="37">
-        <v>1</v>
-      </c>
-      <c r="F7" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="37">
-        <v>0</v>
-      </c>
-      <c r="C8" s="37">
-        <v>0</v>
-      </c>
-      <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="37">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="37">
-        <v>2</v>
-      </c>
-      <c r="C9" s="37">
-        <v>1</v>
-      </c>
-      <c r="D9" s="37">
-        <v>3</v>
-      </c>
-      <c r="E9" s="37">
-        <v>2</v>
-      </c>
-      <c r="F9" s="37">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23905,7 +23951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9147511D-6289-4738-98A9-2E7FE52C1E53}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -23915,240 +23961,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="38">
+      <c r="A1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="36">
         <v>2021</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="36">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="36">
         <v>2019</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="36">
         <v>2018</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="36">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="35">
+        <v>3</v>
+      </c>
+      <c r="C2" s="35">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35">
+        <v>10</v>
+      </c>
+      <c r="E2" s="35">
+        <v>9</v>
+      </c>
+      <c r="F2" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35">
+        <v>4</v>
+      </c>
+      <c r="C3" s="35">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35">
+        <v>3</v>
+      </c>
+      <c r="E3" s="35">
+        <v>2</v>
+      </c>
+      <c r="F3" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B4" s="35">
         <v>3</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C4" s="35">
+        <v>1</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35">
         <v>2</v>
       </c>
-      <c r="D2" s="37">
-        <v>10</v>
-      </c>
-      <c r="E2" s="37">
-        <v>9</v>
-      </c>
-      <c r="F2" s="37">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35">
+        <v>4</v>
+      </c>
+      <c r="E5" s="35">
+        <v>2</v>
+      </c>
+      <c r="F5" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="37">
-        <v>4</v>
-      </c>
-      <c r="C3" s="37">
-        <v>3</v>
-      </c>
-      <c r="D3" s="37">
-        <v>3</v>
-      </c>
-      <c r="E3" s="37">
-        <v>2</v>
-      </c>
-      <c r="F3" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="37">
-        <v>3</v>
-      </c>
-      <c r="C4" s="37">
-        <v>1</v>
-      </c>
-      <c r="D4" s="37">
+      <c r="E6" s="35">
         <v>0</v>
       </c>
-      <c r="E4" s="37">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="37">
-        <v>1</v>
-      </c>
-      <c r="C5" s="37">
-        <v>2</v>
-      </c>
-      <c r="D5" s="37">
-        <v>4</v>
-      </c>
-      <c r="E5" s="37">
-        <v>2</v>
-      </c>
-      <c r="F5" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="37">
+      <c r="F6" s="35">
         <v>0</v>
       </c>
-      <c r="C6" s="37">
-        <v>0</v>
-      </c>
-      <c r="D6" s="37">
-        <v>3</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="39"/>
+      <c r="A9" s="37"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="39"/>
+      <c r="A15" s="37"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
